--- a/Emisiones GEI/13.1.xlsx
+++ b/Emisiones GEI/13.1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\Tablas Madre\Nueva carpeta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\Tablas Madre\Emisiones GEI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E76D69-159D-4D7E-B940-67E8B4F8CE11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2FE54C-C913-4C9C-883C-33C83BB2D047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3197939B-B65B-4404-B4AE-C28FC8C0EF58}"/>
   </bookViews>
@@ -468,7 +468,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000000000"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -596,7 +596,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -610,23 +610,22 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -641,10 +640,11 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="170" formatCode="0.000"/>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -666,7 +666,7 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
         <top style="thin">
@@ -675,9 +675,10 @@
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -924,8 +925,8 @@
     <tableColumn id="5" xr3:uid="{22E32A27-C27D-4E68-975C-0788ED961EA7}" name="Categoría" dataDxfId="6"/>
     <tableColumn id="13" xr3:uid="{1590A347-023D-4D42-B26B-D6F2C83D875F}" name="Id_auxiliar" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{AE82D798-5384-4CCD-826D-7EB02D95D6AB}" name="Emisiones" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{F39E7171-40DD-465B-B954-2E5DAE130F97}" name="Variación Emisiones" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{2B2DFEC4-8508-4D9A-B8A2-9DB6188D54A7}" name="Variación Porcentual Emisiones" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{F39E7171-40DD-465B-B954-2E5DAE130F97}" name="Variación Emisiones" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{2B2DFEC4-8508-4D9A-B8A2-9DB6188D54A7}" name="Variación Porcentual Emisiones" dataDxfId="0"/>
     <tableColumn id="9" xr3:uid="{4D509565-7EC8-4CCF-A6A0-A4421E0F2617}" name="Emisiones per cápita" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -947,7 +948,7 @@
     <tableColumn id="9" xr3:uid="{32E2ECD1-0928-4335-895F-1BEE5214C5AE}" name="ISO país"/>
     <tableColumn id="10" xr3:uid="{EA041E70-0B06-4A97-AD93-71677FC9D773}" name="Nivel administrativo"/>
     <tableColumn id="11" xr3:uid="{142F65AA-4F5B-49A7-ACC2-9958A4FD8875}" name="Descripción larga"/>
-    <tableColumn id="12" xr3:uid="{DC891891-F184-4E7D-AFB3-547CEDF53933}" name="Fecha" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{DC891891-F184-4E7D-AFB3-547CEDF53933}" name="Fecha" dataDxfId="3"/>
     <tableColumn id="13" xr3:uid="{0C32E87B-E4E4-40CF-8DA1-EE799B10D423}" name="Unidad"/>
     <tableColumn id="14" xr3:uid="{CC790452-3CD5-4A20-A890-6A9886A1A7BE}" name="Responsable"/>
   </tableColumns>
@@ -1254,8 +1255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEDBBAF2-A8EE-423E-AC7C-FB8E0913A687}">
   <dimension ref="A1:L151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1331,17 +1332,17 @@
       <c r="H2" s="1">
         <v>1</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2">
         <v>650100</v>
       </c>
       <c r="J2" s="1">
         <v>0</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="15">
         <v>0</v>
       </c>
       <c r="L2" s="13">
-        <v>4.8971751412429376E-2</v>
+        <v>4.9328477122695197E-2</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1369,17 +1370,17 @@
       <c r="H3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3">
         <v>959800</v>
       </c>
       <c r="J3" s="2">
         <v>309700</v>
       </c>
-      <c r="K3" s="2">
-        <v>47.63882479618519</v>
+      <c r="K3" s="16">
+        <v>47.638824796185204</v>
       </c>
       <c r="L3" s="13">
-        <v>7.1122638014079295E-2</v>
+        <v>7.1509462077186711E-2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1407,17 +1408,17 @@
       <c r="H4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4">
         <v>1073000</v>
       </c>
       <c r="J4" s="1">
         <v>113200</v>
       </c>
-      <c r="K4" s="1">
-        <v>11.794123775786627</v>
+      <c r="K4" s="15">
+        <v>11.794123775786622</v>
       </c>
       <c r="L4" s="13">
-        <v>7.8206997084548105E-2</v>
+        <v>7.8109860754796034E-2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1445,17 +1446,17 @@
       <c r="H5" s="1">
         <v>1</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5">
         <v>1166200</v>
       </c>
       <c r="J5" s="2">
         <v>93200</v>
       </c>
-      <c r="K5" s="2">
-        <v>8.685927306616966</v>
+      <c r="K5" s="16">
+        <v>8.6859273066169607</v>
       </c>
       <c r="L5" s="13">
-        <v>8.3628540695589823E-2</v>
+        <v>8.3558039161794356E-2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1483,17 +1484,17 @@
       <c r="H6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6">
         <v>1158700</v>
       </c>
       <c r="J6" s="1">
         <v>-7500</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="15">
         <v>-0.64311438861258785</v>
       </c>
       <c r="L6" s="13">
-        <v>8.1794437385288715E-2</v>
+        <v>8.176084075575045E-2</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1521,17 +1522,17 @@
       <c r="H7" s="1">
         <v>1</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7">
         <v>1009600</v>
       </c>
       <c r="J7" s="2">
         <v>-149100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="16">
         <v>-12.867869163717959</v>
       </c>
       <c r="L7" s="13">
-        <v>7.0203741047215079E-2</v>
+        <v>7.020252552473015E-2</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1559,17 +1560,17 @@
       <c r="H8" s="1">
         <v>1</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8">
         <v>978500</v>
       </c>
       <c r="J8" s="1">
         <v>-31100</v>
       </c>
-      <c r="K8" s="1">
-        <v>-3.0804278922345505</v>
+      <c r="K8" s="15">
+        <v>-3.0804278922345483</v>
       </c>
       <c r="L8" s="13">
-        <v>6.7080276958936036E-2</v>
+        <v>6.7089719283861649E-2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1597,17 +1598,17 @@
       <c r="H9" s="1">
         <v>1</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9">
         <v>962900</v>
       </c>
       <c r="J9" s="2">
         <v>-15600</v>
       </c>
-      <c r="K9" s="2">
-        <v>-1.5942769545222304</v>
+      <c r="K9" s="16">
+        <v>-1.594276954522228</v>
       </c>
       <c r="L9" s="13">
-        <v>6.5122413093466794E-2</v>
+        <v>6.5136924186951967E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1635,17 +1636,17 @@
       <c r="H10" s="1">
         <v>1</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10">
         <v>1151100</v>
       </c>
       <c r="J10" s="1">
         <v>188200</v>
       </c>
-      <c r="K10" s="1">
-        <v>19.54512410426835</v>
+      <c r="K10" s="15">
+        <v>19.545124104268353</v>
       </c>
       <c r="L10" s="13">
-        <v>7.6852717318734137E-2</v>
+        <v>7.6868637101902129E-2</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1673,17 +1674,17 @@
       <c r="H11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11">
         <v>967900</v>
       </c>
       <c r="J11" s="2">
         <v>-183200</v>
       </c>
-      <c r="K11" s="2">
-        <v>-15.91521153679089</v>
+      <c r="K11" s="16">
+        <v>-15.915211536790896</v>
       </c>
       <c r="L11" s="13">
-        <v>6.383301457495219E-2</v>
+        <v>6.3835738423976801E-2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1711,17 +1712,17 @@
       <c r="H12" s="1">
         <v>1</v>
       </c>
-      <c r="I12" s="1">
-        <v>1028599.9999999999</v>
+      <c r="I12">
+        <v>1028600</v>
       </c>
       <c r="J12" s="1">
-        <v>60699.999999999884</v>
-      </c>
-      <c r="K12" s="1">
-        <v>6.2713090195268038</v>
+        <v>60700</v>
+      </c>
+      <c r="K12" s="15">
+        <v>6.2713090195268109</v>
       </c>
       <c r="L12" s="13">
-        <v>6.7044713857384947E-2</v>
+        <v>6.703891972314216E-2</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1749,17 +1750,17 @@
       <c r="H13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="2">
-        <v>1031400.0000000001</v>
+      <c r="I13">
+        <v>1031400</v>
       </c>
       <c r="J13" s="2">
-        <v>2800.0000000002328</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0.27221466070388706</v>
+        <v>2800</v>
+      </c>
+      <c r="K13" s="16">
+        <v>0.27221466070386935</v>
       </c>
       <c r="L13" s="13">
-        <v>6.6473317865429246E-2</v>
+        <v>6.6455975751107482E-2</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1787,17 +1788,17 @@
       <c r="H14" s="1">
         <v>1</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14">
         <v>1098500</v>
       </c>
       <c r="J14" s="1">
-        <v>67099.999999999884</v>
-      </c>
-      <c r="K14" s="1">
-        <v>6.5057203800659202</v>
+        <v>67100</v>
+      </c>
+      <c r="K14" s="15">
+        <v>6.50572038006593</v>
       </c>
       <c r="L14" s="13">
-        <v>7.0039530731956137E-2</v>
+        <v>7.0005157503319745E-2</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1825,17 +1826,17 @@
       <c r="H15" s="1">
         <v>1</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15">
         <v>1133300</v>
       </c>
       <c r="J15" s="2">
         <v>34800</v>
       </c>
-      <c r="K15" s="2">
-        <v>3.1679563040509744</v>
+      <c r="K15" s="16">
+        <v>3.1679563040509784</v>
       </c>
       <c r="L15" s="13">
-        <v>7.1501577287066242E-2</v>
+        <v>7.1470116908159728E-2</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1863,17 +1864,17 @@
       <c r="H16" s="1">
         <v>1</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16">
         <v>1214900</v>
       </c>
       <c r="J16" s="1">
         <v>81600</v>
       </c>
-      <c r="K16" s="1">
-        <v>7.2002117709344517</v>
+      <c r="K16" s="15">
+        <v>7.2002117709344393</v>
       </c>
       <c r="L16" s="13">
-        <v>7.5860131127068367E-2</v>
+        <v>7.5826358450525905E-2</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1901,17 +1902,17 @@
       <c r="H17" s="1">
         <v>1</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17">
         <v>1172600</v>
       </c>
       <c r="J17" s="2">
         <v>-42300</v>
       </c>
-      <c r="K17" s="2">
-        <v>-3.4817680467528338</v>
+      <c r="K17" s="16">
+        <v>-3.4817680467528191</v>
       </c>
       <c r="L17" s="13">
-        <v>7.245875301242044E-2</v>
+        <v>7.2456563600098847E-2</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1939,17 +1940,17 @@
       <c r="H18" s="1">
         <v>1</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18">
         <v>1258600</v>
       </c>
       <c r="J18" s="1">
         <v>86000</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="15">
         <v>7.3341292853487978</v>
       </c>
-      <c r="L18" s="14">
-        <v>7.6955059614796692E-2</v>
+      <c r="L18" s="13">
+        <v>7.6988528794847536E-2</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1977,17 +1978,17 @@
       <c r="H19" s="1">
         <v>1</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19">
         <v>1340100</v>
       </c>
       <c r="J19" s="2">
         <v>81500</v>
       </c>
-      <c r="K19" s="2">
-        <v>6.4754489114889573</v>
-      </c>
-      <c r="L19" s="14">
-        <v>8.1070780399274053E-2</v>
+      <c r="K19" s="16">
+        <v>6.4754489114889555</v>
+      </c>
+      <c r="L19" s="13">
+        <v>8.1130005794308527E-2</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -2015,17 +2016,17 @@
       <c r="H20" s="1">
         <v>1</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20">
         <v>1330900</v>
       </c>
       <c r="J20" s="1">
         <v>-9200</v>
       </c>
-      <c r="K20" s="1">
-        <v>-0.68651593164687852</v>
+      <c r="K20" s="15">
+        <v>-0.68651593164689206</v>
       </c>
       <c r="L20" s="13">
-        <v>7.965645199904238E-2</v>
+        <v>7.9705330429469742E-2</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -2053,17 +2054,17 @@
       <c r="H21" s="1">
         <v>1</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21">
         <v>1100000</v>
       </c>
       <c r="J21" s="2">
         <v>-230900</v>
       </c>
-      <c r="K21" s="2">
-        <v>-17.349162221053426</v>
+      <c r="K21" s="16">
+        <v>-17.349162221053422</v>
       </c>
       <c r="L21" s="13">
-        <v>6.5142721781357341E-2</v>
+        <v>6.5161715383342228E-2</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -2091,17 +2092,17 @@
       <c r="H22" s="1">
         <v>1</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22">
         <v>1065300</v>
       </c>
       <c r="J22" s="1">
         <v>-34700</v>
       </c>
-      <c r="K22" s="1">
-        <v>-3.1545454545454583</v>
+      <c r="K22" s="15">
+        <v>-3.1545454545454543</v>
       </c>
       <c r="L22" s="13">
-        <v>6.2433335286878042E-2</v>
+        <v>6.2429943588014646E-2</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -2129,17 +2130,17 @@
       <c r="H23" s="1">
         <v>1</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23">
         <v>1099500</v>
       </c>
       <c r="J23" s="2">
         <v>34200</v>
       </c>
-      <c r="K23" s="2">
-        <v>3.2103632779498779</v>
+      <c r="K23" s="16">
+        <v>3.210363277949873</v>
       </c>
       <c r="L23" s="13">
-        <v>6.3798305674828831E-2</v>
+        <v>6.3723766542315971E-2</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2167,17 +2168,17 @@
       <c r="H24" s="1">
         <v>1</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24">
         <v>1147700</v>
       </c>
       <c r="J24" s="1">
         <v>48200</v>
       </c>
-      <c r="K24" s="1">
-        <v>4.3838108231014141</v>
-      </c>
-      <c r="L24" s="14">
-        <v>6.5959770114942529E-2</v>
+      <c r="K24" s="15">
+        <v>4.3838108231014097</v>
+      </c>
+      <c r="L24" s="13">
+        <v>6.5795315857359052E-2</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -2205,17 +2206,17 @@
       <c r="H25" s="1">
         <v>1</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25">
         <v>966400</v>
       </c>
       <c r="J25" s="2">
         <v>-181300</v>
       </c>
-      <c r="K25" s="2">
-        <v>-15.796811013331016</v>
+      <c r="K25" s="16">
+        <v>-15.796811013331011</v>
       </c>
       <c r="L25" s="13">
-        <v>5.4996585476895059E-2</v>
+        <v>5.4871983730093436E-2</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -2243,17 +2244,17 @@
       <c r="H26" s="1">
         <v>1</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26">
         <v>870900</v>
       </c>
       <c r="J26" s="1">
         <v>-95500</v>
       </c>
-      <c r="K26" s="1">
-        <v>-9.8820364238410612</v>
+      <c r="K26" s="15">
+        <v>-9.8820364238410594</v>
       </c>
       <c r="L26" s="13">
-        <v>4.9039923419111439E-2</v>
+        <v>4.8961027213482278E-2</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -2281,17 +2282,17 @@
       <c r="H27" s="1">
         <v>1</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27">
         <v>841900</v>
       </c>
       <c r="J27" s="2">
         <v>-29000</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27" s="16">
         <v>-3.3298886209668157</v>
       </c>
       <c r="L27" s="13">
-        <v>4.685291335077077E-2</v>
+        <v>4.6846596399183302E-2</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -2319,17 +2320,17 @@
       <c r="H28" s="1">
         <v>1</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28">
         <v>882000</v>
       </c>
       <c r="J28" s="1">
         <v>40100</v>
       </c>
-      <c r="K28" s="1">
-        <v>4.7630359900225709</v>
+      <c r="K28" s="15">
+        <v>4.7630359900225683</v>
       </c>
       <c r="L28" s="13">
-        <v>4.8437585809215221E-2</v>
+        <v>4.8549175057591598E-2</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -2357,17 +2358,17 @@
       <c r="H29" s="1">
         <v>1</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29">
         <v>882000</v>
       </c>
       <c r="J29" s="2">
         <v>0</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="16">
         <v>0</v>
       </c>
       <c r="L29" s="13">
-        <v>4.7753113156469948E-2</v>
+        <v>4.7884836642128496E-2</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -2395,17 +2396,17 @@
       <c r="H30" s="1">
         <v>1</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30">
         <v>882000</v>
       </c>
       <c r="J30" s="1">
         <v>0</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="15">
         <v>0</v>
       </c>
       <c r="L30" s="13">
-        <v>4.7092743873137916E-2</v>
+        <v>4.7036475400110016E-2</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -2433,17 +2434,17 @@
       <c r="H31" s="1">
         <v>1</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31">
         <v>882000</v>
       </c>
       <c r="J31" s="1">
         <v>0</v>
       </c>
-      <c r="K31" s="1">
-        <v>0</v>
-      </c>
-      <c r="L31" s="14">
-        <v>4.6538999999999997E-2</v>
+      <c r="K31" s="15">
+        <v>0</v>
+      </c>
+      <c r="L31" s="13">
+        <v>4.6160570959160138E-2</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -2471,17 +2472,17 @@
       <c r="H32" s="2">
         <v>2</v>
       </c>
-      <c r="I32" s="2">
-        <v>384760</v>
+      <c r="I32">
+        <v>384763</v>
       </c>
       <c r="J32" s="2">
-        <v>-497240</v>
-      </c>
-      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="K32" s="16">
         <v>0</v>
       </c>
       <c r="L32" s="13">
-        <v>2.8983804143126176E-2</v>
+        <v>2.9195158965020108E-2</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2509,17 +2510,17 @@
       <c r="H33" s="2">
         <v>2</v>
       </c>
-      <c r="I33" s="1">
-        <v>238130</v>
+      <c r="I33">
+        <v>238132</v>
       </c>
       <c r="J33" s="1">
-        <v>-146630</v>
-      </c>
-      <c r="K33" s="1">
-        <v>-38.109470838964548</v>
+        <v>-146631</v>
+      </c>
+      <c r="K33" s="15">
+        <v>-38.109433599384559</v>
       </c>
       <c r="L33" s="13">
-        <v>1.7645794738792145E-2</v>
+        <v>1.7741916256891671E-2</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -2547,17 +2548,17 @@
       <c r="H34" s="2">
         <v>2</v>
       </c>
-      <c r="I34" s="2">
-        <v>241820</v>
+      <c r="I34">
+        <v>241824</v>
       </c>
       <c r="J34" s="2">
-        <v>3690</v>
-      </c>
-      <c r="K34" s="2">
-        <v>1.5495737622307133</v>
+        <v>3692</v>
+      </c>
+      <c r="K34" s="16">
+        <v>1.5504006181445584</v>
       </c>
       <c r="L34" s="13">
-        <v>1.7625364431486882E-2</v>
+        <v>1.7603764181889841E-2</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -2585,17 +2586,17 @@
       <c r="H35" s="2">
         <v>2</v>
       </c>
-      <c r="I35" s="1">
-        <v>197860</v>
+      <c r="I35">
+        <v>197856</v>
       </c>
       <c r="J35" s="1">
-        <v>-43960</v>
-      </c>
-      <c r="K35" s="1">
-        <v>-18.178810685633934</v>
+        <v>-43968</v>
+      </c>
+      <c r="K35" s="15">
+        <v>-18.181818181818183</v>
       </c>
       <c r="L35" s="13">
-        <v>1.4188598063822158E-2</v>
+        <v>1.4176350022634183E-2</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2623,17 +2624,17 @@
       <c r="H36" s="2">
         <v>2</v>
       </c>
-      <c r="I36" s="2">
-        <v>355410</v>
+      <c r="I36">
+        <v>355408</v>
       </c>
       <c r="J36" s="2">
-        <v>157550</v>
-      </c>
-      <c r="K36" s="2">
-        <v>79.627008996259988</v>
+        <v>157552</v>
+      </c>
+      <c r="K36" s="16">
+        <v>79.629629629629633</v>
       </c>
       <c r="L36" s="13">
-        <v>2.5088945362134688E-2</v>
+        <v>2.5078499086320663E-2</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2661,17 +2662,17 @@
       <c r="H37" s="2">
         <v>2</v>
       </c>
-      <c r="I37" s="1">
-        <v>315130</v>
+      <c r="I37">
+        <v>315132</v>
       </c>
       <c r="J37" s="1">
-        <v>-40280</v>
-      </c>
-      <c r="K37" s="1">
-        <v>-11.333389606370115</v>
+        <v>-40276</v>
+      </c>
+      <c r="K37" s="15">
+        <v>-11.332327916085175</v>
       </c>
       <c r="L37" s="13">
-        <v>2.191294068562687E-2</v>
+        <v>2.1912700350296417E-2</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -2699,17 +2700,17 @@
       <c r="H38" s="2">
         <v>2</v>
       </c>
-      <c r="I38" s="2">
-        <v>293140</v>
+      <c r="I38">
+        <v>293142</v>
       </c>
       <c r="J38" s="2">
         <v>-21990</v>
       </c>
-      <c r="K38" s="2">
-        <v>-6.9780725414908167</v>
+      <c r="K38" s="16">
+        <v>-6.9780282548265484</v>
       </c>
       <c r="L38" s="13">
-        <v>2.0095975868924386E-2</v>
+        <v>2.0098941737669667E-2</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2737,17 +2738,17 @@
       <c r="H39" s="2">
         <v>2</v>
       </c>
-      <c r="I39" s="1">
-        <v>300450</v>
+      <c r="I39">
+        <v>300448</v>
       </c>
       <c r="J39" s="1">
-        <v>7310</v>
-      </c>
-      <c r="K39" s="1">
-        <v>2.4936890223101598</v>
+        <v>7306</v>
+      </c>
+      <c r="K39" s="15">
+        <v>2.4923074823805527</v>
       </c>
       <c r="L39" s="13">
-        <v>2.0319897200054105E-2</v>
+        <v>2.0324289747763367E-2</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2775,17 +2776,17 @@
       <c r="H40" s="2">
         <v>2</v>
       </c>
-      <c r="I40" s="2">
-        <v>234500</v>
+      <c r="I40">
+        <v>234496</v>
       </c>
       <c r="J40" s="2">
-        <v>-65950</v>
-      </c>
-      <c r="K40" s="2">
-        <v>-21.950407721750704</v>
+        <v>-65952</v>
+      </c>
+      <c r="K40" s="16">
+        <v>-21.951219512195124</v>
       </c>
       <c r="L40" s="13">
-        <v>1.5656295900654291E-2</v>
+        <v>1.5659271936276295E-2</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2813,17 +2814,17 @@
       <c r="H41" s="2">
         <v>2</v>
       </c>
-      <c r="I41" s="1">
-        <v>234500</v>
+      <c r="I41">
+        <v>234496</v>
       </c>
       <c r="J41" s="1">
         <v>0</v>
       </c>
-      <c r="K41" s="1">
+      <c r="K41" s="15">
         <v>0</v>
       </c>
       <c r="L41" s="13">
-        <v>1.5465277319791597E-2</v>
+        <v>1.5465673434723489E-2</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2851,17 +2852,17 @@
       <c r="H42" s="2">
         <v>2</v>
       </c>
-      <c r="I42" s="2">
-        <v>296780</v>
+      <c r="I42">
+        <v>296784</v>
       </c>
       <c r="J42" s="2">
-        <v>62280</v>
-      </c>
-      <c r="K42" s="2">
-        <v>26.558635394456275</v>
+        <v>62288</v>
+      </c>
+      <c r="K42" s="16">
+        <v>26.5625</v>
       </c>
       <c r="L42" s="13">
-        <v>1.934428366575414E-2</v>
+        <v>1.9342872594898915E-2</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2889,17 +2890,17 @@
       <c r="H43" s="2">
         <v>2</v>
       </c>
-      <c r="I43" s="1">
-        <v>296800</v>
+      <c r="I43">
+        <v>296805</v>
       </c>
       <c r="J43" s="1">
-        <v>20</v>
-      </c>
-      <c r="K43" s="1">
-        <v>6.7389985848233221E-3</v>
+        <v>21</v>
+      </c>
+      <c r="K43" s="15">
+        <v>7.075853145722141E-3</v>
       </c>
       <c r="L43" s="13">
-        <v>1.9128641402423305E-2</v>
+        <v>1.9123973126631236E-2</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2927,17 +2928,17 @@
       <c r="H44" s="2">
         <v>2</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44">
         <v>183200</v>
       </c>
       <c r="J44" s="2">
-        <v>-113600</v>
-      </c>
-      <c r="K44" s="2">
-        <v>-38.274932614555262</v>
+        <v>-113605</v>
+      </c>
+      <c r="K44" s="16">
+        <v>-38.275972439817387</v>
       </c>
       <c r="L44" s="13">
-        <v>1.1680693700586584E-2</v>
+        <v>1.1674961178523603E-2</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2965,17 +2966,17 @@
       <c r="H45" s="2">
         <v>2</v>
       </c>
-      <c r="I45" s="1">
+      <c r="I45">
         <v>183200</v>
       </c>
       <c r="J45" s="1">
         <v>0</v>
       </c>
-      <c r="K45" s="1">
-        <v>0</v>
-      </c>
-      <c r="L45" s="14">
-        <v>1.1558359621451105E-2</v>
+      <c r="K45" s="15">
+        <v>0</v>
+      </c>
+      <c r="L45" s="13">
+        <v>1.1553273994154119E-2</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -3003,17 +3004,17 @@
       <c r="H46" s="2">
         <v>2</v>
       </c>
-      <c r="I46" s="2">
-        <v>179540</v>
+      <c r="I46">
+        <v>179536</v>
       </c>
       <c r="J46" s="2">
-        <v>-3660</v>
-      </c>
-      <c r="K46" s="2">
-        <v>-1.9978165938864609</v>
-      </c>
-      <c r="L46" s="14">
-        <v>1.1210739931314393E-2</v>
+        <v>-3664</v>
+      </c>
+      <c r="K46" s="16">
+        <v>-2</v>
+      </c>
+      <c r="L46" s="13">
+        <v>1.1205499292759585E-2</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -3041,17 +3042,17 @@
       <c r="H47" s="2">
         <v>2</v>
       </c>
-      <c r="I47" s="1">
-        <v>139230</v>
+      <c r="I47">
+        <v>139232</v>
       </c>
       <c r="J47" s="1">
-        <v>-40310</v>
-      </c>
-      <c r="K47" s="1">
-        <v>-22.45182132115406</v>
+        <v>-40304</v>
+      </c>
+      <c r="K47" s="15">
+        <v>-22.448979591836736</v>
       </c>
       <c r="L47" s="13">
-        <v>8.6034727800778591E-3</v>
+        <v>8.6033364004511025E-3</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -3079,17 +3080,17 @@
       <c r="H48" s="2">
         <v>2</v>
       </c>
-      <c r="I48" s="2">
-        <v>106260</v>
+      <c r="I48">
+        <v>106256</v>
       </c>
       <c r="J48" s="2">
-        <v>-32970</v>
-      </c>
-      <c r="K48" s="2">
-        <v>-23.680241327300141</v>
+        <v>-32976</v>
+      </c>
+      <c r="K48" s="16">
+        <v>-23.684210526315788</v>
       </c>
       <c r="L48" s="13">
-        <v>6.4970956893916233E-3</v>
+        <v>6.499676716689432E-3</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -3117,17 +3118,17 @@
       <c r="H49" s="2">
         <v>2</v>
       </c>
-      <c r="I49" s="1">
-        <v>370060</v>
+      <c r="I49">
+        <v>370064</v>
       </c>
       <c r="J49" s="1">
-        <v>263800</v>
-      </c>
-      <c r="K49" s="1">
-        <v>248.25898738942217</v>
+        <v>263808</v>
+      </c>
+      <c r="K49" s="15">
+        <v>248.27586206896552</v>
       </c>
       <c r="L49" s="13">
-        <v>2.2387174833635812E-2</v>
+        <v>2.2403771706786799E-2</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -3155,17 +3156,17 @@
       <c r="H50" s="2">
         <v>2</v>
       </c>
-      <c r="I50" s="2">
-        <v>377390</v>
+      <c r="I50">
+        <v>377392</v>
       </c>
       <c r="J50" s="2">
-        <v>7330</v>
-      </c>
-      <c r="K50" s="2">
-        <v>1.9807598767767345</v>
+        <v>7328</v>
+      </c>
+      <c r="K50" s="16">
+        <v>1.9801980198019802</v>
       </c>
       <c r="L50" s="13">
-        <v>2.2587383289442185E-2</v>
+        <v>2.2601363033615179E-2</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -3193,17 +3194,17 @@
       <c r="H51" s="2">
         <v>2</v>
       </c>
-      <c r="I51" s="1">
+      <c r="I51">
         <v>80604</v>
       </c>
       <c r="J51" s="1">
-        <v>-296786</v>
-      </c>
-      <c r="K51" s="1">
-        <v>-78.641723416094749</v>
+        <v>-296788</v>
+      </c>
+      <c r="K51" s="15">
+        <v>-78.641836604909486</v>
       </c>
       <c r="L51" s="13">
-        <v>4.7734217695132065E-3</v>
+        <v>4.7748135515990149E-3</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -3231,17 +3232,17 @@
       <c r="H52" s="2">
         <v>2</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I52">
         <v>51299</v>
       </c>
       <c r="J52" s="2">
         <v>-29305</v>
       </c>
-      <c r="K52" s="2">
+      <c r="K52" s="16">
         <v>-36.356756488511735</v>
       </c>
       <c r="L52" s="13">
-        <v>3.006446697532673E-3</v>
+        <v>3.0062833719342566E-3</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -3269,17 +3270,17 @@
       <c r="H53" s="2">
         <v>2</v>
       </c>
-      <c r="I53" s="1">
+      <c r="I53">
         <v>58624</v>
       </c>
       <c r="J53" s="1">
         <v>7325</v>
       </c>
-      <c r="K53" s="1">
-        <v>14.279030780327107</v>
+      <c r="K53" s="15">
+        <v>14.279030780327101</v>
       </c>
       <c r="L53" s="13">
-        <v>3.40164790530347E-3</v>
+        <v>3.3976735696013929E-3</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -3307,17 +3308,17 @@
       <c r="H54" s="2">
         <v>2</v>
       </c>
-      <c r="I54" s="2">
-        <v>106260</v>
+      <c r="I54">
+        <v>106261</v>
       </c>
       <c r="J54" s="2">
-        <v>47636</v>
-      </c>
-      <c r="K54" s="2">
-        <v>81.2568231441048</v>
+        <v>47637</v>
+      </c>
+      <c r="K54" s="16">
+        <v>81.258528930131007</v>
       </c>
       <c r="L54" s="13">
-        <v>6.1068965517241383E-3</v>
+        <v>6.0917278542466065E-3</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -3345,17 +3346,17 @@
       <c r="H55" s="2">
         <v>2</v>
       </c>
-      <c r="I55" s="1">
-        <v>120920</v>
+      <c r="I55">
+        <v>120917</v>
       </c>
       <c r="J55" s="1">
-        <v>14660</v>
-      </c>
-      <c r="K55" s="1">
-        <v>13.796348578957272</v>
+        <v>14656</v>
+      </c>
+      <c r="K55" s="15">
+        <v>13.792454428247428</v>
       </c>
       <c r="L55" s="13">
-        <v>6.8814022308217619E-3</v>
+        <v>6.8656412010468827E-3</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -3383,17 +3384,17 @@
       <c r="H56" s="2">
         <v>2</v>
       </c>
-      <c r="I56" s="2">
+      <c r="I56">
         <v>47634</v>
       </c>
       <c r="J56" s="2">
-        <v>-73286</v>
-      </c>
-      <c r="K56" s="2">
-        <v>-60.607012901091629</v>
+        <v>-73283</v>
+      </c>
+      <c r="K56" s="16">
+        <v>-60.606035545043291</v>
       </c>
       <c r="L56" s="13">
-        <v>2.6822456219381722E-3</v>
+        <v>2.6779303826926339E-3</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -3421,17 +3422,17 @@
       <c r="H57" s="2">
         <v>2</v>
       </c>
-      <c r="I57" s="1">
-        <v>161210</v>
+      <c r="I57">
+        <v>161209</v>
       </c>
       <c r="J57" s="1">
-        <v>113576</v>
-      </c>
-      <c r="K57" s="1">
-        <v>238.4347314943108</v>
+        <v>113575</v>
+      </c>
+      <c r="K57" s="15">
+        <v>238.43263215350379</v>
       </c>
       <c r="L57" s="13">
-        <v>8.9715621347876903E-3</v>
+        <v>8.9702968985817099E-3</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -3459,17 +3460,17 @@
       <c r="H58" s="2">
         <v>2</v>
       </c>
-      <c r="I58" s="2">
-        <v>249150</v>
+      <c r="I58">
+        <v>249152</v>
       </c>
       <c r="J58" s="2">
-        <v>87940</v>
-      </c>
-      <c r="K58" s="2">
-        <v>54.549965883009733</v>
+        <v>87943</v>
+      </c>
+      <c r="K58" s="16">
+        <v>54.552165201694692</v>
       </c>
       <c r="L58" s="13">
-        <v>1.3682794222637157E-2</v>
+        <v>1.371442637635948E-2</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -3497,17 +3498,17 @@
       <c r="H59" s="2">
         <v>2</v>
       </c>
-      <c r="I59" s="1">
-        <v>249150</v>
+      <c r="I59">
+        <v>29312</v>
       </c>
       <c r="J59" s="1">
-        <v>0</v>
-      </c>
-      <c r="K59" s="1">
-        <v>0</v>
+        <v>-219840</v>
+      </c>
+      <c r="K59" s="15">
+        <v>-88.235294117647058</v>
       </c>
       <c r="L59" s="13">
-        <v>1.3489442338927991E-2</v>
+        <v>1.5913835959796717E-3</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -3535,17 +3536,17 @@
       <c r="H60" s="2">
         <v>2</v>
       </c>
-      <c r="I60" s="2">
-        <v>249150</v>
+      <c r="I60">
+        <v>29312</v>
       </c>
       <c r="J60" s="2">
         <v>0</v>
       </c>
-      <c r="K60" s="2">
+      <c r="K60" s="16">
         <v>0</v>
       </c>
       <c r="L60" s="13">
-        <v>1.3302899247156816E-2</v>
+        <v>1.5631895316644273E-3</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -3573,17 +3574,17 @@
       <c r="H61" s="2">
         <v>2</v>
       </c>
-      <c r="I61" s="2">
+      <c r="I61">
         <v>29312</v>
       </c>
       <c r="J61" s="2">
-        <v>-219838</v>
-      </c>
-      <c r="K61" s="2">
-        <v>-88.235199678908288</v>
-      </c>
-      <c r="L61" s="14">
-        <v>1.547E-3</v>
+        <v>0</v>
+      </c>
+      <c r="K61" s="16">
+        <v>0</v>
+      </c>
+      <c r="L61" s="13">
+        <v>1.534080108792406E-3</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -3611,17 +3612,17 @@
       <c r="H62" s="1">
         <v>3</v>
       </c>
-      <c r="I62" s="1">
-        <v>10707400</v>
+      <c r="I62">
+        <v>10707394</v>
       </c>
       <c r="J62" s="1">
-        <v>10458250</v>
-      </c>
-      <c r="K62" s="1">
+        <v>0</v>
+      </c>
+      <c r="K62" s="15">
         <v>0</v>
       </c>
       <c r="L62" s="13">
-        <v>0.80658380414312614</v>
+        <v>0.81245876014872143</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -3649,17 +3650,17 @@
       <c r="H63" s="1">
         <v>3</v>
       </c>
-      <c r="I63" s="2">
-        <v>8627700</v>
+      <c r="I63">
+        <v>8627703</v>
       </c>
       <c r="J63" s="2">
-        <v>-2079700</v>
-      </c>
-      <c r="K63" s="2">
-        <v>-19.423015858191523</v>
+        <v>-2079691</v>
+      </c>
+      <c r="K63" s="16">
+        <v>-19.422942688015404</v>
       </c>
       <c r="L63" s="13">
-        <v>0.6393256761763616</v>
+        <v>0.64280308448815382</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -3687,17 +3688,17 @@
       <c r="H64" s="1">
         <v>3</v>
       </c>
-      <c r="I64" s="1">
-        <v>7456200</v>
+      <c r="I64">
+        <v>7456240</v>
       </c>
       <c r="J64" s="1">
-        <v>-1171500</v>
-      </c>
-      <c r="K64" s="1">
-        <v>-13.578358079209995</v>
-      </c>
-      <c r="L64" s="14">
-        <v>0.54345481049562683</v>
+        <v>-1171463</v>
+      </c>
+      <c r="K64" s="15">
+        <v>-13.577924506673444</v>
+      </c>
+      <c r="L64" s="13">
+        <v>0.5427827289416034</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -3725,17 +3726,17 @@
       <c r="H65" s="1">
         <v>3</v>
       </c>
-      <c r="I65" s="2">
-        <v>7628400</v>
+      <c r="I65">
+        <v>7628448</v>
       </c>
       <c r="J65" s="2">
-        <v>172200</v>
-      </c>
-      <c r="K65" s="2">
-        <v>2.309487406453687</v>
+        <v>172208</v>
+      </c>
+      <c r="K65" s="16">
+        <v>2.3095823095823098</v>
       </c>
       <c r="L65" s="13">
-        <v>0.54703477949085699</v>
+        <v>0.5465770508726735</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -3763,17 +3764,17 @@
       <c r="H66" s="1">
         <v>3</v>
       </c>
-      <c r="I66" s="1">
-        <v>9361500</v>
+      <c r="I66">
+        <v>9361520</v>
       </c>
       <c r="J66" s="1">
-        <v>1733100</v>
-      </c>
-      <c r="K66" s="1">
-        <v>22.719049866289136</v>
+        <v>1733072</v>
+      </c>
+      <c r="K66" s="15">
+        <v>22.718539865513929</v>
       </c>
       <c r="L66" s="13">
-        <v>0.660842863193562</v>
+        <v>0.66057283675824019</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -3801,17 +3802,17 @@
       <c r="H67" s="1">
         <v>3</v>
       </c>
-      <c r="I67" s="2">
-        <v>10311400</v>
+      <c r="I67">
+        <v>10311409</v>
       </c>
       <c r="J67" s="2">
-        <v>949900</v>
-      </c>
-      <c r="K67" s="2">
-        <v>10.146878171233238</v>
+        <v>949889</v>
+      </c>
+      <c r="K67" s="16">
+        <v>10.146738991104009</v>
       </c>
       <c r="L67" s="13">
-        <v>0.7170155065711703</v>
+        <v>0.71700371782729022</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -3839,17 +3840,17 @@
       <c r="H68" s="1">
         <v>3</v>
       </c>
-      <c r="I68" s="1">
-        <v>14415300</v>
+      <c r="I68">
+        <v>14415275</v>
       </c>
       <c r="J68" s="1">
-        <v>4103900</v>
-      </c>
-      <c r="K68" s="1">
-        <v>39.799639234245589</v>
+        <v>4103866</v>
+      </c>
+      <c r="K68" s="15">
+        <v>39.799274764486597</v>
       </c>
       <c r="L68" s="13">
-        <v>0.9882292452183451</v>
+        <v>0.98836663581979423</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -3877,17 +3878,17 @@
       <c r="H69" s="1">
         <v>3</v>
       </c>
-      <c r="I69" s="2">
-        <v>18605800</v>
+      <c r="I69">
+        <v>18605792</v>
       </c>
       <c r="J69" s="2">
-        <v>4190500</v>
-      </c>
-      <c r="K69" s="2">
-        <v>29.069807773684907</v>
+        <v>4190517</v>
+      </c>
+      <c r="K69" s="16">
+        <v>29.069976119082014</v>
       </c>
       <c r="L69" s="13">
-        <v>1.2583389692952793</v>
+        <v>1.2586188212090534</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -3915,17 +3916,17 @@
       <c r="H70" s="1">
         <v>3</v>
       </c>
-      <c r="I70" s="1">
+      <c r="I70">
         <v>17770400</v>
       </c>
       <c r="J70" s="1">
-        <v>-835400</v>
-      </c>
-      <c r="K70" s="1">
-        <v>-4.48999774263938</v>
+        <v>-835392</v>
+      </c>
+      <c r="K70" s="15">
+        <v>-4.4899566758566367</v>
       </c>
       <c r="L70" s="13">
-        <v>1.1864334357057016</v>
+        <v>1.186679201420938</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -3953,17 +3954,17 @@
       <c r="H71" s="1">
         <v>3</v>
       </c>
-      <c r="I71" s="2">
-        <v>18517900</v>
+      <c r="I71">
+        <v>18517856</v>
       </c>
       <c r="J71" s="2">
-        <v>747500</v>
-      </c>
-      <c r="K71" s="2">
-        <v>4.206433169765452</v>
+        <v>747456</v>
+      </c>
+      <c r="K71" s="16">
+        <v>4.2061855670103094</v>
       </c>
       <c r="L71" s="13">
-        <v>1.2212556881883532</v>
+        <v>1.2213048990483206</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -3991,17 +3992,17 @@
       <c r="H72" s="1">
         <v>3</v>
       </c>
-      <c r="I72" s="1">
-        <v>14242000</v>
+      <c r="I72">
+        <v>14241968</v>
       </c>
       <c r="J72" s="1">
-        <v>-4275900</v>
-      </c>
-      <c r="K72" s="1">
-        <v>-23.090631227082991</v>
+        <v>-4275888</v>
+      </c>
+      <c r="K72" s="15">
+        <v>-23.090621290067272</v>
       </c>
       <c r="L72" s="13">
-        <v>0.92830139486377261</v>
+        <v>0.92821908365891459</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -4029,17 +4030,17 @@
       <c r="H73" s="1">
         <v>3</v>
       </c>
-      <c r="I73" s="2">
-        <v>9263200</v>
+      <c r="I73">
+        <v>9263234</v>
       </c>
       <c r="J73" s="2">
-        <v>-4978800</v>
-      </c>
-      <c r="K73" s="2">
-        <v>-34.958573234096328</v>
+        <v>-4978734</v>
+      </c>
+      <c r="K73" s="16">
+        <v>-34.958188362731889</v>
       </c>
       <c r="L73" s="13">
-        <v>0.59700953854086103</v>
+        <v>0.59685597642120847</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -4067,17 +4068,17 @@
       <c r="H74" s="1">
         <v>3</v>
       </c>
-      <c r="I74" s="1">
-        <v>9379800</v>
+      <c r="I74">
+        <v>9379840</v>
       </c>
       <c r="J74" s="1">
-        <v>116600</v>
-      </c>
-      <c r="K74" s="1">
-        <v>1.2587442784350822</v>
+        <v>116606</v>
+      </c>
+      <c r="K74" s="15">
+        <v>1.2588044305045085</v>
       </c>
       <c r="L74" s="13">
-        <v>0.59804896710022948</v>
+        <v>0.59775801234040848</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -4105,17 +4106,17 @@
       <c r="H75" s="1">
         <v>3</v>
       </c>
-      <c r="I75" s="2">
-        <v>9244300</v>
+      <c r="I75">
+        <v>9244272</v>
       </c>
       <c r="J75" s="2">
-        <v>-135500</v>
-      </c>
-      <c r="K75" s="2">
-        <v>-1.4445937013582382</v>
+        <v>-135568</v>
+      </c>
+      <c r="K75" s="16">
+        <v>-1.4453125</v>
       </c>
       <c r="L75" s="13">
-        <v>0.58323659305993691</v>
+        <v>0.5829782057450168</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -4143,17 +4144,17 @@
       <c r="H76" s="1">
         <v>3</v>
       </c>
-      <c r="I76" s="1">
-        <v>10281200</v>
+      <c r="I76">
+        <v>10281184</v>
       </c>
       <c r="J76" s="1">
-        <v>1036900</v>
-      </c>
-      <c r="K76" s="1">
-        <v>11.216641606178959</v>
-      </c>
-      <c r="L76" s="14">
-        <v>0.64197315017171397</v>
+        <v>1036912</v>
+      </c>
+      <c r="K76" s="15">
+        <v>11.216805390408243</v>
+      </c>
+      <c r="L76" s="13">
+        <v>0.64168634725476315</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -4181,17 +4182,17 @@
       <c r="H77" s="1">
         <v>3</v>
       </c>
-      <c r="I77" s="2">
-        <v>10251900</v>
+      <c r="I77">
+        <v>10251872</v>
       </c>
       <c r="J77" s="2">
-        <v>-29300</v>
-      </c>
-      <c r="K77" s="2">
-        <v>-0.28498618838268969</v>
+        <v>-29312</v>
+      </c>
+      <c r="K77" s="16">
+        <v>-0.2851033499643621</v>
       </c>
       <c r="L77" s="13">
-        <v>0.63349811530618549</v>
+        <v>0.63347724338058375</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -4219,17 +4220,17 @@
       <c r="H78" s="1">
         <v>3</v>
       </c>
-      <c r="I78" s="1">
-        <v>12538200</v>
+      <c r="I78">
+        <v>12538208</v>
       </c>
       <c r="J78" s="1">
-        <v>2286300</v>
-      </c>
-      <c r="K78" s="1">
-        <v>22.301231966757392</v>
+        <v>2286336</v>
+      </c>
+      <c r="K78" s="15">
+        <v>22.301644031451037</v>
       </c>
       <c r="L78" s="13">
-        <v>0.7666279425252216</v>
+        <v>0.76696185256935301</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -4257,17 +4258,17 @@
       <c r="H79" s="1">
         <v>3</v>
       </c>
-      <c r="I79" s="2">
+      <c r="I79">
         <v>13007200</v>
       </c>
       <c r="J79" s="2">
-        <v>469000</v>
-      </c>
-      <c r="K79" s="2">
-        <v>3.740568821680943</v>
+        <v>468992</v>
+      </c>
+      <c r="K79" s="16">
+        <v>3.7405026300409117</v>
       </c>
       <c r="L79" s="13">
-        <v>0.78688445251058681</v>
+        <v>0.78745930256527863</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -4295,17 +4296,17 @@
       <c r="H80" s="1">
         <v>3</v>
       </c>
-      <c r="I80" s="1">
-        <v>16733500</v>
+      <c r="I80">
+        <v>16733488</v>
       </c>
       <c r="J80" s="1">
-        <v>3726300</v>
-      </c>
-      <c r="K80" s="1">
-        <v>28.647979580539999</v>
+        <v>3726288</v>
+      </c>
+      <c r="K80" s="15">
+        <v>28.64788732394366</v>
       </c>
       <c r="L80" s="13">
-        <v>1.0015262149868327</v>
+        <v>1.0021400482963159</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -4333,17 +4334,17 @@
       <c r="H81" s="1">
         <v>3</v>
       </c>
-      <c r="I81" s="2">
-        <v>13431500</v>
+      <c r="I81">
+        <v>13431481</v>
       </c>
       <c r="J81" s="2">
-        <v>-3302000</v>
-      </c>
-      <c r="K81" s="2">
-        <v>-19.732871186541967</v>
+        <v>-3302007</v>
+      </c>
+      <c r="K81" s="16">
+        <v>-19.732927169756838</v>
       </c>
       <c r="L81" s="13">
-        <v>0.79542224327845557</v>
+        <v>0.79565303827160805</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -4371,17 +4372,17 @@
       <c r="H82" s="1">
         <v>3</v>
       </c>
-      <c r="I82" s="1">
-        <v>16525500</v>
+      <c r="I82">
+        <v>16525485</v>
       </c>
       <c r="J82" s="1">
-        <v>3094000</v>
-      </c>
-      <c r="K82" s="1">
-        <v>23.035401853851024</v>
+        <v>3094004</v>
+      </c>
+      <c r="K82" s="15">
+        <v>23.035464220215179</v>
       </c>
       <c r="L82" s="13">
-        <v>0.96849909160171133</v>
+        <v>0.96844559871827862</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -4409,17 +4410,17 @@
       <c r="H83" s="1">
         <v>3</v>
       </c>
-      <c r="I83" s="2">
-        <v>20848200</v>
+      <c r="I83">
+        <v>20848160</v>
       </c>
       <c r="J83" s="2">
-        <v>4322700</v>
-      </c>
-      <c r="K83" s="2">
-        <v>26.157756194971409</v>
+        <v>4322675</v>
+      </c>
+      <c r="K83" s="16">
+        <v>26.157628656587086</v>
       </c>
       <c r="L83" s="13">
-        <v>1.2097133573169316</v>
+        <v>1.2082976631894953</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -4447,17 +4448,17 @@
       <c r="H84" s="1">
         <v>3</v>
       </c>
-      <c r="I84" s="1">
-        <v>23476300</v>
+      <c r="I84">
+        <v>23476319</v>
       </c>
       <c r="J84" s="1">
-        <v>2628100</v>
-      </c>
-      <c r="K84" s="1">
-        <v>12.605884440862994</v>
+        <v>2628159</v>
+      </c>
+      <c r="K84" s="15">
+        <v>12.606191625543934</v>
       </c>
       <c r="L84" s="13">
-        <v>1.3492126436781609</v>
+        <v>1.3458498072432863</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -4485,17 +4486,17 @@
       <c r="H85" s="1">
         <v>3</v>
       </c>
-      <c r="I85" s="2">
-        <v>25396300</v>
+      <c r="I85">
+        <v>25396312</v>
       </c>
       <c r="J85" s="2">
-        <v>1920000</v>
-      </c>
-      <c r="K85" s="2">
-        <v>8.1784608307101205</v>
+        <v>1919993</v>
+      </c>
+      <c r="K85" s="16">
+        <v>8.178424394386532</v>
       </c>
       <c r="L85" s="13">
-        <v>1.4452708854996585</v>
+        <v>1.4419971221734029</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -4523,17 +4524,17 @@
       <c r="H86" s="1">
         <v>3</v>
       </c>
-      <c r="I86" s="1">
-        <v>24381400</v>
+      <c r="I86">
+        <v>24388728</v>
       </c>
       <c r="J86" s="1">
-        <v>-1014900</v>
-      </c>
-      <c r="K86" s="1">
-        <v>-3.9962514224512935</v>
-      </c>
-      <c r="L86" s="14">
-        <v>1.3729038797229574</v>
+        <v>-1007584</v>
+      </c>
+      <c r="K86" s="15">
+        <v>-3.9674422018441104</v>
+      </c>
+      <c r="L86" s="13">
+        <v>1.3711071022048653</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -4561,17 +4562,17 @@
       <c r="H87" s="1">
         <v>3</v>
       </c>
-      <c r="I87" s="2">
-        <v>27160000</v>
+      <c r="I87">
+        <v>27167352</v>
       </c>
       <c r="J87" s="2">
-        <v>2778600</v>
-      </c>
-      <c r="K87" s="2">
-        <v>11.396392331859525</v>
+        <v>2778624</v>
+      </c>
+      <c r="K87" s="16">
+        <v>11.393066501869225</v>
       </c>
       <c r="L87" s="13">
-        <v>1.5114920140241528</v>
+        <v>1.5116973207964668</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -4599,17 +4600,17 @@
       <c r="H88" s="1">
         <v>3</v>
       </c>
-      <c r="I88" s="1">
-        <v>26996400</v>
+      <c r="I88">
+        <v>27007344</v>
       </c>
       <c r="J88" s="1">
-        <v>-163600</v>
-      </c>
-      <c r="K88" s="1">
-        <v>-0.60235640648011246</v>
+        <v>-160008</v>
+      </c>
+      <c r="K88" s="15">
+        <v>-0.58897164508340749</v>
       </c>
       <c r="L88" s="13">
-        <v>1.4825855346257346</v>
+        <v>1.4866034826492018</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -4637,17 +4638,17 @@
       <c r="H89" s="1">
         <v>3</v>
       </c>
-      <c r="I89" s="2">
-        <v>28069500</v>
+      <c r="I89">
+        <v>27740144</v>
       </c>
       <c r="J89" s="2">
-        <v>1073100</v>
-      </c>
-      <c r="K89" s="2">
-        <v>3.9749744410365775</v>
+        <v>732800</v>
+      </c>
+      <c r="K89" s="16">
+        <v>2.7133360466693799</v>
       </c>
       <c r="L89" s="13">
-        <v>1.5197347049269085</v>
+        <v>1.5060456506452617</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -4675,17 +4676,17 @@
       <c r="H90" s="1">
         <v>3</v>
       </c>
-      <c r="I90" s="1">
-        <v>27963300</v>
+      <c r="I90">
+        <v>26772689</v>
       </c>
       <c r="J90" s="1">
-        <v>-106200</v>
-      </c>
-      <c r="K90" s="1">
-        <v>-0.37834660396516051</v>
+        <v>-967455</v>
+      </c>
+      <c r="K90" s="15">
+        <v>-3.4875630061617562</v>
       </c>
       <c r="L90" s="13">
-        <v>1.4930482139996797</v>
+        <v>1.4277697591193834</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -4713,17 +4714,17 @@
       <c r="H91" s="1">
         <v>3</v>
       </c>
-      <c r="I91" s="1">
+      <c r="I91">
         <v>24444998</v>
       </c>
       <c r="J91" s="1">
-        <v>-3518302</v>
-      </c>
-      <c r="K91" s="1">
-        <v>-12.581855503463469</v>
-      </c>
-      <c r="L91" s="14">
-        <v>1.2898369999999999</v>
+        <v>-2327691</v>
+      </c>
+      <c r="K91" s="15">
+        <v>-8.6942742284870977</v>
+      </c>
+      <c r="L91" s="13">
+        <v>1.2793594838724804</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -4751,17 +4752,17 @@
       <c r="H92" s="2">
         <v>4</v>
       </c>
-      <c r="I92" s="2">
-        <v>18527200</v>
+      <c r="I92">
+        <v>18527236</v>
       </c>
       <c r="J92" s="2">
-        <v>-9436100</v>
-      </c>
-      <c r="K92" s="2">
+        <v>0</v>
+      </c>
+      <c r="K92" s="16">
         <v>0</v>
       </c>
       <c r="L92" s="13">
-        <v>1.3956459510357815</v>
+        <v>1.4058150087260035</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -4789,17 +4790,17 @@
       <c r="H93" s="2">
         <v>4</v>
       </c>
-      <c r="I93" s="1">
-        <v>19112900</v>
+      <c r="I93">
+        <v>19112834</v>
       </c>
       <c r="J93" s="1">
-        <v>585700</v>
-      </c>
-      <c r="K93" s="1">
-        <v>3.1612979835053365</v>
+        <v>585598</v>
+      </c>
+      <c r="K93" s="15">
+        <v>3.1607412999974742</v>
       </c>
       <c r="L93" s="13">
-        <v>1.416294924045943</v>
+        <v>1.4239929965727909</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -4827,17 +4828,17 @@
       <c r="H94" s="2">
         <v>4</v>
       </c>
-      <c r="I94" s="2">
-        <v>20818800</v>
+      <c r="I94">
+        <v>20818848</v>
       </c>
       <c r="J94" s="2">
-        <v>1705900</v>
-      </c>
-      <c r="K94" s="2">
-        <v>8.9253854726388866</v>
+        <v>1706014</v>
+      </c>
+      <c r="K94" s="16">
+        <v>8.9260127514318395</v>
       </c>
       <c r="L94" s="13">
-        <v>1.517405247813411</v>
+        <v>1.5155240618408798</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -4865,17 +4866,17 @@
       <c r="H95" s="2">
         <v>4</v>
       </c>
-      <c r="I95" s="1">
-        <v>22819400</v>
+      <c r="I95">
+        <v>22819392</v>
       </c>
       <c r="J95" s="1">
-        <v>2000600</v>
-      </c>
-      <c r="K95" s="1">
-        <v>9.6095836455511474</v>
+        <v>2000544</v>
+      </c>
+      <c r="K95" s="15">
+        <v>9.6092925026399154</v>
       </c>
       <c r="L95" s="13">
-        <v>1.6363858013624955</v>
+        <v>1.6350057026104758</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -4903,17 +4904,17 @@
       <c r="H96" s="2">
         <v>4</v>
       </c>
-      <c r="I96" s="2">
-        <v>24233700</v>
+      <c r="I96">
+        <v>24233696</v>
       </c>
       <c r="J96" s="2">
-        <v>1414300</v>
-      </c>
-      <c r="K96" s="2">
-        <v>6.1977966116549918</v>
+        <v>1414304</v>
+      </c>
+      <c r="K96" s="16">
+        <v>6.1978163134232496</v>
       </c>
       <c r="L96" s="13">
-        <v>1.7106946209233376</v>
+        <v>1.7099916799682977</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -4941,17 +4942,17 @@
       <c r="H97" s="2">
         <v>4</v>
       </c>
-      <c r="I97" s="1">
-        <v>26837500</v>
+      <c r="I97">
+        <v>26837513</v>
       </c>
       <c r="J97" s="1">
-        <v>2603800</v>
-      </c>
-      <c r="K97" s="1">
-        <v>10.744541691941384</v>
+        <v>2603817</v>
+      </c>
+      <c r="K97" s="15">
+        <v>10.744613615686191</v>
       </c>
       <c r="L97" s="13">
-        <v>1.8661775954384257</v>
+        <v>1.8661461879979966</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -4979,17 +4980,17 @@
       <c r="H98" s="2">
         <v>4</v>
       </c>
-      <c r="I98" s="2">
-        <v>29259300</v>
+      <c r="I98">
+        <v>29259270</v>
       </c>
       <c r="J98" s="2">
-        <v>2421800</v>
-      </c>
-      <c r="K98" s="2">
-        <v>9.02394038192827</v>
+        <v>2421757</v>
+      </c>
+      <c r="K98" s="16">
+        <v>9.0237757872720934</v>
       </c>
       <c r="L98" s="13">
-        <v>2.0058476725851784</v>
+        <v>2.0061279619322581</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -5017,17 +5018,17 @@
       <c r="H99" s="2">
         <v>4</v>
       </c>
-      <c r="I99" s="1">
+      <c r="I99">
         <v>31052400</v>
       </c>
       <c r="J99" s="1">
-        <v>1793100</v>
-      </c>
-      <c r="K99" s="1">
-        <v>6.1283079226092294</v>
+        <v>1793130</v>
+      </c>
+      <c r="K99" s="15">
+        <v>6.1284167376698049</v>
       </c>
       <c r="L99" s="13">
-        <v>2.1001217367780334</v>
+        <v>2.1005897025889575</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -5055,17 +5056,17 @@
       <c r="H100" s="2">
         <v>4</v>
       </c>
-      <c r="I100" s="2">
-        <v>31210000</v>
+      <c r="I100">
+        <v>31209952</v>
       </c>
       <c r="J100" s="2">
-        <v>157600</v>
-      </c>
-      <c r="K100" s="2">
-        <v>0.50752920869239904</v>
+        <v>157552</v>
+      </c>
+      <c r="K100" s="16">
+        <v>0.50737463126843663</v>
       </c>
       <c r="L100" s="13">
-        <v>2.0837227934303644</v>
+        <v>2.0841512242687732</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -5093,17 +5094,17 @@
       <c r="H101" s="2">
         <v>4</v>
       </c>
-      <c r="I101" s="1">
-        <v>32155299.999999899</v>
+      <c r="I101">
+        <v>32155264</v>
       </c>
       <c r="J101" s="1">
-        <v>945299.99999989942</v>
-      </c>
-      <c r="K101" s="1">
-        <v>3.0288369112460782</v>
+        <v>945312</v>
+      </c>
+      <c r="K101" s="15">
+        <v>3.0288800187837519</v>
       </c>
       <c r="L101" s="13">
-        <v>2.1206423530963465</v>
+        <v>2.1207304697364586</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -5131,17 +5132,17 @@
       <c r="H102" s="2">
         <v>4</v>
       </c>
-      <c r="I102" s="2">
-        <v>30627400</v>
+      <c r="I102">
+        <v>30627376</v>
       </c>
       <c r="J102" s="2">
-        <v>-1527899.9999998994</v>
-      </c>
-      <c r="K102" s="2">
-        <v>-4.7516272589585675</v>
+        <v>-1527888</v>
+      </c>
+      <c r="K102" s="16">
+        <v>-4.7515952597994531</v>
       </c>
       <c r="L102" s="13">
-        <v>1.9963107808629905</v>
+        <v>1.9961366916143215</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -5169,17 +5170,17 @@
       <c r="H103" s="2">
         <v>4</v>
       </c>
-      <c r="I103" s="1">
-        <v>28467600</v>
+      <c r="I103">
+        <v>28467588</v>
       </c>
       <c r="J103" s="1">
-        <v>-2159800</v>
-      </c>
-      <c r="K103" s="1">
-        <v>-7.0518555280565858</v>
+        <v>-2159788</v>
+      </c>
+      <c r="K103" s="15">
+        <v>-7.0518218733462508</v>
       </c>
       <c r="L103" s="13">
-        <v>1.8347254447022427</v>
+        <v>1.8342460130119433</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -5207,17 +5208,17 @@
       <c r="H104" s="2">
         <v>4</v>
       </c>
-      <c r="I104" s="2">
-        <v>30323300</v>
+      <c r="I104">
+        <v>30323264</v>
       </c>
       <c r="J104" s="2">
-        <v>1855700</v>
-      </c>
-      <c r="K104" s="2">
-        <v>6.5186387331562932</v>
+        <v>1855676</v>
+      </c>
+      <c r="K104" s="16">
+        <v>6.5185571745663875</v>
       </c>
       <c r="L104" s="13">
-        <v>1.9333907166539148</v>
+        <v>1.9324395742692269</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -5245,17 +5246,17 @@
       <c r="H105" s="2">
         <v>4</v>
       </c>
-      <c r="I105" s="1">
+      <c r="I105">
         <v>29586800</v>
       </c>
       <c r="J105" s="1">
-        <v>-736500</v>
-      </c>
-      <c r="K105" s="1">
-        <v>-2.4288253587175541</v>
+        <v>-736464</v>
+      </c>
+      <c r="K105" s="15">
+        <v>-2.4287095215079746</v>
       </c>
       <c r="L105" s="13">
-        <v>1.8666750788643534</v>
+        <v>1.8658537500558903</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -5283,17 +5284,17 @@
       <c r="H106" s="2">
         <v>4</v>
       </c>
-      <c r="I106" s="2">
-        <v>31323500</v>
+      <c r="I106">
+        <v>31323536</v>
       </c>
       <c r="J106" s="2">
-        <v>1736700</v>
-      </c>
-      <c r="K106" s="2">
-        <v>5.8698473643651923</v>
+        <v>1736736</v>
+      </c>
+      <c r="K106" s="16">
+        <v>5.8699690402476783</v>
       </c>
       <c r="L106" s="13">
-        <v>1.9558851077115205</v>
+        <v>1.9550166010979937</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -5321,17 +5322,17 @@
       <c r="H107" s="2">
         <v>4</v>
       </c>
-      <c r="I107" s="1">
-        <v>33826000</v>
+      <c r="I107">
+        <v>33826048</v>
       </c>
       <c r="J107" s="1">
-        <v>2502500</v>
-      </c>
-      <c r="K107" s="1">
-        <v>7.9892093795393233</v>
-      </c>
-      <c r="L107" s="14">
-        <v>2.090218130136563</v>
+        <v>2502512</v>
+      </c>
+      <c r="K107" s="15">
+        <v>7.9892385074277694</v>
+      </c>
+      <c r="L107" s="13">
+        <v>2.0901579381306465</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -5359,17 +5360,17 @@
       <c r="H108" s="2">
         <v>4</v>
       </c>
-      <c r="I108" s="2">
-        <v>35735000</v>
+      <c r="I108">
+        <v>35734992</v>
       </c>
       <c r="J108" s="2">
-        <v>1909000</v>
-      </c>
-      <c r="K108" s="2">
-        <v>5.6435877727192096</v>
+        <v>1908944</v>
+      </c>
+      <c r="K108" s="16">
+        <v>5.6434142114384755</v>
       </c>
       <c r="L108" s="13">
-        <v>2.1849587282176706</v>
+        <v>2.1859085178576563</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
@@ -5397,17 +5398,17 @@
       <c r="H109" s="2">
         <v>4</v>
       </c>
-      <c r="I109" s="1">
-        <v>47225300</v>
+      <c r="I109">
+        <v>47225296</v>
       </c>
       <c r="J109" s="1">
-        <v>11490300</v>
-      </c>
-      <c r="K109" s="1">
-        <v>32.154190569469712</v>
+        <v>11490304</v>
+      </c>
+      <c r="K109" s="15">
+        <v>32.154208961345226</v>
       </c>
       <c r="L109" s="13">
-        <v>2.8569449485783425</v>
+        <v>2.8590318171165849</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
@@ -5435,17 +5436,17 @@
       <c r="H110" s="2">
         <v>4</v>
       </c>
-      <c r="I110" s="2">
-        <v>47551400</v>
+      <c r="I110">
+        <v>47551392</v>
       </c>
       <c r="J110" s="2">
-        <v>326100</v>
-      </c>
-      <c r="K110" s="2">
-        <v>0.6905197002454162</v>
+        <v>326096</v>
+      </c>
+      <c r="K110" s="16">
+        <v>0.69051128869578715</v>
       </c>
       <c r="L110" s="13">
-        <v>2.8460258558774241</v>
+        <v>2.8477717422355124</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -5473,17 +5474,17 @@
       <c r="H111" s="2">
         <v>4</v>
       </c>
-      <c r="I111" s="1">
-        <v>44929200</v>
+      <c r="I111">
+        <v>44929147</v>
       </c>
       <c r="J111" s="1">
-        <v>-2622200</v>
-      </c>
-      <c r="K111" s="1">
-        <v>-5.5144538331153328</v>
+        <v>-2622245</v>
+      </c>
+      <c r="K111" s="15">
+        <v>-5.5145493953152833</v>
       </c>
       <c r="L111" s="13">
-        <v>2.6607367049626909</v>
+        <v>2.6615093538457675</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
@@ -5511,17 +5512,17 @@
       <c r="H112" s="2">
         <v>4</v>
       </c>
-      <c r="I112" s="2">
-        <v>43460900</v>
+      <c r="I112">
+        <v>43460925</v>
       </c>
       <c r="J112" s="2">
-        <v>-1468300</v>
-      </c>
-      <c r="K112" s="2">
-        <v>-3.2680305903510316</v>
+        <v>-1468222</v>
+      </c>
+      <c r="K112" s="16">
+        <v>-3.2678608387557415</v>
       </c>
       <c r="L112" s="13">
-        <v>2.5470843345249956</v>
+        <v>2.5469474289241862</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
@@ -5549,17 +5550,17 @@
       <c r="H113" s="2">
         <v>4</v>
       </c>
-      <c r="I113" s="1">
-        <v>45627800</v>
+      <c r="I113">
+        <v>45627792</v>
       </c>
       <c r="J113" s="1">
-        <v>2166900</v>
-      </c>
-      <c r="K113" s="1">
-        <v>4.9858608542391005</v>
+        <v>2166867</v>
+      </c>
+      <c r="K113" s="15">
+        <v>4.985782055950259</v>
       </c>
       <c r="L113" s="13">
-        <v>2.6475455494951841</v>
+        <v>2.6444518101403842</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
@@ -5587,17 +5588,17 @@
       <c r="H114" s="2">
         <v>4</v>
       </c>
-      <c r="I114" s="2">
-        <v>45164500</v>
+      <c r="I114">
+        <v>45164525</v>
       </c>
       <c r="J114" s="2">
-        <v>-463300</v>
-      </c>
-      <c r="K114" s="2">
-        <v>-1.015389740465249</v>
-      </c>
-      <c r="L114" s="14">
-        <v>2.5956609195402298</v>
+        <v>-463267</v>
+      </c>
+      <c r="K114" s="16">
+        <v>-1.0153175941540191</v>
+      </c>
+      <c r="L114" s="13">
+        <v>2.5891907187615142</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
@@ -5625,17 +5626,17 @@
       <c r="H115" s="2">
         <v>4</v>
       </c>
-      <c r="I115" s="1">
-        <v>45915600</v>
+      <c r="I115">
+        <v>45915623</v>
       </c>
       <c r="J115" s="1">
-        <v>751100</v>
-      </c>
-      <c r="K115" s="1">
-        <v>1.6630318059537879</v>
+        <v>751098</v>
+      </c>
+      <c r="K115" s="15">
+        <v>1.6630264571585773</v>
       </c>
       <c r="L115" s="13">
-        <v>2.612997951286137</v>
+        <v>2.6070791786145526</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
@@ -5663,17 +5664,17 @@
       <c r="H116" s="2">
         <v>4</v>
       </c>
-      <c r="I116" s="2">
-        <v>43819800</v>
+      <c r="I116">
+        <v>43819832</v>
       </c>
       <c r="J116" s="2">
-        <v>-2095800</v>
-      </c>
-      <c r="K116" s="2">
-        <v>-4.5644617515615513</v>
+        <v>-2095791</v>
+      </c>
+      <c r="K116" s="16">
+        <v>-4.5644398639652559</v>
       </c>
       <c r="L116" s="13">
-        <v>2.4674700152035589</v>
+        <v>2.4635021093606864</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
@@ -5701,17 +5702,17 @@
       <c r="H117" s="2">
         <v>4</v>
       </c>
-      <c r="I117" s="1">
-        <v>44350800</v>
+      <c r="I117">
+        <v>44350748</v>
       </c>
       <c r="J117" s="1">
-        <v>531000</v>
-      </c>
-      <c r="K117" s="1">
-        <v>1.2117809757233029</v>
+        <v>530916</v>
+      </c>
+      <c r="K117" s="15">
+        <v>1.2115883967788832</v>
       </c>
       <c r="L117" s="13">
-        <v>2.4681840948299851</v>
+        <v>2.4678484280293218</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
@@ -5739,17 +5740,17 @@
       <c r="H118" s="2">
         <v>4</v>
       </c>
-      <c r="I118" s="2">
-        <v>46063800</v>
+      <c r="I118">
+        <v>46063808</v>
       </c>
       <c r="J118" s="2">
-        <v>1713000</v>
-      </c>
-      <c r="K118" s="2">
-        <v>3.8623880516247731</v>
+        <v>1713060</v>
+      </c>
+      <c r="K118" s="16">
+        <v>3.8625278653699371</v>
       </c>
       <c r="L118" s="13">
-        <v>2.5297270580482181</v>
+        <v>2.5355554176998734</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
@@ -5777,17 +5778,17 @@
       <c r="H119" s="2">
         <v>4</v>
       </c>
-      <c r="I119" s="1">
-        <v>44797100</v>
+      <c r="I119">
+        <v>45466576</v>
       </c>
       <c r="J119" s="1">
-        <v>-1266700</v>
-      </c>
-      <c r="K119" s="1">
-        <v>-2.7498816858357413</v>
+        <v>-597232</v>
+      </c>
+      <c r="K119" s="15">
+        <v>-1.296531975819281</v>
       </c>
       <c r="L119" s="13">
-        <v>2.4253979426096373</v>
+        <v>2.4684348803139682</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
@@ -5815,17 +5816,17 @@
       <c r="H120" s="2">
         <v>4</v>
       </c>
-      <c r="I120" s="2">
-        <v>45994000</v>
+      <c r="I120">
+        <v>46785697</v>
       </c>
       <c r="J120" s="2">
-        <v>1196900</v>
-      </c>
-      <c r="K120" s="2">
-        <v>2.6718247386549607</v>
+        <v>1319121</v>
+      </c>
+      <c r="K120" s="16">
+        <v>2.9012983075743377</v>
       </c>
       <c r="L120" s="13">
-        <v>2.4557637887767632</v>
+        <v>2.4950502109041963</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
@@ -5853,17 +5854,17 @@
       <c r="H121" s="2">
         <v>4</v>
       </c>
-      <c r="I121" s="2">
+      <c r="I121">
         <v>47431109</v>
       </c>
       <c r="J121" s="2">
-        <v>1437109</v>
-      </c>
-      <c r="K121" s="2">
-        <v>3.1245575509849113</v>
-      </c>
-      <c r="L121" s="14">
-        <v>2.5026969999999999</v>
+        <v>645412</v>
+      </c>
+      <c r="K121" s="16">
+        <v>1.3795070745659725</v>
+      </c>
+      <c r="L121" s="13">
+        <v>2.4823662955398631</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
@@ -5891,17 +5892,17 @@
       <c r="H122" s="1">
         <v>5</v>
       </c>
-      <c r="I122" s="1">
-        <v>2612700</v>
+      <c r="I122">
+        <v>2612721</v>
       </c>
       <c r="J122" s="1">
-        <v>-43381300</v>
-      </c>
-      <c r="K122" s="1">
+        <v>0</v>
+      </c>
+      <c r="K122" s="15">
         <v>0</v>
       </c>
       <c r="L122" s="13">
-        <v>0.1968135593220339</v>
+        <v>0.19824880491691327</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
@@ -5929,17 +5930,17 @@
       <c r="H123" s="1">
         <v>5</v>
       </c>
-      <c r="I123" s="2">
-        <v>2198100</v>
+      <c r="I123">
+        <v>2198141</v>
       </c>
       <c r="J123" s="2">
-        <v>-414600</v>
-      </c>
-      <c r="K123" s="2">
-        <v>-15.868641635090134</v>
+        <v>-414580</v>
+      </c>
+      <c r="K123" s="16">
+        <v>-15.867748603850163</v>
       </c>
       <c r="L123" s="13">
-        <v>0.16288254909225638</v>
+        <v>0.16377149456116824</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
@@ -5967,17 +5968,17 @@
       <c r="H124" s="1">
         <v>5</v>
       </c>
-      <c r="I124" s="1">
-        <v>2612400</v>
+      <c r="I124">
+        <v>2612432</v>
       </c>
       <c r="J124" s="1">
-        <v>414300</v>
-      </c>
-      <c r="K124" s="1">
-        <v>18.848096082980764</v>
+        <v>414291</v>
+      </c>
+      <c r="K124" s="15">
+        <v>18.847335089059346</v>
       </c>
       <c r="L124" s="13">
-        <v>0.19040816326530613</v>
+        <v>0.19017399790435538</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
@@ -6005,17 +6006,17 @@
       <c r="H125" s="1">
         <v>5</v>
       </c>
-      <c r="I125" s="2">
-        <v>2447600</v>
+      <c r="I125">
+        <v>2447552</v>
       </c>
       <c r="J125" s="2">
-        <v>-164800</v>
-      </c>
-      <c r="K125" s="2">
-        <v>-6.3083754402082439</v>
+        <v>-164880</v>
+      </c>
+      <c r="K125" s="16">
+        <v>-6.3113604488078536</v>
       </c>
       <c r="L125" s="13">
-        <v>0.17551810684833274</v>
+        <v>0.17536670027999324</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
@@ -6043,17 +6044,17 @@
       <c r="H126" s="1">
         <v>5</v>
       </c>
-      <c r="I126" s="1">
-        <v>2630800</v>
+      <c r="I126">
+        <v>2630752</v>
       </c>
       <c r="J126" s="1">
         <v>183200</v>
       </c>
-      <c r="K126" s="1">
-        <v>7.484883150841652</v>
+      <c r="K126" s="15">
+        <v>7.4850299401197598</v>
       </c>
       <c r="L126" s="13">
-        <v>0.18571226881265002</v>
+        <v>0.18563260148431171</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
@@ -6081,17 +6082,17 @@
       <c r="H127" s="1">
         <v>5</v>
       </c>
-      <c r="I127" s="2">
-        <v>2616300</v>
+      <c r="I127">
+        <v>2616328</v>
       </c>
       <c r="J127" s="2">
-        <v>-14500</v>
-      </c>
-      <c r="K127" s="2">
-        <v>-0.55116314429071001</v>
+        <v>-14424</v>
+      </c>
+      <c r="K127" s="16">
+        <v>-0.54828429285618718</v>
       </c>
       <c r="L127" s="13">
-        <v>0.1819275432862805</v>
+        <v>0.18192634033386113</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
@@ -6119,17 +6120,17 @@
       <c r="H128" s="1">
         <v>5</v>
       </c>
-      <c r="I128" s="1">
-        <v>2682300</v>
+      <c r="I128">
+        <v>2682252</v>
       </c>
       <c r="J128" s="1">
-        <v>66000</v>
-      </c>
-      <c r="K128" s="1">
-        <v>2.5226464854947825</v>
+        <v>65924</v>
+      </c>
+      <c r="K128" s="15">
+        <v>2.5197146535143911</v>
       </c>
       <c r="L128" s="13">
-        <v>0.18388290943991226</v>
+        <v>0.18390550202205055</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
@@ -6157,17 +6158,17 @@
       <c r="H129" s="1">
         <v>5</v>
       </c>
-      <c r="I129" s="2">
-        <v>4528700</v>
+      <c r="I129">
+        <v>4528704</v>
       </c>
       <c r="J129" s="2">
-        <v>1846400</v>
-      </c>
-      <c r="K129" s="2">
-        <v>68.836446333370588</v>
-      </c>
-      <c r="L129" s="14">
-        <v>0.306282970377384</v>
+        <v>1846452</v>
+      </c>
+      <c r="K129" s="16">
+        <v>68.839616859266016</v>
+      </c>
+      <c r="L129" s="13">
+        <v>0.30635148936872586</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
@@ -6195,17 +6196,17 @@
       <c r="H130" s="1">
         <v>5</v>
       </c>
-      <c r="I130" s="1">
-        <v>6441300</v>
+      <c r="I130">
+        <v>6441312</v>
       </c>
       <c r="J130" s="1">
-        <v>1912600</v>
-      </c>
-      <c r="K130" s="1">
-        <v>42.232870360147515</v>
+        <v>1912608</v>
+      </c>
+      <c r="K130" s="15">
+        <v>42.23300970873786</v>
       </c>
       <c r="L130" s="13">
-        <v>0.43005074108692748</v>
+        <v>0.43014062599958947</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
@@ -6233,17 +6234,17 @@
       <c r="H131" s="1">
         <v>5</v>
       </c>
-      <c r="I131" s="2">
-        <v>9031800</v>
+      <c r="I131">
+        <v>9031760</v>
       </c>
       <c r="J131" s="2">
-        <v>2590500</v>
-      </c>
-      <c r="K131" s="2">
-        <v>40.217036933538246</v>
+        <v>2590448</v>
+      </c>
+      <c r="K131" s="16">
+        <v>40.216154721274179</v>
       </c>
       <c r="L131" s="13">
-        <v>0.59564729934709493</v>
+        <v>0.59567007838427188</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
@@ -6271,17 +6272,17 @@
       <c r="H132" s="1">
         <v>5</v>
       </c>
-      <c r="I132" s="1">
-        <v>11919000</v>
+      <c r="I132">
+        <v>11918992</v>
       </c>
       <c r="J132" s="1">
-        <v>2887200</v>
-      </c>
-      <c r="K132" s="1">
-        <v>31.96704975752343</v>
+        <v>2887232</v>
+      </c>
+      <c r="K132" s="15">
+        <v>31.967545638945232</v>
       </c>
       <c r="L132" s="13">
-        <v>0.77688697692608522</v>
+        <v>0.77681931544698979</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
@@ -6309,17 +6310,17 @@
       <c r="H133" s="1">
         <v>5</v>
       </c>
-      <c r="I133" s="2">
-        <v>13517400</v>
+      <c r="I133">
+        <v>13517432</v>
       </c>
       <c r="J133" s="2">
-        <v>1598400</v>
-      </c>
-      <c r="K133" s="2">
-        <v>13.410521016863827</v>
+        <v>1598440</v>
+      </c>
+      <c r="K133" s="16">
+        <v>13.410865616823973</v>
       </c>
       <c r="L133" s="13">
-        <v>0.87119102861562259</v>
+        <v>0.87096580687341907</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
@@ -6347,17 +6348,17 @@
       <c r="H134" s="1">
         <v>5</v>
       </c>
-      <c r="I134" s="1">
-        <v>13505500</v>
+      <c r="I134">
+        <v>13505504</v>
       </c>
       <c r="J134" s="1">
-        <v>-11900</v>
-      </c>
-      <c r="K134" s="1">
-        <v>-8.8034681225676814E-2</v>
+        <v>-11928</v>
+      </c>
+      <c r="K134" s="15">
+        <v>-8.8241612756032359E-2</v>
       </c>
       <c r="L134" s="13">
-        <v>0.86110048457026267</v>
+        <v>0.86067813808075999</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
@@ -6385,17 +6386,17 @@
       <c r="H135" s="1">
         <v>5</v>
       </c>
-      <c r="I135" s="2">
-        <v>14736600</v>
+      <c r="I135">
+        <v>14736608</v>
       </c>
       <c r="J135" s="2">
-        <v>1231100</v>
-      </c>
-      <c r="K135" s="2">
-        <v>9.1155455184924676</v>
+        <v>1231104</v>
+      </c>
+      <c r="K135" s="16">
+        <v>9.1155724362452517</v>
       </c>
       <c r="L135" s="13">
-        <v>0.92975394321766558</v>
+        <v>0.92934536008975732</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
@@ -6423,17 +6424,17 @@
       <c r="H136" s="1">
         <v>5</v>
       </c>
-      <c r="I136" s="1">
-        <v>16048300</v>
+      <c r="I136">
+        <v>16048320</v>
       </c>
       <c r="J136" s="1">
-        <v>1311700</v>
-      </c>
-      <c r="K136" s="1">
-        <v>8.9009676587543858</v>
+        <v>1311712</v>
+      </c>
+      <c r="K136" s="15">
+        <v>8.9010442565887615</v>
       </c>
       <c r="L136" s="13">
-        <v>1.0020793006556354</v>
+        <v>1.0016344265772854</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
@@ -6461,17 +6462,17 @@
       <c r="H137" s="1">
         <v>5</v>
       </c>
-      <c r="I137" s="2">
-        <v>15557300</v>
+      <c r="I137">
+        <v>15557344</v>
       </c>
       <c r="J137" s="2">
-        <v>-491000</v>
-      </c>
-      <c r="K137" s="2">
-        <v>-3.0595140918352723</v>
-      </c>
-      <c r="L137" s="14">
-        <v>0.961335969844899</v>
+        <v>-490976</v>
+      </c>
+      <c r="K137" s="16">
+        <v>-3.0593607305936072</v>
+      </c>
+      <c r="L137" s="13">
+        <v>0.96130964095566784</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
@@ -6499,17 +6500,17 @@
       <c r="H138" s="1">
         <v>5</v>
       </c>
-      <c r="I138" s="1">
-        <v>14333600</v>
+      <c r="I138">
+        <v>14333568</v>
       </c>
       <c r="J138" s="1">
-        <v>-1223700</v>
-      </c>
-      <c r="K138" s="1">
-        <v>-7.8657607682566963</v>
+        <v>-1223776</v>
+      </c>
+      <c r="K138" s="15">
+        <v>-7.8662270372114929</v>
       </c>
       <c r="L138" s="13">
-        <v>0.87640476918373589</v>
+        <v>0.87678397640307093</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
@@ -6537,17 +6538,17 @@
       <c r="H139" s="1">
         <v>5</v>
       </c>
-      <c r="I139" s="2">
-        <v>8764300</v>
+      <c r="I139">
+        <v>8764288</v>
       </c>
       <c r="J139" s="2">
-        <v>-5569300</v>
-      </c>
-      <c r="K139" s="2">
-        <v>-38.854858514260201</v>
+        <v>-5569280</v>
+      </c>
+      <c r="K139" s="16">
+        <v>-38.854805725971367</v>
       </c>
       <c r="L139" s="13">
-        <v>0.53020568663036904</v>
+        <v>0.53059229626370319</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
@@ -6575,17 +6576,17 @@
       <c r="H140" s="1">
         <v>5</v>
       </c>
-      <c r="I140" s="1">
-        <v>4825500</v>
+      <c r="I140">
+        <v>4825488</v>
       </c>
       <c r="J140" s="1">
         <v>-3938800</v>
       </c>
-      <c r="K140" s="1">
-        <v>-44.941410038451437</v>
+      <c r="K140" s="15">
+        <v>-44.941471571906355</v>
       </c>
       <c r="L140" s="13">
-        <v>0.28881374192003828</v>
+        <v>0.28899024383758437</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
@@ -6613,17 +6614,17 @@
       <c r="H141" s="1">
         <v>5</v>
       </c>
-      <c r="I141" s="2">
-        <v>6378700</v>
+      <c r="I141">
+        <v>6378671</v>
       </c>
       <c r="J141" s="2">
-        <v>1553200</v>
-      </c>
-      <c r="K141" s="2">
-        <v>32.187338099678783</v>
+        <v>1553183</v>
+      </c>
+      <c r="K141" s="16">
+        <v>32.187065847018999</v>
       </c>
       <c r="L141" s="13">
-        <v>0.3777507994788582</v>
+        <v>0.37785922202361721</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
@@ -6651,17 +6652,17 @@
       <c r="H142" s="1">
         <v>5</v>
       </c>
-      <c r="I142" s="1">
-        <v>10226700</v>
+      <c r="I142">
+        <v>10226747</v>
       </c>
       <c r="J142" s="1">
-        <v>3848000</v>
-      </c>
-      <c r="K142" s="1">
-        <v>60.325771708968922</v>
-      </c>
-      <c r="L142" s="14">
-        <v>0.59934946961261204</v>
+        <v>3848076</v>
+      </c>
+      <c r="K142" s="15">
+        <v>60.327237444916037</v>
+      </c>
+      <c r="L142" s="13">
+        <v>0.59931966422500516</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
@@ -6689,17 +6690,17 @@
       <c r="H143" s="1">
         <v>5</v>
       </c>
-      <c r="I143" s="2">
-        <v>10449700</v>
+      <c r="I143">
+        <v>10449728</v>
       </c>
       <c r="J143" s="2">
-        <v>223000</v>
-      </c>
-      <c r="K143" s="2">
-        <v>2.1805665561715899</v>
+        <v>222981</v>
+      </c>
+      <c r="K143" s="16">
+        <v>2.1803707474136202</v>
       </c>
       <c r="L143" s="13">
-        <v>0.60634211442497388</v>
+        <v>0.6056353137814483</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
@@ -6727,17 +6728,17 @@
       <c r="H144" s="1">
         <v>5</v>
       </c>
-      <c r="I144" s="1">
-        <v>9809000</v>
+      <c r="I144">
+        <v>9808976</v>
       </c>
       <c r="J144" s="1">
-        <v>-640700</v>
-      </c>
-      <c r="K144" s="1">
-        <v>-6.1312764959759676</v>
+        <v>-640752</v>
+      </c>
+      <c r="K144" s="15">
+        <v>-6.1317576878556075</v>
       </c>
       <c r="L144" s="13">
-        <v>0.5637356321839081</v>
+        <v>0.56232872192842587</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
@@ -6765,17 +6766,17 @@
       <c r="H145" s="1">
         <v>5</v>
       </c>
-      <c r="I145" s="2">
-        <v>9292300</v>
+      <c r="I145">
+        <v>9292317</v>
       </c>
       <c r="J145" s="2">
-        <v>-516700</v>
-      </c>
-      <c r="K145" s="2">
-        <v>-5.2676113773065625</v>
+        <v>-516659</v>
+      </c>
+      <c r="K145" s="16">
+        <v>-5.2672062812672804</v>
       </c>
       <c r="L145" s="13">
-        <v>0.5288128841338493</v>
+        <v>0.52761575666273863</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
@@ -6803,17 +6804,17 @@
       <c r="H146" s="1">
         <v>5</v>
       </c>
-      <c r="I146" s="1">
-        <v>8295700.0000000009</v>
+      <c r="I146">
+        <v>8295685</v>
       </c>
       <c r="J146" s="1">
-        <v>-996599.99999999907</v>
-      </c>
-      <c r="K146" s="1">
-        <v>-10.725008878318592</v>
+        <v>-996632</v>
+      </c>
+      <c r="K146" s="15">
+        <v>-10.725333627770125</v>
       </c>
       <c r="L146" s="13">
-        <v>0.46712652739456056</v>
+        <v>0.4663741635543423</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
@@ -6841,17 +6842,17 @@
       <c r="H147" s="1">
         <v>5</v>
       </c>
-      <c r="I147" s="2">
-        <v>9112000</v>
+      <c r="I147">
+        <v>9111963</v>
       </c>
       <c r="J147" s="2">
-        <v>816299.99999999907</v>
-      </c>
-      <c r="K147" s="2">
-        <v>9.8400376098460551</v>
+        <v>816278</v>
+      </c>
+      <c r="K147" s="16">
+        <v>9.8397902041844656</v>
       </c>
       <c r="L147" s="13">
-        <v>0.50709555345316937</v>
+        <v>0.5070251253893473</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
@@ -6879,17 +6880,17 @@
       <c r="H148" s="1">
         <v>5</v>
       </c>
-      <c r="I148" s="1">
-        <v>9951400</v>
+      <c r="I148">
+        <v>9951424</v>
       </c>
       <c r="J148" s="1">
-        <v>839400</v>
-      </c>
-      <c r="K148" s="1">
-        <v>9.2120280948200151</v>
+        <v>839461</v>
+      </c>
+      <c r="K148" s="15">
+        <v>9.2127349507455207</v>
       </c>
       <c r="L148" s="13">
-        <v>0.54650996759844028</v>
+        <v>0.54777032409106396</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
@@ -6917,17 +6918,17 @@
       <c r="H149" s="1">
         <v>5</v>
       </c>
-      <c r="I149" s="2">
-        <v>9443900</v>
+      <c r="I149">
+        <v>9944096</v>
       </c>
       <c r="J149" s="2">
-        <v>-507500</v>
-      </c>
-      <c r="K149" s="2">
-        <v>-5.0997849548807208</v>
+        <v>-7328</v>
+      </c>
+      <c r="K149" s="16">
+        <v>-7.3637702503681887E-2</v>
       </c>
       <c r="L149" s="13">
-        <v>0.51131023280996213</v>
+        <v>0.53987688493610364</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
@@ -6955,17 +6956,17 @@
       <c r="H150" s="1">
         <v>5</v>
       </c>
-      <c r="I150" s="9">
-        <v>10788100</v>
+      <c r="I150">
+        <v>11359416</v>
       </c>
       <c r="J150" s="9">
-        <v>1344200</v>
-      </c>
-      <c r="K150" s="9">
-        <v>14.233526403286787</v>
-      </c>
-      <c r="L150" s="15">
-        <v>0.57601046505419407</v>
+        <v>1415320</v>
+      </c>
+      <c r="K150" s="17">
+        <v>14.232766859853324</v>
+      </c>
+      <c r="L150" s="14">
+        <v>0.60579012612654892</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
@@ -6993,17 +6994,17 @@
       <c r="H151" s="1">
         <v>5</v>
       </c>
-      <c r="I151" s="11">
+      <c r="I151">
         <v>11479202</v>
       </c>
       <c r="J151" s="11">
-        <v>691102</v>
-      </c>
-      <c r="K151" s="9">
-        <v>6.4061512221799939</v>
-      </c>
-      <c r="L151" s="16">
-        <v>0.60569899999999999</v>
+        <v>119786</v>
+      </c>
+      <c r="K151" s="17">
+        <v>1.0545084359970618</v>
+      </c>
+      <c r="L151" s="14">
+        <v>0.60077836561851816</v>
       </c>
     </row>
   </sheetData>

--- a/Emisiones GEI/13.1.xlsx
+++ b/Emisiones GEI/13.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\Tablas Madre\Emisiones GEI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2FE54C-C913-4C9C-883C-33C83BB2D047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D83D70-5CBA-4711-AF53-1BD8F6DB283B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3197939B-B65B-4404-B4AE-C28FC8C0EF58}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="56">
   <si>
     <t>País</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>Id_Categoría</t>
-  </si>
-  <si>
-    <t>No Renovables</t>
   </si>
   <si>
     <t>Definición</t>
@@ -468,7 +465,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -499,7 +496,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -546,12 +543,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF66"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -607,21 +598,38 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="16">
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
@@ -640,11 +648,87 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -678,130 +762,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
@@ -913,21 +874,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{80183E32-EF35-4EE3-897F-79DB4D6C8ECA}" name="Emisiones_CO2_Combustible" displayName="Emisiones_CO2_Combustible" ref="A1:L151" totalsRowShown="0" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
-  <autoFilter ref="A1:L151" xr:uid="{7761DDF6-09B2-43B5-BA30-DA2273A31844}"/>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{E57E051D-8231-4A7C-96FD-81D80F668DEB}" name="País" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{D872EACC-13D8-40EB-9C87-CFCA27BDF274}" name="Código País" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{FF390227-8B8D-44B0-8C62-414440E9E454}" name="Año" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{08CF372A-7043-4677-B729-61825BD8C6A2}" name="Id_Producto" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{14F931DB-7A90-4FBE-8E47-BB4E0D99B55E}" name="Producto" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{C1246B6D-723A-4BF4-9DF9-3F571E3CF972}" name="Id_Categoría" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{22E32A27-C27D-4E68-975C-0788ED961EA7}" name="Categoría" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{1590A347-023D-4D42-B26B-D6F2C83D875F}" name="Id_auxiliar" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{AE82D798-5384-4CCD-826D-7EB02D95D6AB}" name="Emisiones" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{F39E7171-40DD-465B-B954-2E5DAE130F97}" name="Variación Emisiones" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{2B2DFEC4-8508-4D9A-B8A2-9DB6188D54A7}" name="Variación Porcentual Emisiones" dataDxfId="0"/>
-    <tableColumn id="9" xr3:uid="{4D509565-7EC8-4CCF-A6A0-A4421E0F2617}" name="Emisiones per cápita" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{80183E32-EF35-4EE3-897F-79DB4D6C8ECA}" name="Emisiones_CO2_Combustible" displayName="Emisiones_CO2_Combustible" ref="A1:K151" totalsRowShown="0" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+  <autoFilter ref="A1:K151" xr:uid="{7761DDF6-09B2-43B5-BA30-DA2273A31844}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{E57E051D-8231-4A7C-96FD-81D80F668DEB}" name="País" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{D872EACC-13D8-40EB-9C87-CFCA27BDF274}" name="Código País" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{FF390227-8B8D-44B0-8C62-414440E9E454}" name="Año" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{08CF372A-7043-4677-B729-61825BD8C6A2}" name="Id_Producto" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{14F931DB-7A90-4FBE-8E47-BB4E0D99B55E}" name="Producto" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{C1246B6D-723A-4BF4-9DF9-3F571E3CF972}" name="Id_Categoría" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{22E32A27-C27D-4E68-975C-0788ED961EA7}" name="Categoría" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{AE82D798-5384-4CCD-826D-7EB02D95D6AB}" name="Emisiones" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{F39E7171-40DD-465B-B954-2E5DAE130F97}" name="Variación Emisiones" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{2B2DFEC4-8508-4D9A-B8A2-9DB6188D54A7}" name="Variación Porcentual Emisiones" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{4D509565-7EC8-4CCF-A6A0-A4421E0F2617}" name="Emisiones per cápita" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -948,7 +908,7 @@
     <tableColumn id="9" xr3:uid="{32E2ECD1-0928-4335-895F-1BEE5214C5AE}" name="ISO país"/>
     <tableColumn id="10" xr3:uid="{EA041E70-0B06-4A97-AD93-71677FC9D773}" name="Nivel administrativo"/>
     <tableColumn id="11" xr3:uid="{142F65AA-4F5B-49A7-ACC2-9958A4FD8875}" name="Descripción larga"/>
-    <tableColumn id="12" xr3:uid="{DC891891-F184-4E7D-AFB3-547CEDF53933}" name="Fecha" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{DC891891-F184-4E7D-AFB3-547CEDF53933}" name="Fecha" dataDxfId="5"/>
     <tableColumn id="13" xr3:uid="{0C32E87B-E4E4-40CF-8DA1-EE799B10D423}" name="Unidad"/>
     <tableColumn id="14" xr3:uid="{CC790452-3CD5-4A20-A890-6A9886A1A7BE}" name="Responsable"/>
   </tableColumns>
@@ -1253,23 +1213,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEDBBAF2-A8EE-423E-AC7C-FB8E0913A687}">
-  <dimension ref="A1:L151"/>
+  <dimension ref="A1:K151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G121" sqref="G121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="7" max="8" width="23.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="21.28515625" customWidth="1"/>
-    <col min="11" max="11" width="30.85546875" customWidth="1"/>
-    <col min="12" max="12" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" customWidth="1"/>
+    <col min="10" max="10" width="30.85546875" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1291,23 +1251,20 @@
       <c r="G1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1317,35 +1274,28 @@
       <c r="C2" s="1">
         <v>1990</v>
       </c>
-      <c r="D2" s="10">
-        <v>0</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0</v>
-      </c>
-      <c r="F2" s="10">
-        <v>0</v>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17">
+        <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2">
+      <c r="H2">
         <v>650100</v>
       </c>
-      <c r="J2" s="1">
+      <c r="I2" s="1">
         <v>0</v>
       </c>
-      <c r="K2" s="15">
+      <c r="J2" s="14">
         <v>0</v>
       </c>
-      <c r="L2" s="13">
+      <c r="K2" s="12">
         <v>4.9328477122695197E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1355,35 +1305,28 @@
       <c r="C3" s="2">
         <v>1991</v>
       </c>
-      <c r="D3" s="10">
-        <v>0</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0</v>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17">
+        <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3">
+      <c r="H3">
         <v>959800</v>
       </c>
-      <c r="J3" s="2">
+      <c r="I3" s="2">
         <v>309700</v>
       </c>
-      <c r="K3" s="16">
+      <c r="J3" s="15">
         <v>47.638824796185204</v>
       </c>
-      <c r="L3" s="13">
+      <c r="K3" s="12">
         <v>7.1509462077186711E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1393,35 +1336,28 @@
       <c r="C4" s="1">
         <v>1992</v>
       </c>
-      <c r="D4" s="10">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0</v>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17">
+        <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4">
+      <c r="H4">
         <v>1073000</v>
       </c>
-      <c r="J4" s="1">
+      <c r="I4" s="1">
         <v>113200</v>
       </c>
-      <c r="K4" s="15">
+      <c r="J4" s="14">
         <v>11.794123775786622</v>
       </c>
-      <c r="L4" s="13">
+      <c r="K4" s="12">
         <v>7.8109860754796034E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1431,35 +1367,28 @@
       <c r="C5" s="2">
         <v>1993</v>
       </c>
-      <c r="D5" s="10">
-        <v>0</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0</v>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17">
+        <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5">
+      <c r="H5">
         <v>1166200</v>
       </c>
-      <c r="J5" s="2">
+      <c r="I5" s="2">
         <v>93200</v>
       </c>
-      <c r="K5" s="16">
+      <c r="J5" s="15">
         <v>8.6859273066169607</v>
       </c>
-      <c r="L5" s="13">
+      <c r="K5" s="12">
         <v>8.3558039161794356E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1469,35 +1398,28 @@
       <c r="C6" s="1">
         <v>1994</v>
       </c>
-      <c r="D6" s="10">
-        <v>0</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0</v>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17">
+        <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6">
+      <c r="H6">
         <v>1158700</v>
       </c>
-      <c r="J6" s="1">
+      <c r="I6" s="1">
         <v>-7500</v>
       </c>
-      <c r="K6" s="15">
+      <c r="J6" s="14">
         <v>-0.64311438861258785</v>
       </c>
-      <c r="L6" s="13">
+      <c r="K6" s="12">
         <v>8.176084075575045E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -1507,35 +1429,28 @@
       <c r="C7" s="2">
         <v>1995</v>
       </c>
-      <c r="D7" s="10">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0</v>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17">
+        <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7">
+      <c r="H7">
         <v>1009600</v>
       </c>
-      <c r="J7" s="2">
+      <c r="I7" s="2">
         <v>-149100</v>
       </c>
-      <c r="K7" s="16">
+      <c r="J7" s="15">
         <v>-12.867869163717959</v>
       </c>
-      <c r="L7" s="13">
+      <c r="K7" s="12">
         <v>7.020252552473015E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -1545,35 +1460,28 @@
       <c r="C8" s="1">
         <v>1996</v>
       </c>
-      <c r="D8" s="10">
-        <v>0</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0</v>
-      </c>
-      <c r="F8" s="10">
-        <v>0</v>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17">
+        <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8">
+      <c r="H8">
         <v>978500</v>
       </c>
-      <c r="J8" s="1">
+      <c r="I8" s="1">
         <v>-31100</v>
       </c>
-      <c r="K8" s="15">
+      <c r="J8" s="14">
         <v>-3.0804278922345483</v>
       </c>
-      <c r="L8" s="13">
+      <c r="K8" s="12">
         <v>6.7089719283861649E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -1583,35 +1491,28 @@
       <c r="C9" s="2">
         <v>1997</v>
       </c>
-      <c r="D9" s="10">
-        <v>0</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0</v>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17">
+        <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9">
+      <c r="H9">
         <v>962900</v>
       </c>
-      <c r="J9" s="2">
+      <c r="I9" s="2">
         <v>-15600</v>
       </c>
-      <c r="K9" s="16">
+      <c r="J9" s="15">
         <v>-1.594276954522228</v>
       </c>
-      <c r="L9" s="13">
+      <c r="K9" s="12">
         <v>6.5136924186951967E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1621,35 +1522,28 @@
       <c r="C10" s="1">
         <v>1998</v>
       </c>
-      <c r="D10" s="10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="10">
-        <v>0</v>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17">
+        <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10">
+      <c r="H10">
         <v>1151100</v>
       </c>
-      <c r="J10" s="1">
+      <c r="I10" s="1">
         <v>188200</v>
       </c>
-      <c r="K10" s="15">
+      <c r="J10" s="14">
         <v>19.545124104268353</v>
       </c>
-      <c r="L10" s="13">
+      <c r="K10" s="12">
         <v>7.6868637101902129E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -1659,35 +1553,28 @@
       <c r="C11" s="2">
         <v>1999</v>
       </c>
-      <c r="D11" s="10">
-        <v>0</v>
-      </c>
-      <c r="E11" s="10">
-        <v>0</v>
-      </c>
-      <c r="F11" s="10">
-        <v>0</v>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17">
+        <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
-      <c r="I11">
+      <c r="H11">
         <v>967900</v>
       </c>
-      <c r="J11" s="2">
+      <c r="I11" s="2">
         <v>-183200</v>
       </c>
-      <c r="K11" s="16">
+      <c r="J11" s="15">
         <v>-15.915211536790896</v>
       </c>
-      <c r="L11" s="13">
+      <c r="K11" s="12">
         <v>6.3835738423976801E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -1697,35 +1584,28 @@
       <c r="C12" s="1">
         <v>2000</v>
       </c>
-      <c r="D12" s="10">
-        <v>0</v>
-      </c>
-      <c r="E12" s="10">
-        <v>0</v>
-      </c>
-      <c r="F12" s="10">
-        <v>0</v>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17">
+        <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-      <c r="I12">
+      <c r="H12">
         <v>1028600</v>
       </c>
-      <c r="J12" s="1">
+      <c r="I12" s="1">
         <v>60700</v>
       </c>
-      <c r="K12" s="15">
+      <c r="J12" s="14">
         <v>6.2713090195268109</v>
       </c>
-      <c r="L12" s="13">
+      <c r="K12" s="12">
         <v>6.703891972314216E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
@@ -1735,35 +1615,28 @@
       <c r="C13" s="2">
         <v>2001</v>
       </c>
-      <c r="D13" s="10">
-        <v>0</v>
-      </c>
-      <c r="E13" s="10">
-        <v>0</v>
-      </c>
-      <c r="F13" s="10">
-        <v>0</v>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17">
+        <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
-      <c r="I13">
+      <c r="H13">
         <v>1031400</v>
       </c>
-      <c r="J13" s="2">
+      <c r="I13" s="2">
         <v>2800</v>
       </c>
-      <c r="K13" s="16">
+      <c r="J13" s="15">
         <v>0.27221466070386935</v>
       </c>
-      <c r="L13" s="13">
+      <c r="K13" s="12">
         <v>6.6455975751107482E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -1773,35 +1646,28 @@
       <c r="C14" s="1">
         <v>2002</v>
       </c>
-      <c r="D14" s="10">
-        <v>0</v>
-      </c>
-      <c r="E14" s="10">
-        <v>0</v>
-      </c>
-      <c r="F14" s="10">
-        <v>0</v>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17">
+        <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="1">
-        <v>1</v>
-      </c>
-      <c r="I14">
+      <c r="H14">
         <v>1098500</v>
       </c>
-      <c r="J14" s="1">
+      <c r="I14" s="1">
         <v>67100</v>
       </c>
-      <c r="K14" s="15">
+      <c r="J14" s="14">
         <v>6.50572038006593</v>
       </c>
-      <c r="L14" s="13">
+      <c r="K14" s="12">
         <v>7.0005157503319745E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
@@ -1811,35 +1677,28 @@
       <c r="C15" s="2">
         <v>2003</v>
       </c>
-      <c r="D15" s="10">
-        <v>0</v>
-      </c>
-      <c r="E15" s="10">
-        <v>0</v>
-      </c>
-      <c r="F15" s="10">
-        <v>0</v>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17">
+        <v>1</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="1">
-        <v>1</v>
-      </c>
-      <c r="I15">
+      <c r="H15">
         <v>1133300</v>
       </c>
-      <c r="J15" s="2">
+      <c r="I15" s="2">
         <v>34800</v>
       </c>
-      <c r="K15" s="16">
+      <c r="J15" s="15">
         <v>3.1679563040509784</v>
       </c>
-      <c r="L15" s="13">
+      <c r="K15" s="12">
         <v>7.1470116908159728E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -1849,35 +1708,28 @@
       <c r="C16" s="1">
         <v>2004</v>
       </c>
-      <c r="D16" s="10">
-        <v>0</v>
-      </c>
-      <c r="E16" s="10">
-        <v>0</v>
-      </c>
-      <c r="F16" s="10">
-        <v>0</v>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17">
+        <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="1">
-        <v>1</v>
-      </c>
-      <c r="I16">
+      <c r="H16">
         <v>1214900</v>
       </c>
-      <c r="J16" s="1">
+      <c r="I16" s="1">
         <v>81600</v>
       </c>
-      <c r="K16" s="15">
+      <c r="J16" s="14">
         <v>7.2002117709344393</v>
       </c>
-      <c r="L16" s="13">
+      <c r="K16" s="12">
         <v>7.5826358450525905E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
@@ -1887,35 +1739,28 @@
       <c r="C17" s="2">
         <v>2005</v>
       </c>
-      <c r="D17" s="10">
-        <v>0</v>
-      </c>
-      <c r="E17" s="10">
-        <v>0</v>
-      </c>
-      <c r="F17" s="10">
-        <v>0</v>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17">
+        <v>1</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="1">
-        <v>1</v>
-      </c>
-      <c r="I17">
+      <c r="H17">
         <v>1172600</v>
       </c>
-      <c r="J17" s="2">
+      <c r="I17" s="2">
         <v>-42300</v>
       </c>
-      <c r="K17" s="16">
+      <c r="J17" s="15">
         <v>-3.4817680467528191</v>
       </c>
-      <c r="L17" s="13">
+      <c r="K17" s="12">
         <v>7.2456563600098847E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
@@ -1925,35 +1770,28 @@
       <c r="C18" s="1">
         <v>2006</v>
       </c>
-      <c r="D18" s="10">
-        <v>0</v>
-      </c>
-      <c r="E18" s="10">
-        <v>0</v>
-      </c>
-      <c r="F18" s="10">
-        <v>0</v>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17">
+        <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="1">
-        <v>1</v>
-      </c>
-      <c r="I18">
+      <c r="H18">
         <v>1258600</v>
       </c>
-      <c r="J18" s="1">
+      <c r="I18" s="1">
         <v>86000</v>
       </c>
-      <c r="K18" s="15">
+      <c r="J18" s="14">
         <v>7.3341292853487978</v>
       </c>
-      <c r="L18" s="13">
+      <c r="K18" s="12">
         <v>7.6988528794847536E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
@@ -1963,35 +1801,28 @@
       <c r="C19" s="2">
         <v>2007</v>
       </c>
-      <c r="D19" s="10">
-        <v>0</v>
-      </c>
-      <c r="E19" s="10">
-        <v>0</v>
-      </c>
-      <c r="F19" s="10">
-        <v>0</v>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17">
+        <v>1</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="1">
-        <v>1</v>
-      </c>
-      <c r="I19">
+      <c r="H19">
         <v>1340100</v>
       </c>
-      <c r="J19" s="2">
+      <c r="I19" s="2">
         <v>81500</v>
       </c>
-      <c r="K19" s="16">
+      <c r="J19" s="15">
         <v>6.4754489114889555</v>
       </c>
-      <c r="L19" s="13">
+      <c r="K19" s="12">
         <v>8.1130005794308527E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
@@ -2001,35 +1832,28 @@
       <c r="C20" s="1">
         <v>2008</v>
       </c>
-      <c r="D20" s="10">
-        <v>0</v>
-      </c>
-      <c r="E20" s="10">
-        <v>0</v>
-      </c>
-      <c r="F20" s="10">
-        <v>0</v>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17">
+        <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="1">
-        <v>1</v>
-      </c>
-      <c r="I20">
+      <c r="H20">
         <v>1330900</v>
       </c>
-      <c r="J20" s="1">
+      <c r="I20" s="1">
         <v>-9200</v>
       </c>
-      <c r="K20" s="15">
+      <c r="J20" s="14">
         <v>-0.68651593164689206</v>
       </c>
-      <c r="L20" s="13">
+      <c r="K20" s="12">
         <v>7.9705330429469742E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>3</v>
       </c>
@@ -2039,35 +1863,28 @@
       <c r="C21" s="2">
         <v>2009</v>
       </c>
-      <c r="D21" s="10">
-        <v>0</v>
-      </c>
-      <c r="E21" s="10">
-        <v>0</v>
-      </c>
-      <c r="F21" s="10">
-        <v>0</v>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17">
+        <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="1">
-        <v>1</v>
-      </c>
-      <c r="I21">
+      <c r="H21">
         <v>1100000</v>
       </c>
-      <c r="J21" s="2">
+      <c r="I21" s="2">
         <v>-230900</v>
       </c>
-      <c r="K21" s="16">
+      <c r="J21" s="15">
         <v>-17.349162221053422</v>
       </c>
-      <c r="L21" s="13">
+      <c r="K21" s="12">
         <v>6.5161715383342228E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
@@ -2077,35 +1894,28 @@
       <c r="C22" s="1">
         <v>2010</v>
       </c>
-      <c r="D22" s="10">
-        <v>0</v>
-      </c>
-      <c r="E22" s="10">
-        <v>0</v>
-      </c>
-      <c r="F22" s="10">
-        <v>0</v>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17">
+        <v>1</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H22" s="1">
-        <v>1</v>
-      </c>
-      <c r="I22">
+      <c r="H22">
         <v>1065300</v>
       </c>
-      <c r="J22" s="1">
+      <c r="I22" s="1">
         <v>-34700</v>
       </c>
-      <c r="K22" s="15">
+      <c r="J22" s="14">
         <v>-3.1545454545454543</v>
       </c>
-      <c r="L22" s="13">
+      <c r="K22" s="12">
         <v>6.2429943588014646E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
@@ -2115,35 +1925,28 @@
       <c r="C23" s="2">
         <v>2011</v>
       </c>
-      <c r="D23" s="10">
-        <v>0</v>
-      </c>
-      <c r="E23" s="10">
-        <v>0</v>
-      </c>
-      <c r="F23" s="10">
-        <v>0</v>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17">
+        <v>1</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="1">
-        <v>1</v>
-      </c>
-      <c r="I23">
+      <c r="H23">
         <v>1099500</v>
       </c>
-      <c r="J23" s="2">
+      <c r="I23" s="2">
         <v>34200</v>
       </c>
-      <c r="K23" s="16">
+      <c r="J23" s="15">
         <v>3.210363277949873</v>
       </c>
-      <c r="L23" s="13">
+      <c r="K23" s="12">
         <v>6.3723766542315971E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
@@ -2153,35 +1956,28 @@
       <c r="C24" s="1">
         <v>2012</v>
       </c>
-      <c r="D24" s="10">
-        <v>0</v>
-      </c>
-      <c r="E24" s="10">
-        <v>0</v>
-      </c>
-      <c r="F24" s="10">
-        <v>0</v>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17">
+        <v>1</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="1">
-        <v>1</v>
-      </c>
-      <c r="I24">
+      <c r="H24">
         <v>1147700</v>
       </c>
-      <c r="J24" s="1">
+      <c r="I24" s="1">
         <v>48200</v>
       </c>
-      <c r="K24" s="15">
+      <c r="J24" s="14">
         <v>4.3838108231014097</v>
       </c>
-      <c r="L24" s="13">
+      <c r="K24" s="12">
         <v>6.5795315857359052E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>3</v>
       </c>
@@ -2191,35 +1987,28 @@
       <c r="C25" s="2">
         <v>2013</v>
       </c>
-      <c r="D25" s="10">
-        <v>0</v>
-      </c>
-      <c r="E25" s="10">
-        <v>0</v>
-      </c>
-      <c r="F25" s="10">
-        <v>0</v>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17">
+        <v>1</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H25" s="1">
-        <v>1</v>
-      </c>
-      <c r="I25">
+      <c r="H25">
         <v>966400</v>
       </c>
-      <c r="J25" s="2">
+      <c r="I25" s="2">
         <v>-181300</v>
       </c>
-      <c r="K25" s="16">
+      <c r="J25" s="15">
         <v>-15.796811013331011</v>
       </c>
-      <c r="L25" s="13">
+      <c r="K25" s="12">
         <v>5.4871983730093436E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
@@ -2229,35 +2018,28 @@
       <c r="C26" s="1">
         <v>2014</v>
       </c>
-      <c r="D26" s="10">
-        <v>0</v>
-      </c>
-      <c r="E26" s="10">
-        <v>0</v>
-      </c>
-      <c r="F26" s="10">
-        <v>0</v>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17">
+        <v>1</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="1">
-        <v>1</v>
-      </c>
-      <c r="I26">
+      <c r="H26">
         <v>870900</v>
       </c>
-      <c r="J26" s="1">
+      <c r="I26" s="1">
         <v>-95500</v>
       </c>
-      <c r="K26" s="15">
+      <c r="J26" s="14">
         <v>-9.8820364238410594</v>
       </c>
-      <c r="L26" s="13">
+      <c r="K26" s="12">
         <v>4.8961027213482278E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>3</v>
       </c>
@@ -2267,35 +2049,28 @@
       <c r="C27" s="2">
         <v>2015</v>
       </c>
-      <c r="D27" s="10">
-        <v>0</v>
-      </c>
-      <c r="E27" s="10">
-        <v>0</v>
-      </c>
-      <c r="F27" s="10">
-        <v>0</v>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17">
+        <v>1</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H27" s="1">
-        <v>1</v>
-      </c>
-      <c r="I27">
+      <c r="H27">
         <v>841900</v>
       </c>
-      <c r="J27" s="2">
+      <c r="I27" s="2">
         <v>-29000</v>
       </c>
-      <c r="K27" s="16">
+      <c r="J27" s="15">
         <v>-3.3298886209668157</v>
       </c>
-      <c r="L27" s="13">
+      <c r="K27" s="12">
         <v>4.6846596399183302E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
@@ -2305,35 +2080,28 @@
       <c r="C28" s="1">
         <v>2016</v>
       </c>
-      <c r="D28" s="10">
-        <v>0</v>
-      </c>
-      <c r="E28" s="10">
-        <v>0</v>
-      </c>
-      <c r="F28" s="10">
-        <v>0</v>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17">
+        <v>1</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H28" s="1">
-        <v>1</v>
-      </c>
-      <c r="I28">
+      <c r="H28">
         <v>882000</v>
       </c>
-      <c r="J28" s="1">
+      <c r="I28" s="1">
         <v>40100</v>
       </c>
-      <c r="K28" s="15">
+      <c r="J28" s="14">
         <v>4.7630359900225683</v>
       </c>
-      <c r="L28" s="13">
+      <c r="K28" s="12">
         <v>4.8549175057591598E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>3</v>
       </c>
@@ -2343,35 +2111,28 @@
       <c r="C29" s="2">
         <v>2017</v>
       </c>
-      <c r="D29" s="10">
-        <v>0</v>
-      </c>
-      <c r="E29" s="10">
-        <v>0</v>
-      </c>
-      <c r="F29" s="10">
-        <v>0</v>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17">
+        <v>1</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="1">
-        <v>1</v>
-      </c>
-      <c r="I29">
+      <c r="H29">
         <v>882000</v>
       </c>
-      <c r="J29" s="2">
+      <c r="I29" s="2">
         <v>0</v>
       </c>
-      <c r="K29" s="16">
+      <c r="J29" s="15">
         <v>0</v>
       </c>
-      <c r="L29" s="13">
+      <c r="K29" s="12">
         <v>4.7884836642128496E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
@@ -2381,35 +2142,28 @@
       <c r="C30" s="1">
         <v>2018</v>
       </c>
-      <c r="D30" s="10">
-        <v>0</v>
-      </c>
-      <c r="E30" s="10">
-        <v>0</v>
-      </c>
-      <c r="F30" s="10">
-        <v>0</v>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17">
+        <v>1</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H30" s="1">
-        <v>1</v>
-      </c>
-      <c r="I30">
+      <c r="H30">
         <v>882000</v>
       </c>
-      <c r="J30" s="1">
+      <c r="I30" s="1">
         <v>0</v>
       </c>
-      <c r="K30" s="15">
+      <c r="J30" s="14">
         <v>0</v>
       </c>
-      <c r="L30" s="13">
+      <c r="K30" s="12">
         <v>4.7036475400110016E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
@@ -2419,35 +2173,28 @@
       <c r="C31" s="1">
         <v>2019</v>
       </c>
-      <c r="D31" s="10">
-        <v>0</v>
-      </c>
-      <c r="E31" s="10">
-        <v>0</v>
-      </c>
-      <c r="F31" s="10">
-        <v>0</v>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17">
+        <v>1</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H31" s="1">
-        <v>1</v>
-      </c>
-      <c r="I31">
+      <c r="H31">
         <v>882000</v>
       </c>
-      <c r="J31" s="1">
+      <c r="I31" s="1">
         <v>0</v>
       </c>
-      <c r="K31" s="15">
+      <c r="J31" s="14">
         <v>0</v>
       </c>
-      <c r="L31" s="13">
+      <c r="K31" s="12">
         <v>4.6160570959160138E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -2457,35 +2204,28 @@
       <c r="C32" s="2">
         <v>1990</v>
       </c>
-      <c r="D32" s="10">
-        <v>0</v>
-      </c>
-      <c r="E32" s="10">
-        <v>0</v>
-      </c>
-      <c r="F32" s="10">
-        <v>0</v>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17">
+        <v>2</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H32" s="2">
-        <v>2</v>
-      </c>
-      <c r="I32">
+      <c r="H32">
         <v>384763</v>
       </c>
-      <c r="J32" s="2">
+      <c r="I32" s="2">
         <v>0</v>
       </c>
-      <c r="K32" s="16">
+      <c r="J32" s="15">
         <v>0</v>
       </c>
-      <c r="L32" s="13">
+      <c r="K32" s="12">
         <v>2.9195158965020108E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
@@ -2495,35 +2235,28 @@
       <c r="C33" s="1">
         <v>1991</v>
       </c>
-      <c r="D33" s="10">
-        <v>0</v>
-      </c>
-      <c r="E33" s="10">
-        <v>0</v>
-      </c>
-      <c r="F33" s="10">
-        <v>0</v>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17">
+        <v>2</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H33" s="2">
-        <v>2</v>
-      </c>
-      <c r="I33">
+      <c r="H33">
         <v>238132</v>
       </c>
-      <c r="J33" s="1">
+      <c r="I33" s="1">
         <v>-146631</v>
       </c>
-      <c r="K33" s="15">
+      <c r="J33" s="14">
         <v>-38.109433599384559</v>
       </c>
-      <c r="L33" s="13">
+      <c r="K33" s="12">
         <v>1.7741916256891671E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>3</v>
       </c>
@@ -2533,35 +2266,28 @@
       <c r="C34" s="2">
         <v>1992</v>
       </c>
-      <c r="D34" s="10">
-        <v>0</v>
-      </c>
-      <c r="E34" s="10">
-        <v>0</v>
-      </c>
-      <c r="F34" s="10">
-        <v>0</v>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17">
+        <v>2</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H34" s="2">
-        <v>2</v>
-      </c>
-      <c r="I34">
+      <c r="H34">
         <v>241824</v>
       </c>
-      <c r="J34" s="2">
+      <c r="I34" s="2">
         <v>3692</v>
       </c>
-      <c r="K34" s="16">
+      <c r="J34" s="15">
         <v>1.5504006181445584</v>
       </c>
-      <c r="L34" s="13">
+      <c r="K34" s="12">
         <v>1.7603764181889841E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>3</v>
       </c>
@@ -2571,35 +2297,28 @@
       <c r="C35" s="1">
         <v>1993</v>
       </c>
-      <c r="D35" s="10">
-        <v>0</v>
-      </c>
-      <c r="E35" s="10">
-        <v>0</v>
-      </c>
-      <c r="F35" s="10">
-        <v>0</v>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17">
+        <v>2</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H35" s="2">
-        <v>2</v>
-      </c>
-      <c r="I35">
+      <c r="H35">
         <v>197856</v>
       </c>
-      <c r="J35" s="1">
+      <c r="I35" s="1">
         <v>-43968</v>
       </c>
-      <c r="K35" s="15">
+      <c r="J35" s="14">
         <v>-18.181818181818183</v>
       </c>
-      <c r="L35" s="13">
+      <c r="K35" s="12">
         <v>1.4176350022634183E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>3</v>
       </c>
@@ -2609,35 +2328,28 @@
       <c r="C36" s="2">
         <v>1994</v>
       </c>
-      <c r="D36" s="10">
-        <v>0</v>
-      </c>
-      <c r="E36" s="10">
-        <v>0</v>
-      </c>
-      <c r="F36" s="10">
-        <v>0</v>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17">
+        <v>2</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H36" s="2">
-        <v>2</v>
-      </c>
-      <c r="I36">
+      <c r="H36">
         <v>355408</v>
       </c>
-      <c r="J36" s="2">
+      <c r="I36" s="2">
         <v>157552</v>
       </c>
-      <c r="K36" s="16">
+      <c r="J36" s="15">
         <v>79.629629629629633</v>
       </c>
-      <c r="L36" s="13">
+      <c r="K36" s="12">
         <v>2.5078499086320663E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>3</v>
       </c>
@@ -2647,35 +2359,28 @@
       <c r="C37" s="1">
         <v>1995</v>
       </c>
-      <c r="D37" s="10">
-        <v>0</v>
-      </c>
-      <c r="E37" s="10">
-        <v>0</v>
-      </c>
-      <c r="F37" s="10">
-        <v>0</v>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17">
+        <v>2</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H37" s="2">
-        <v>2</v>
-      </c>
-      <c r="I37">
+      <c r="H37">
         <v>315132</v>
       </c>
-      <c r="J37" s="1">
+      <c r="I37" s="1">
         <v>-40276</v>
       </c>
-      <c r="K37" s="15">
+      <c r="J37" s="14">
         <v>-11.332327916085175</v>
       </c>
-      <c r="L37" s="13">
+      <c r="K37" s="12">
         <v>2.1912700350296417E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2685,35 +2390,28 @@
       <c r="C38" s="2">
         <v>1996</v>
       </c>
-      <c r="D38" s="10">
-        <v>0</v>
-      </c>
-      <c r="E38" s="10">
-        <v>0</v>
-      </c>
-      <c r="F38" s="10">
-        <v>0</v>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17">
+        <v>2</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H38" s="2">
-        <v>2</v>
-      </c>
-      <c r="I38">
+      <c r="H38">
         <v>293142</v>
       </c>
-      <c r="J38" s="2">
+      <c r="I38" s="2">
         <v>-21990</v>
       </c>
-      <c r="K38" s="16">
+      <c r="J38" s="15">
         <v>-6.9780282548265484</v>
       </c>
-      <c r="L38" s="13">
+      <c r="K38" s="12">
         <v>2.0098941737669667E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>3</v>
       </c>
@@ -2723,35 +2421,28 @@
       <c r="C39" s="1">
         <v>1997</v>
       </c>
-      <c r="D39" s="10">
-        <v>0</v>
-      </c>
-      <c r="E39" s="10">
-        <v>0</v>
-      </c>
-      <c r="F39" s="10">
-        <v>0</v>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17">
+        <v>2</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H39" s="2">
-        <v>2</v>
-      </c>
-      <c r="I39">
+      <c r="H39">
         <v>300448</v>
       </c>
-      <c r="J39" s="1">
+      <c r="I39" s="1">
         <v>7306</v>
       </c>
-      <c r="K39" s="15">
+      <c r="J39" s="14">
         <v>2.4923074823805527</v>
       </c>
-      <c r="L39" s="13">
+      <c r="K39" s="12">
         <v>2.0324289747763367E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>3</v>
       </c>
@@ -2761,35 +2452,28 @@
       <c r="C40" s="2">
         <v>1998</v>
       </c>
-      <c r="D40" s="10">
-        <v>0</v>
-      </c>
-      <c r="E40" s="10">
-        <v>0</v>
-      </c>
-      <c r="F40" s="10">
-        <v>0</v>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17">
+        <v>2</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H40" s="2">
-        <v>2</v>
-      </c>
-      <c r="I40">
+      <c r="H40">
         <v>234496</v>
       </c>
-      <c r="J40" s="2">
+      <c r="I40" s="2">
         <v>-65952</v>
       </c>
-      <c r="K40" s="16">
+      <c r="J40" s="15">
         <v>-21.951219512195124</v>
       </c>
-      <c r="L40" s="13">
+      <c r="K40" s="12">
         <v>1.5659271936276295E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>3</v>
       </c>
@@ -2799,35 +2483,28 @@
       <c r="C41" s="1">
         <v>1999</v>
       </c>
-      <c r="D41" s="10">
-        <v>0</v>
-      </c>
-      <c r="E41" s="10">
-        <v>0</v>
-      </c>
-      <c r="F41" s="10">
-        <v>0</v>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17">
+        <v>2</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H41" s="2">
-        <v>2</v>
-      </c>
-      <c r="I41">
+      <c r="H41">
         <v>234496</v>
       </c>
-      <c r="J41" s="1">
+      <c r="I41" s="1">
         <v>0</v>
       </c>
-      <c r="K41" s="15">
+      <c r="J41" s="14">
         <v>0</v>
       </c>
-      <c r="L41" s="13">
+      <c r="K41" s="12">
         <v>1.5465673434723489E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>3</v>
       </c>
@@ -2837,35 +2514,28 @@
       <c r="C42" s="2">
         <v>2000</v>
       </c>
-      <c r="D42" s="10">
-        <v>0</v>
-      </c>
-      <c r="E42" s="10">
-        <v>0</v>
-      </c>
-      <c r="F42" s="10">
-        <v>0</v>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17">
+        <v>2</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H42" s="2">
-        <v>2</v>
-      </c>
-      <c r="I42">
+      <c r="H42">
         <v>296784</v>
       </c>
-      <c r="J42" s="2">
+      <c r="I42" s="2">
         <v>62288</v>
       </c>
-      <c r="K42" s="16">
+      <c r="J42" s="15">
         <v>26.5625</v>
       </c>
-      <c r="L42" s="13">
+      <c r="K42" s="12">
         <v>1.9342872594898915E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>3</v>
       </c>
@@ -2875,35 +2545,28 @@
       <c r="C43" s="1">
         <v>2001</v>
       </c>
-      <c r="D43" s="10">
-        <v>0</v>
-      </c>
-      <c r="E43" s="10">
-        <v>0</v>
-      </c>
-      <c r="F43" s="10">
-        <v>0</v>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17">
+        <v>2</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H43" s="2">
-        <v>2</v>
-      </c>
-      <c r="I43">
+      <c r="H43">
         <v>296805</v>
       </c>
-      <c r="J43" s="1">
+      <c r="I43" s="1">
         <v>21</v>
       </c>
-      <c r="K43" s="15">
+      <c r="J43" s="14">
         <v>7.075853145722141E-3</v>
       </c>
-      <c r="L43" s="13">
+      <c r="K43" s="12">
         <v>1.9123973126631236E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>3</v>
       </c>
@@ -2913,35 +2576,28 @@
       <c r="C44" s="2">
         <v>2002</v>
       </c>
-      <c r="D44" s="10">
-        <v>0</v>
-      </c>
-      <c r="E44" s="10">
-        <v>0</v>
-      </c>
-      <c r="F44" s="10">
-        <v>0</v>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17">
+        <v>2</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H44" s="2">
-        <v>2</v>
-      </c>
-      <c r="I44">
+      <c r="H44">
         <v>183200</v>
       </c>
-      <c r="J44" s="2">
+      <c r="I44" s="2">
         <v>-113605</v>
       </c>
-      <c r="K44" s="16">
+      <c r="J44" s="15">
         <v>-38.275972439817387</v>
       </c>
-      <c r="L44" s="13">
+      <c r="K44" s="12">
         <v>1.1674961178523603E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>3</v>
       </c>
@@ -2951,35 +2607,28 @@
       <c r="C45" s="1">
         <v>2003</v>
       </c>
-      <c r="D45" s="10">
-        <v>0</v>
-      </c>
-      <c r="E45" s="10">
-        <v>0</v>
-      </c>
-      <c r="F45" s="10">
-        <v>0</v>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17">
+        <v>2</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H45" s="2">
-        <v>2</v>
-      </c>
-      <c r="I45">
+      <c r="H45">
         <v>183200</v>
       </c>
-      <c r="J45" s="1">
+      <c r="I45" s="1">
         <v>0</v>
       </c>
-      <c r="K45" s="15">
+      <c r="J45" s="14">
         <v>0</v>
       </c>
-      <c r="L45" s="13">
+      <c r="K45" s="12">
         <v>1.1553273994154119E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>3</v>
       </c>
@@ -2989,35 +2638,28 @@
       <c r="C46" s="2">
         <v>2004</v>
       </c>
-      <c r="D46" s="10">
-        <v>0</v>
-      </c>
-      <c r="E46" s="10">
-        <v>0</v>
-      </c>
-      <c r="F46" s="10">
-        <v>0</v>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17">
+        <v>2</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H46" s="2">
-        <v>2</v>
-      </c>
-      <c r="I46">
+      <c r="H46">
         <v>179536</v>
       </c>
-      <c r="J46" s="2">
+      <c r="I46" s="2">
         <v>-3664</v>
       </c>
-      <c r="K46" s="16">
+      <c r="J46" s="15">
         <v>-2</v>
       </c>
-      <c r="L46" s="13">
+      <c r="K46" s="12">
         <v>1.1205499292759585E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>3</v>
       </c>
@@ -3027,35 +2669,28 @@
       <c r="C47" s="1">
         <v>2005</v>
       </c>
-      <c r="D47" s="10">
-        <v>0</v>
-      </c>
-      <c r="E47" s="10">
-        <v>0</v>
-      </c>
-      <c r="F47" s="10">
-        <v>0</v>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17">
+        <v>2</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H47" s="2">
-        <v>2</v>
-      </c>
-      <c r="I47">
+      <c r="H47">
         <v>139232</v>
       </c>
-      <c r="J47" s="1">
+      <c r="I47" s="1">
         <v>-40304</v>
       </c>
-      <c r="K47" s="15">
+      <c r="J47" s="14">
         <v>-22.448979591836736</v>
       </c>
-      <c r="L47" s="13">
+      <c r="K47" s="12">
         <v>8.6033364004511025E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>3</v>
       </c>
@@ -3065,35 +2700,28 @@
       <c r="C48" s="2">
         <v>2006</v>
       </c>
-      <c r="D48" s="10">
-        <v>0</v>
-      </c>
-      <c r="E48" s="10">
-        <v>0</v>
-      </c>
-      <c r="F48" s="10">
-        <v>0</v>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17">
+        <v>2</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H48" s="2">
-        <v>2</v>
-      </c>
-      <c r="I48">
+      <c r="H48">
         <v>106256</v>
       </c>
-      <c r="J48" s="2">
+      <c r="I48" s="2">
         <v>-32976</v>
       </c>
-      <c r="K48" s="16">
+      <c r="J48" s="15">
         <v>-23.684210526315788</v>
       </c>
-      <c r="L48" s="13">
+      <c r="K48" s="12">
         <v>6.499676716689432E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>3</v>
       </c>
@@ -3103,35 +2731,28 @@
       <c r="C49" s="1">
         <v>2007</v>
       </c>
-      <c r="D49" s="10">
-        <v>0</v>
-      </c>
-      <c r="E49" s="10">
-        <v>0</v>
-      </c>
-      <c r="F49" s="10">
-        <v>0</v>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17">
+        <v>2</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H49" s="2">
-        <v>2</v>
-      </c>
-      <c r="I49">
+      <c r="H49">
         <v>370064</v>
       </c>
-      <c r="J49" s="1">
+      <c r="I49" s="1">
         <v>263808</v>
       </c>
-      <c r="K49" s="15">
+      <c r="J49" s="14">
         <v>248.27586206896552</v>
       </c>
-      <c r="L49" s="13">
+      <c r="K49" s="12">
         <v>2.2403771706786799E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
@@ -3141,35 +2762,28 @@
       <c r="C50" s="2">
         <v>2008</v>
       </c>
-      <c r="D50" s="10">
-        <v>0</v>
-      </c>
-      <c r="E50" s="10">
-        <v>0</v>
-      </c>
-      <c r="F50" s="10">
-        <v>0</v>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17">
+        <v>2</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H50" s="2">
-        <v>2</v>
-      </c>
-      <c r="I50">
+      <c r="H50">
         <v>377392</v>
       </c>
-      <c r="J50" s="2">
+      <c r="I50" s="2">
         <v>7328</v>
       </c>
-      <c r="K50" s="16">
+      <c r="J50" s="15">
         <v>1.9801980198019802</v>
       </c>
-      <c r="L50" s="13">
+      <c r="K50" s="12">
         <v>2.2601363033615179E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>3</v>
       </c>
@@ -3179,35 +2793,28 @@
       <c r="C51" s="1">
         <v>2009</v>
       </c>
-      <c r="D51" s="10">
-        <v>0</v>
-      </c>
-      <c r="E51" s="10">
-        <v>0</v>
-      </c>
-      <c r="F51" s="10">
-        <v>0</v>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17">
+        <v>2</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H51" s="2">
-        <v>2</v>
-      </c>
-      <c r="I51">
+      <c r="H51">
         <v>80604</v>
       </c>
-      <c r="J51" s="1">
+      <c r="I51" s="1">
         <v>-296788</v>
       </c>
-      <c r="K51" s="15">
+      <c r="J51" s="14">
         <v>-78.641836604909486</v>
       </c>
-      <c r="L51" s="13">
+      <c r="K51" s="12">
         <v>4.7748135515990149E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>3</v>
       </c>
@@ -3217,35 +2824,28 @@
       <c r="C52" s="2">
         <v>2010</v>
       </c>
-      <c r="D52" s="10">
-        <v>0</v>
-      </c>
-      <c r="E52" s="10">
-        <v>0</v>
-      </c>
-      <c r="F52" s="10">
-        <v>0</v>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17">
+        <v>2</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H52" s="2">
-        <v>2</v>
-      </c>
-      <c r="I52">
+      <c r="H52">
         <v>51299</v>
       </c>
-      <c r="J52" s="2">
+      <c r="I52" s="2">
         <v>-29305</v>
       </c>
-      <c r="K52" s="16">
+      <c r="J52" s="15">
         <v>-36.356756488511735</v>
       </c>
-      <c r="L52" s="13">
+      <c r="K52" s="12">
         <v>3.0062833719342566E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>3</v>
       </c>
@@ -3255,35 +2855,28 @@
       <c r="C53" s="1">
         <v>2011</v>
       </c>
-      <c r="D53" s="10">
-        <v>0</v>
-      </c>
-      <c r="E53" s="10">
-        <v>0</v>
-      </c>
-      <c r="F53" s="10">
-        <v>0</v>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17">
+        <v>2</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H53" s="2">
-        <v>2</v>
-      </c>
-      <c r="I53">
+      <c r="H53">
         <v>58624</v>
       </c>
-      <c r="J53" s="1">
+      <c r="I53" s="1">
         <v>7325</v>
       </c>
-      <c r="K53" s="15">
+      <c r="J53" s="14">
         <v>14.279030780327101</v>
       </c>
-      <c r="L53" s="13">
+      <c r="K53" s="12">
         <v>3.3976735696013929E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>3</v>
       </c>
@@ -3293,35 +2886,28 @@
       <c r="C54" s="2">
         <v>2012</v>
       </c>
-      <c r="D54" s="10">
-        <v>0</v>
-      </c>
-      <c r="E54" s="10">
-        <v>0</v>
-      </c>
-      <c r="F54" s="10">
-        <v>0</v>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17">
+        <v>2</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H54" s="2">
-        <v>2</v>
-      </c>
-      <c r="I54">
+      <c r="H54">
         <v>106261</v>
       </c>
-      <c r="J54" s="2">
+      <c r="I54" s="2">
         <v>47637</v>
       </c>
-      <c r="K54" s="16">
+      <c r="J54" s="15">
         <v>81.258528930131007</v>
       </c>
-      <c r="L54" s="13">
+      <c r="K54" s="12">
         <v>6.0917278542466065E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>3</v>
       </c>
@@ -3331,35 +2917,28 @@
       <c r="C55" s="1">
         <v>2013</v>
       </c>
-      <c r="D55" s="10">
-        <v>0</v>
-      </c>
-      <c r="E55" s="10">
-        <v>0</v>
-      </c>
-      <c r="F55" s="10">
-        <v>0</v>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17">
+        <v>2</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H55" s="2">
-        <v>2</v>
-      </c>
-      <c r="I55">
+      <c r="H55">
         <v>120917</v>
       </c>
-      <c r="J55" s="1">
+      <c r="I55" s="1">
         <v>14656</v>
       </c>
-      <c r="K55" s="15">
+      <c r="J55" s="14">
         <v>13.792454428247428</v>
       </c>
-      <c r="L55" s="13">
+      <c r="K55" s="12">
         <v>6.8656412010468827E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>3</v>
       </c>
@@ -3369,35 +2948,28 @@
       <c r="C56" s="2">
         <v>2014</v>
       </c>
-      <c r="D56" s="10">
-        <v>0</v>
-      </c>
-      <c r="E56" s="10">
-        <v>0</v>
-      </c>
-      <c r="F56" s="10">
-        <v>0</v>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17">
+        <v>2</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H56" s="2">
-        <v>2</v>
-      </c>
-      <c r="I56">
+      <c r="H56">
         <v>47634</v>
       </c>
-      <c r="J56" s="2">
+      <c r="I56" s="2">
         <v>-73283</v>
       </c>
-      <c r="K56" s="16">
+      <c r="J56" s="15">
         <v>-60.606035545043291</v>
       </c>
-      <c r="L56" s="13">
+      <c r="K56" s="12">
         <v>2.6779303826926339E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>3</v>
       </c>
@@ -3407,35 +2979,28 @@
       <c r="C57" s="1">
         <v>2015</v>
       </c>
-      <c r="D57" s="10">
-        <v>0</v>
-      </c>
-      <c r="E57" s="10">
-        <v>0</v>
-      </c>
-      <c r="F57" s="10">
-        <v>0</v>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17">
+        <v>2</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H57" s="2">
-        <v>2</v>
-      </c>
-      <c r="I57">
+      <c r="H57">
         <v>161209</v>
       </c>
-      <c r="J57" s="1">
+      <c r="I57" s="1">
         <v>113575</v>
       </c>
-      <c r="K57" s="15">
+      <c r="J57" s="14">
         <v>238.43263215350379</v>
       </c>
-      <c r="L57" s="13">
+      <c r="K57" s="12">
         <v>8.9702968985817099E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>3</v>
       </c>
@@ -3445,35 +3010,28 @@
       <c r="C58" s="2">
         <v>2016</v>
       </c>
-      <c r="D58" s="10">
-        <v>0</v>
-      </c>
-      <c r="E58" s="10">
-        <v>0</v>
-      </c>
-      <c r="F58" s="10">
-        <v>0</v>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17">
+        <v>2</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H58" s="2">
-        <v>2</v>
-      </c>
-      <c r="I58">
+      <c r="H58">
         <v>249152</v>
       </c>
-      <c r="J58" s="2">
+      <c r="I58" s="2">
         <v>87943</v>
       </c>
-      <c r="K58" s="16">
+      <c r="J58" s="15">
         <v>54.552165201694692</v>
       </c>
-      <c r="L58" s="13">
+      <c r="K58" s="12">
         <v>1.371442637635948E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>3</v>
       </c>
@@ -3483,35 +3041,28 @@
       <c r="C59" s="1">
         <v>2017</v>
       </c>
-      <c r="D59" s="10">
-        <v>0</v>
-      </c>
-      <c r="E59" s="10">
-        <v>0</v>
-      </c>
-      <c r="F59" s="10">
-        <v>0</v>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17">
+        <v>2</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H59" s="2">
-        <v>2</v>
-      </c>
-      <c r="I59">
+      <c r="H59">
         <v>29312</v>
       </c>
-      <c r="J59" s="1">
+      <c r="I59" s="1">
         <v>-219840</v>
       </c>
-      <c r="K59" s="15">
+      <c r="J59" s="14">
         <v>-88.235294117647058</v>
       </c>
-      <c r="L59" s="13">
+      <c r="K59" s="12">
         <v>1.5913835959796717E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>3</v>
       </c>
@@ -3521,35 +3072,28 @@
       <c r="C60" s="2">
         <v>2018</v>
       </c>
-      <c r="D60" s="10">
-        <v>0</v>
-      </c>
-      <c r="E60" s="10">
-        <v>0</v>
-      </c>
-      <c r="F60" s="10">
-        <v>0</v>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17">
+        <v>2</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H60" s="2">
-        <v>2</v>
-      </c>
-      <c r="I60">
+      <c r="H60">
         <v>29312</v>
       </c>
-      <c r="J60" s="2">
+      <c r="I60" s="2">
         <v>0</v>
       </c>
-      <c r="K60" s="16">
+      <c r="J60" s="15">
         <v>0</v>
       </c>
-      <c r="L60" s="13">
+      <c r="K60" s="12">
         <v>1.5631895316644273E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>3</v>
       </c>
@@ -3559,35 +3103,28 @@
       <c r="C61" s="2">
         <v>2019</v>
       </c>
-      <c r="D61" s="10">
-        <v>0</v>
-      </c>
-      <c r="E61" s="10">
-        <v>0</v>
-      </c>
-      <c r="F61" s="10">
-        <v>0</v>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17">
+        <v>2</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H61" s="2">
-        <v>2</v>
-      </c>
-      <c r="I61">
+      <c r="H61">
         <v>29312</v>
       </c>
-      <c r="J61" s="2">
+      <c r="I61" s="2">
         <v>0</v>
       </c>
-      <c r="K61" s="16">
+      <c r="J61" s="15">
         <v>0</v>
       </c>
-      <c r="L61" s="13">
+      <c r="K61" s="12">
         <v>1.534080108792406E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>3</v>
       </c>
@@ -3597,35 +3134,28 @@
       <c r="C62" s="1">
         <v>1990</v>
       </c>
-      <c r="D62" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F62" s="1">
-        <v>150402004</v>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17">
+        <v>3</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H62" s="1">
-        <v>3</v>
-      </c>
-      <c r="I62">
+      <c r="H62">
         <v>10707394</v>
       </c>
-      <c r="J62" s="1">
+      <c r="I62" s="1">
         <v>0</v>
       </c>
-      <c r="K62" s="15">
+      <c r="J62" s="14">
         <v>0</v>
       </c>
-      <c r="L62" s="13">
+      <c r="K62" s="12">
         <v>0.81245876014872143</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>3</v>
       </c>
@@ -3635,35 +3165,28 @@
       <c r="C63" s="2">
         <v>1991</v>
       </c>
-      <c r="D63" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F63" s="1">
-        <v>150402004</v>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17">
+        <v>3</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H63" s="1">
-        <v>3</v>
-      </c>
-      <c r="I63">
+      <c r="H63">
         <v>8627703</v>
       </c>
-      <c r="J63" s="2">
+      <c r="I63" s="2">
         <v>-2079691</v>
       </c>
-      <c r="K63" s="16">
+      <c r="J63" s="15">
         <v>-19.422942688015404</v>
       </c>
-      <c r="L63" s="13">
+      <c r="K63" s="12">
         <v>0.64280308448815382</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>3</v>
       </c>
@@ -3673,35 +3196,28 @@
       <c r="C64" s="1">
         <v>1992</v>
       </c>
-      <c r="D64" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F64" s="1">
-        <v>150402004</v>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17">
+        <v>3</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H64" s="1">
-        <v>3</v>
-      </c>
-      <c r="I64">
+      <c r="H64">
         <v>7456240</v>
       </c>
-      <c r="J64" s="1">
+      <c r="I64" s="1">
         <v>-1171463</v>
       </c>
-      <c r="K64" s="15">
+      <c r="J64" s="14">
         <v>-13.577924506673444</v>
       </c>
-      <c r="L64" s="13">
+      <c r="K64" s="12">
         <v>0.5427827289416034</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>3</v>
       </c>
@@ -3711,35 +3227,28 @@
       <c r="C65" s="2">
         <v>1993</v>
       </c>
-      <c r="D65" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F65" s="1">
-        <v>150402004</v>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17">
+        <v>3</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H65" s="1">
-        <v>3</v>
-      </c>
-      <c r="I65">
+      <c r="H65">
         <v>7628448</v>
       </c>
-      <c r="J65" s="2">
+      <c r="I65" s="2">
         <v>172208</v>
       </c>
-      <c r="K65" s="16">
+      <c r="J65" s="15">
         <v>2.3095823095823098</v>
       </c>
-      <c r="L65" s="13">
+      <c r="K65" s="12">
         <v>0.5465770508726735</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>3</v>
       </c>
@@ -3749,35 +3258,28 @@
       <c r="C66" s="1">
         <v>1994</v>
       </c>
-      <c r="D66" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F66" s="1">
-        <v>150402004</v>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17">
+        <v>3</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H66" s="1">
-        <v>3</v>
-      </c>
-      <c r="I66">
+      <c r="H66">
         <v>9361520</v>
       </c>
-      <c r="J66" s="1">
+      <c r="I66" s="1">
         <v>1733072</v>
       </c>
-      <c r="K66" s="15">
+      <c r="J66" s="14">
         <v>22.718539865513929</v>
       </c>
-      <c r="L66" s="13">
+      <c r="K66" s="12">
         <v>0.66057283675824019</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>3</v>
       </c>
@@ -3787,35 +3289,28 @@
       <c r="C67" s="2">
         <v>1995</v>
       </c>
-      <c r="D67" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F67" s="1">
-        <v>150402004</v>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17">
+        <v>3</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H67" s="1">
-        <v>3</v>
-      </c>
-      <c r="I67">
+      <c r="H67">
         <v>10311409</v>
       </c>
-      <c r="J67" s="2">
+      <c r="I67" s="2">
         <v>949889</v>
       </c>
-      <c r="K67" s="16">
+      <c r="J67" s="15">
         <v>10.146738991104009</v>
       </c>
-      <c r="L67" s="13">
+      <c r="K67" s="12">
         <v>0.71700371782729022</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>3</v>
       </c>
@@ -3825,35 +3320,28 @@
       <c r="C68" s="1">
         <v>1996</v>
       </c>
-      <c r="D68" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F68" s="1">
-        <v>150402004</v>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17">
+        <v>3</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H68" s="1">
-        <v>3</v>
-      </c>
-      <c r="I68">
+      <c r="H68">
         <v>14415275</v>
       </c>
-      <c r="J68" s="1">
+      <c r="I68" s="1">
         <v>4103866</v>
       </c>
-      <c r="K68" s="15">
+      <c r="J68" s="14">
         <v>39.799274764486597</v>
       </c>
-      <c r="L68" s="13">
+      <c r="K68" s="12">
         <v>0.98836663581979423</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>3</v>
       </c>
@@ -3863,35 +3351,28 @@
       <c r="C69" s="2">
         <v>1997</v>
       </c>
-      <c r="D69" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F69" s="1">
-        <v>150402004</v>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17">
+        <v>3</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H69" s="1">
-        <v>3</v>
-      </c>
-      <c r="I69">
+      <c r="H69">
         <v>18605792</v>
       </c>
-      <c r="J69" s="2">
+      <c r="I69" s="2">
         <v>4190517</v>
       </c>
-      <c r="K69" s="16">
+      <c r="J69" s="15">
         <v>29.069976119082014</v>
       </c>
-      <c r="L69" s="13">
+      <c r="K69" s="12">
         <v>1.2586188212090534</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>3</v>
       </c>
@@ -3901,35 +3382,28 @@
       <c r="C70" s="1">
         <v>1998</v>
       </c>
-      <c r="D70" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F70" s="1">
-        <v>150402004</v>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17">
+        <v>3</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H70" s="1">
-        <v>3</v>
-      </c>
-      <c r="I70">
+      <c r="H70">
         <v>17770400</v>
       </c>
-      <c r="J70" s="1">
+      <c r="I70" s="1">
         <v>-835392</v>
       </c>
-      <c r="K70" s="15">
+      <c r="J70" s="14">
         <v>-4.4899566758566367</v>
       </c>
-      <c r="L70" s="13">
+      <c r="K70" s="12">
         <v>1.186679201420938</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>3</v>
       </c>
@@ -3939,35 +3413,28 @@
       <c r="C71" s="2">
         <v>1999</v>
       </c>
-      <c r="D71" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F71" s="1">
-        <v>150402004</v>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17">
+        <v>3</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H71" s="1">
-        <v>3</v>
-      </c>
-      <c r="I71">
+      <c r="H71">
         <v>18517856</v>
       </c>
-      <c r="J71" s="2">
+      <c r="I71" s="2">
         <v>747456</v>
       </c>
-      <c r="K71" s="16">
+      <c r="J71" s="15">
         <v>4.2061855670103094</v>
       </c>
-      <c r="L71" s="13">
+      <c r="K71" s="12">
         <v>1.2213048990483206</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>3</v>
       </c>
@@ -3977,35 +3444,28 @@
       <c r="C72" s="1">
         <v>2000</v>
       </c>
-      <c r="D72" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F72" s="1">
-        <v>150402004</v>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17">
+        <v>3</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H72" s="1">
-        <v>3</v>
-      </c>
-      <c r="I72">
+      <c r="H72">
         <v>14241968</v>
       </c>
-      <c r="J72" s="1">
+      <c r="I72" s="1">
         <v>-4275888</v>
       </c>
-      <c r="K72" s="15">
+      <c r="J72" s="14">
         <v>-23.090621290067272</v>
       </c>
-      <c r="L72" s="13">
+      <c r="K72" s="12">
         <v>0.92821908365891459</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>3</v>
       </c>
@@ -4015,35 +3475,28 @@
       <c r="C73" s="2">
         <v>2001</v>
       </c>
-      <c r="D73" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F73" s="1">
-        <v>150402004</v>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17">
+        <v>3</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H73" s="1">
-        <v>3</v>
-      </c>
-      <c r="I73">
+      <c r="H73">
         <v>9263234</v>
       </c>
-      <c r="J73" s="2">
+      <c r="I73" s="2">
         <v>-4978734</v>
       </c>
-      <c r="K73" s="16">
+      <c r="J73" s="15">
         <v>-34.958188362731889</v>
       </c>
-      <c r="L73" s="13">
+      <c r="K73" s="12">
         <v>0.59685597642120847</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>3</v>
       </c>
@@ -4053,35 +3506,28 @@
       <c r="C74" s="1">
         <v>2002</v>
       </c>
-      <c r="D74" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F74" s="1">
-        <v>150402004</v>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17">
+        <v>3</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H74" s="1">
-        <v>3</v>
-      </c>
-      <c r="I74">
+      <c r="H74">
         <v>9379840</v>
       </c>
-      <c r="J74" s="1">
+      <c r="I74" s="1">
         <v>116606</v>
       </c>
-      <c r="K74" s="15">
+      <c r="J74" s="14">
         <v>1.2588044305045085</v>
       </c>
-      <c r="L74" s="13">
+      <c r="K74" s="12">
         <v>0.59775801234040848</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>3</v>
       </c>
@@ -4091,35 +3537,28 @@
       <c r="C75" s="2">
         <v>2003</v>
       </c>
-      <c r="D75" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F75" s="1">
-        <v>150402004</v>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17">
+        <v>3</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H75" s="1">
-        <v>3</v>
-      </c>
-      <c r="I75">
+      <c r="H75">
         <v>9244272</v>
       </c>
-      <c r="J75" s="2">
+      <c r="I75" s="2">
         <v>-135568</v>
       </c>
-      <c r="K75" s="16">
+      <c r="J75" s="15">
         <v>-1.4453125</v>
       </c>
-      <c r="L75" s="13">
+      <c r="K75" s="12">
         <v>0.5829782057450168</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>3</v>
       </c>
@@ -4129,35 +3568,28 @@
       <c r="C76" s="1">
         <v>2004</v>
       </c>
-      <c r="D76" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F76" s="1">
-        <v>150402004</v>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17">
+        <v>3</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H76" s="1">
-        <v>3</v>
-      </c>
-      <c r="I76">
+      <c r="H76">
         <v>10281184</v>
       </c>
-      <c r="J76" s="1">
+      <c r="I76" s="1">
         <v>1036912</v>
       </c>
-      <c r="K76" s="15">
+      <c r="J76" s="14">
         <v>11.216805390408243</v>
       </c>
-      <c r="L76" s="13">
+      <c r="K76" s="12">
         <v>0.64168634725476315</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>3</v>
       </c>
@@ -4167,35 +3599,28 @@
       <c r="C77" s="2">
         <v>2005</v>
       </c>
-      <c r="D77" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F77" s="1">
-        <v>150402004</v>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17">
+        <v>3</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H77" s="1">
-        <v>3</v>
-      </c>
-      <c r="I77">
+      <c r="H77">
         <v>10251872</v>
       </c>
-      <c r="J77" s="2">
+      <c r="I77" s="2">
         <v>-29312</v>
       </c>
-      <c r="K77" s="16">
+      <c r="J77" s="15">
         <v>-0.2851033499643621</v>
       </c>
-      <c r="L77" s="13">
+      <c r="K77" s="12">
         <v>0.63347724338058375</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>3</v>
       </c>
@@ -4205,35 +3630,28 @@
       <c r="C78" s="1">
         <v>2006</v>
       </c>
-      <c r="D78" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F78" s="1">
-        <v>150402004</v>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17">
+        <v>3</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H78" s="1">
-        <v>3</v>
-      </c>
-      <c r="I78">
+      <c r="H78">
         <v>12538208</v>
       </c>
-      <c r="J78" s="1">
+      <c r="I78" s="1">
         <v>2286336</v>
       </c>
-      <c r="K78" s="15">
+      <c r="J78" s="14">
         <v>22.301644031451037</v>
       </c>
-      <c r="L78" s="13">
+      <c r="K78" s="12">
         <v>0.76696185256935301</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>3</v>
       </c>
@@ -4243,35 +3661,28 @@
       <c r="C79" s="2">
         <v>2007</v>
       </c>
-      <c r="D79" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F79" s="1">
-        <v>150402004</v>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17">
+        <v>3</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H79" s="1">
-        <v>3</v>
-      </c>
-      <c r="I79">
+      <c r="H79">
         <v>13007200</v>
       </c>
-      <c r="J79" s="2">
+      <c r="I79" s="2">
         <v>468992</v>
       </c>
-      <c r="K79" s="16">
+      <c r="J79" s="15">
         <v>3.7405026300409117</v>
       </c>
-      <c r="L79" s="13">
+      <c r="K79" s="12">
         <v>0.78745930256527863</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>3</v>
       </c>
@@ -4281,35 +3692,28 @@
       <c r="C80" s="1">
         <v>2008</v>
       </c>
-      <c r="D80" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F80" s="1">
-        <v>150402004</v>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17">
+        <v>3</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H80" s="1">
-        <v>3</v>
-      </c>
-      <c r="I80">
+      <c r="H80">
         <v>16733488</v>
       </c>
-      <c r="J80" s="1">
+      <c r="I80" s="1">
         <v>3726288</v>
       </c>
-      <c r="K80" s="15">
+      <c r="J80" s="14">
         <v>28.64788732394366</v>
       </c>
-      <c r="L80" s="13">
+      <c r="K80" s="12">
         <v>1.0021400482963159</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>3</v>
       </c>
@@ -4319,35 +3723,28 @@
       <c r="C81" s="2">
         <v>2009</v>
       </c>
-      <c r="D81" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F81" s="1">
-        <v>150402004</v>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17">
+        <v>3</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H81" s="1">
-        <v>3</v>
-      </c>
-      <c r="I81">
+      <c r="H81">
         <v>13431481</v>
       </c>
-      <c r="J81" s="2">
+      <c r="I81" s="2">
         <v>-3302007</v>
       </c>
-      <c r="K81" s="16">
+      <c r="J81" s="15">
         <v>-19.732927169756838</v>
       </c>
-      <c r="L81" s="13">
+      <c r="K81" s="12">
         <v>0.79565303827160805</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>3</v>
       </c>
@@ -4357,35 +3754,28 @@
       <c r="C82" s="1">
         <v>2010</v>
       </c>
-      <c r="D82" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F82" s="1">
-        <v>150402004</v>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17">
+        <v>3</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H82" s="1">
-        <v>3</v>
-      </c>
-      <c r="I82">
+      <c r="H82">
         <v>16525485</v>
       </c>
-      <c r="J82" s="1">
+      <c r="I82" s="1">
         <v>3094004</v>
       </c>
-      <c r="K82" s="15">
+      <c r="J82" s="14">
         <v>23.035464220215179</v>
       </c>
-      <c r="L82" s="13">
+      <c r="K82" s="12">
         <v>0.96844559871827862</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>3</v>
       </c>
@@ -4395,35 +3785,28 @@
       <c r="C83" s="2">
         <v>2011</v>
       </c>
-      <c r="D83" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F83" s="1">
-        <v>150402004</v>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17">
+        <v>3</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H83" s="1">
-        <v>3</v>
-      </c>
-      <c r="I83">
+      <c r="H83">
         <v>20848160</v>
       </c>
-      <c r="J83" s="2">
+      <c r="I83" s="2">
         <v>4322675</v>
       </c>
-      <c r="K83" s="16">
+      <c r="J83" s="15">
         <v>26.157628656587086</v>
       </c>
-      <c r="L83" s="13">
+      <c r="K83" s="12">
         <v>1.2082976631894953</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>3</v>
       </c>
@@ -4433,35 +3816,28 @@
       <c r="C84" s="1">
         <v>2012</v>
       </c>
-      <c r="D84" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F84" s="1">
-        <v>150402004</v>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17">
+        <v>3</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H84" s="1">
-        <v>3</v>
-      </c>
-      <c r="I84">
+      <c r="H84">
         <v>23476319</v>
       </c>
-      <c r="J84" s="1">
+      <c r="I84" s="1">
         <v>2628159</v>
       </c>
-      <c r="K84" s="15">
+      <c r="J84" s="14">
         <v>12.606191625543934</v>
       </c>
-      <c r="L84" s="13">
+      <c r="K84" s="12">
         <v>1.3458498072432863</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>3</v>
       </c>
@@ -4471,35 +3847,28 @@
       <c r="C85" s="2">
         <v>2013</v>
       </c>
-      <c r="D85" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F85" s="1">
-        <v>150402004</v>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17">
+        <v>3</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H85" s="1">
-        <v>3</v>
-      </c>
-      <c r="I85">
+      <c r="H85">
         <v>25396312</v>
       </c>
-      <c r="J85" s="2">
+      <c r="I85" s="2">
         <v>1919993</v>
       </c>
-      <c r="K85" s="16">
+      <c r="J85" s="15">
         <v>8.178424394386532</v>
       </c>
-      <c r="L85" s="13">
+      <c r="K85" s="12">
         <v>1.4419971221734029</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>3</v>
       </c>
@@ -4509,35 +3878,28 @@
       <c r="C86" s="1">
         <v>2014</v>
       </c>
-      <c r="D86" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F86" s="1">
-        <v>150402004</v>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17">
+        <v>3</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H86" s="1">
-        <v>3</v>
-      </c>
-      <c r="I86">
+      <c r="H86">
         <v>24388728</v>
       </c>
-      <c r="J86" s="1">
+      <c r="I86" s="1">
         <v>-1007584</v>
       </c>
-      <c r="K86" s="15">
+      <c r="J86" s="14">
         <v>-3.9674422018441104</v>
       </c>
-      <c r="L86" s="13">
+      <c r="K86" s="12">
         <v>1.3711071022048653</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>3</v>
       </c>
@@ -4547,35 +3909,28 @@
       <c r="C87" s="2">
         <v>2015</v>
       </c>
-      <c r="D87" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F87" s="1">
-        <v>150402004</v>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17">
+        <v>3</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H87" s="1">
-        <v>3</v>
-      </c>
-      <c r="I87">
+      <c r="H87">
         <v>27167352</v>
       </c>
-      <c r="J87" s="2">
+      <c r="I87" s="2">
         <v>2778624</v>
       </c>
-      <c r="K87" s="16">
+      <c r="J87" s="15">
         <v>11.393066501869225</v>
       </c>
-      <c r="L87" s="13">
+      <c r="K87" s="12">
         <v>1.5116973207964668</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>3</v>
       </c>
@@ -4585,35 +3940,28 @@
       <c r="C88" s="1">
         <v>2016</v>
       </c>
-      <c r="D88" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F88" s="1">
-        <v>150402004</v>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17">
+        <v>3</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H88" s="1">
-        <v>3</v>
-      </c>
-      <c r="I88">
+      <c r="H88">
         <v>27007344</v>
       </c>
-      <c r="J88" s="1">
+      <c r="I88" s="1">
         <v>-160008</v>
       </c>
-      <c r="K88" s="15">
+      <c r="J88" s="14">
         <v>-0.58897164508340749</v>
       </c>
-      <c r="L88" s="13">
+      <c r="K88" s="12">
         <v>1.4866034826492018</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>3</v>
       </c>
@@ -4623,35 +3971,28 @@
       <c r="C89" s="2">
         <v>2017</v>
       </c>
-      <c r="D89" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F89" s="1">
-        <v>150402004</v>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17">
+        <v>3</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H89" s="1">
-        <v>3</v>
-      </c>
-      <c r="I89">
+      <c r="H89">
         <v>27740144</v>
       </c>
-      <c r="J89" s="2">
+      <c r="I89" s="2">
         <v>732800</v>
       </c>
-      <c r="K89" s="16">
+      <c r="J89" s="15">
         <v>2.7133360466693799</v>
       </c>
-      <c r="L89" s="13">
+      <c r="K89" s="12">
         <v>1.5060456506452617</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>3</v>
       </c>
@@ -4661,35 +4002,28 @@
       <c r="C90" s="1">
         <v>2018</v>
       </c>
-      <c r="D90" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F90" s="1">
-        <v>150402004</v>
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17">
+        <v>3</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H90" s="1">
-        <v>3</v>
-      </c>
-      <c r="I90">
+      <c r="H90">
         <v>26772689</v>
       </c>
-      <c r="J90" s="1">
+      <c r="I90" s="1">
         <v>-967455</v>
       </c>
-      <c r="K90" s="15">
+      <c r="J90" s="14">
         <v>-3.4875630061617562</v>
       </c>
-      <c r="L90" s="13">
+      <c r="K90" s="12">
         <v>1.4277697591193834</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>3</v>
       </c>
@@ -4699,35 +4033,28 @@
       <c r="C91" s="1">
         <v>2019</v>
       </c>
-      <c r="D91" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F91" s="1">
-        <v>150402005</v>
+      <c r="D91" s="17"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17">
+        <v>3</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H91" s="1">
-        <v>3</v>
-      </c>
-      <c r="I91">
+      <c r="H91">
         <v>24444998</v>
       </c>
-      <c r="J91" s="1">
+      <c r="I91" s="1">
         <v>-2327691</v>
       </c>
-      <c r="K91" s="15">
+      <c r="J91" s="14">
         <v>-8.6942742284870977</v>
       </c>
-      <c r="L91" s="13">
+      <c r="K91" s="12">
         <v>1.2793594838724804</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>3</v>
       </c>
@@ -4737,35 +4064,28 @@
       <c r="C92" s="2">
         <v>1990</v>
       </c>
-      <c r="D92" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F92" s="2">
-        <v>150402001</v>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17">
+        <v>4</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H92" s="2">
-        <v>4</v>
-      </c>
-      <c r="I92">
+      <c r="H92">
         <v>18527236</v>
       </c>
-      <c r="J92" s="2">
+      <c r="I92" s="2">
         <v>0</v>
       </c>
-      <c r="K92" s="16">
+      <c r="J92" s="15">
         <v>0</v>
       </c>
-      <c r="L92" s="13">
+      <c r="K92" s="12">
         <v>1.4058150087260035</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>3</v>
       </c>
@@ -4775,35 +4095,28 @@
       <c r="C93" s="1">
         <v>1991</v>
       </c>
-      <c r="D93" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F93" s="2">
-        <v>150402001</v>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17">
+        <v>4</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H93" s="2">
-        <v>4</v>
-      </c>
-      <c r="I93">
+      <c r="H93">
         <v>19112834</v>
       </c>
-      <c r="J93" s="1">
+      <c r="I93" s="1">
         <v>585598</v>
       </c>
-      <c r="K93" s="15">
+      <c r="J93" s="14">
         <v>3.1607412999974742</v>
       </c>
-      <c r="L93" s="13">
+      <c r="K93" s="12">
         <v>1.4239929965727909</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>3</v>
       </c>
@@ -4813,35 +4126,28 @@
       <c r="C94" s="2">
         <v>1992</v>
       </c>
-      <c r="D94" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F94" s="2">
-        <v>150402001</v>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="17">
+        <v>4</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H94" s="2">
-        <v>4</v>
-      </c>
-      <c r="I94">
+      <c r="H94">
         <v>20818848</v>
       </c>
-      <c r="J94" s="2">
+      <c r="I94" s="2">
         <v>1706014</v>
       </c>
-      <c r="K94" s="16">
+      <c r="J94" s="15">
         <v>8.9260127514318395</v>
       </c>
-      <c r="L94" s="13">
+      <c r="K94" s="12">
         <v>1.5155240618408798</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>3</v>
       </c>
@@ -4851,35 +4157,28 @@
       <c r="C95" s="1">
         <v>1993</v>
       </c>
-      <c r="D95" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F95" s="2">
-        <v>150402001</v>
+      <c r="D95" s="17"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17">
+        <v>4</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H95" s="2">
-        <v>4</v>
-      </c>
-      <c r="I95">
+      <c r="H95">
         <v>22819392</v>
       </c>
-      <c r="J95" s="1">
+      <c r="I95" s="1">
         <v>2000544</v>
       </c>
-      <c r="K95" s="15">
+      <c r="J95" s="14">
         <v>9.6092925026399154</v>
       </c>
-      <c r="L95" s="13">
+      <c r="K95" s="12">
         <v>1.6350057026104758</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>3</v>
       </c>
@@ -4889,35 +4188,28 @@
       <c r="C96" s="2">
         <v>1994</v>
       </c>
-      <c r="D96" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F96" s="2">
-        <v>150402001</v>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="17">
+        <v>4</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H96" s="2">
-        <v>4</v>
-      </c>
-      <c r="I96">
+      <c r="H96">
         <v>24233696</v>
       </c>
-      <c r="J96" s="2">
+      <c r="I96" s="2">
         <v>1414304</v>
       </c>
-      <c r="K96" s="16">
+      <c r="J96" s="15">
         <v>6.1978163134232496</v>
       </c>
-      <c r="L96" s="13">
+      <c r="K96" s="12">
         <v>1.7099916799682977</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>3</v>
       </c>
@@ -4927,35 +4219,28 @@
       <c r="C97" s="1">
         <v>1995</v>
       </c>
-      <c r="D97" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F97" s="2">
-        <v>150402001</v>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17">
+        <v>4</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H97" s="2">
-        <v>4</v>
-      </c>
-      <c r="I97">
+      <c r="H97">
         <v>26837513</v>
       </c>
-      <c r="J97" s="1">
+      <c r="I97" s="1">
         <v>2603817</v>
       </c>
-      <c r="K97" s="15">
+      <c r="J97" s="14">
         <v>10.744613615686191</v>
       </c>
-      <c r="L97" s="13">
+      <c r="K97" s="12">
         <v>1.8661461879979966</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>3</v>
       </c>
@@ -4965,35 +4250,28 @@
       <c r="C98" s="2">
         <v>1996</v>
       </c>
-      <c r="D98" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F98" s="2">
-        <v>150402001</v>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17">
+        <v>4</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H98" s="2">
-        <v>4</v>
-      </c>
-      <c r="I98">
+      <c r="H98">
         <v>29259270</v>
       </c>
-      <c r="J98" s="2">
+      <c r="I98" s="2">
         <v>2421757</v>
       </c>
-      <c r="K98" s="16">
+      <c r="J98" s="15">
         <v>9.0237757872720934</v>
       </c>
-      <c r="L98" s="13">
+      <c r="K98" s="12">
         <v>2.0061279619322581</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>3</v>
       </c>
@@ -5003,35 +4281,28 @@
       <c r="C99" s="1">
         <v>1997</v>
       </c>
-      <c r="D99" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F99" s="2">
-        <v>150402001</v>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17">
+        <v>4</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H99" s="2">
-        <v>4</v>
-      </c>
-      <c r="I99">
+      <c r="H99">
         <v>31052400</v>
       </c>
-      <c r="J99" s="1">
+      <c r="I99" s="1">
         <v>1793130</v>
       </c>
-      <c r="K99" s="15">
+      <c r="J99" s="14">
         <v>6.1284167376698049</v>
       </c>
-      <c r="L99" s="13">
+      <c r="K99" s="12">
         <v>2.1005897025889575</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>3</v>
       </c>
@@ -5041,35 +4312,28 @@
       <c r="C100" s="2">
         <v>1998</v>
       </c>
-      <c r="D100" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F100" s="2">
-        <v>150402001</v>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="17">
+        <v>4</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H100" s="2">
-        <v>4</v>
-      </c>
-      <c r="I100">
+      <c r="H100">
         <v>31209952</v>
       </c>
-      <c r="J100" s="2">
+      <c r="I100" s="2">
         <v>157552</v>
       </c>
-      <c r="K100" s="16">
+      <c r="J100" s="15">
         <v>0.50737463126843663</v>
       </c>
-      <c r="L100" s="13">
+      <c r="K100" s="12">
         <v>2.0841512242687732</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>3</v>
       </c>
@@ -5079,35 +4343,28 @@
       <c r="C101" s="1">
         <v>1999</v>
       </c>
-      <c r="D101" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F101" s="2">
-        <v>150402001</v>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="17">
+        <v>4</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H101" s="2">
-        <v>4</v>
-      </c>
-      <c r="I101">
+      <c r="H101">
         <v>32155264</v>
       </c>
-      <c r="J101" s="1">
+      <c r="I101" s="1">
         <v>945312</v>
       </c>
-      <c r="K101" s="15">
+      <c r="J101" s="14">
         <v>3.0288800187837519</v>
       </c>
-      <c r="L101" s="13">
+      <c r="K101" s="12">
         <v>2.1207304697364586</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>3</v>
       </c>
@@ -5117,35 +4374,28 @@
       <c r="C102" s="2">
         <v>2000</v>
       </c>
-      <c r="D102" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F102" s="2">
-        <v>150402001</v>
+      <c r="D102" s="17"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="17">
+        <v>4</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H102" s="2">
-        <v>4</v>
-      </c>
-      <c r="I102">
+      <c r="H102">
         <v>30627376</v>
       </c>
-      <c r="J102" s="2">
+      <c r="I102" s="2">
         <v>-1527888</v>
       </c>
-      <c r="K102" s="16">
+      <c r="J102" s="15">
         <v>-4.7515952597994531</v>
       </c>
-      <c r="L102" s="13">
+      <c r="K102" s="12">
         <v>1.9961366916143215</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>3</v>
       </c>
@@ -5155,35 +4405,28 @@
       <c r="C103" s="1">
         <v>2001</v>
       </c>
-      <c r="D103" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F103" s="2">
-        <v>150402001</v>
+      <c r="D103" s="17"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="17">
+        <v>4</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H103" s="2">
-        <v>4</v>
-      </c>
-      <c r="I103">
+      <c r="H103">
         <v>28467588</v>
       </c>
-      <c r="J103" s="1">
+      <c r="I103" s="1">
         <v>-2159788</v>
       </c>
-      <c r="K103" s="15">
+      <c r="J103" s="14">
         <v>-7.0518218733462508</v>
       </c>
-      <c r="L103" s="13">
+      <c r="K103" s="12">
         <v>1.8342460130119433</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>3</v>
       </c>
@@ -5193,35 +4436,28 @@
       <c r="C104" s="2">
         <v>2002</v>
       </c>
-      <c r="D104" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F104" s="2">
-        <v>150402001</v>
+      <c r="D104" s="17"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="17">
+        <v>4</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H104" s="2">
-        <v>4</v>
-      </c>
-      <c r="I104">
+      <c r="H104">
         <v>30323264</v>
       </c>
-      <c r="J104" s="2">
+      <c r="I104" s="2">
         <v>1855676</v>
       </c>
-      <c r="K104" s="16">
+      <c r="J104" s="15">
         <v>6.5185571745663875</v>
       </c>
-      <c r="L104" s="13">
+      <c r="K104" s="12">
         <v>1.9324395742692269</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>3</v>
       </c>
@@ -5231,35 +4467,28 @@
       <c r="C105" s="1">
         <v>2003</v>
       </c>
-      <c r="D105" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F105" s="2">
-        <v>150402001</v>
+      <c r="D105" s="17"/>
+      <c r="E105" s="17"/>
+      <c r="F105" s="17">
+        <v>4</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H105" s="2">
-        <v>4</v>
-      </c>
-      <c r="I105">
+      <c r="H105">
         <v>29586800</v>
       </c>
-      <c r="J105" s="1">
+      <c r="I105" s="1">
         <v>-736464</v>
       </c>
-      <c r="K105" s="15">
+      <c r="J105" s="14">
         <v>-2.4287095215079746</v>
       </c>
-      <c r="L105" s="13">
+      <c r="K105" s="12">
         <v>1.8658537500558903</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>3</v>
       </c>
@@ -5269,35 +4498,28 @@
       <c r="C106" s="2">
         <v>2004</v>
       </c>
-      <c r="D106" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F106" s="2">
-        <v>150402001</v>
+      <c r="D106" s="17"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="17">
+        <v>4</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H106" s="2">
-        <v>4</v>
-      </c>
-      <c r="I106">
+      <c r="H106">
         <v>31323536</v>
       </c>
-      <c r="J106" s="2">
+      <c r="I106" s="2">
         <v>1736736</v>
       </c>
-      <c r="K106" s="16">
+      <c r="J106" s="15">
         <v>5.8699690402476783</v>
       </c>
-      <c r="L106" s="13">
+      <c r="K106" s="12">
         <v>1.9550166010979937</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>3</v>
       </c>
@@ -5307,35 +4529,28 @@
       <c r="C107" s="1">
         <v>2005</v>
       </c>
-      <c r="D107" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F107" s="2">
-        <v>150402001</v>
+      <c r="D107" s="17"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="17">
+        <v>4</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H107" s="2">
-        <v>4</v>
-      </c>
-      <c r="I107">
+      <c r="H107">
         <v>33826048</v>
       </c>
-      <c r="J107" s="1">
+      <c r="I107" s="1">
         <v>2502512</v>
       </c>
-      <c r="K107" s="15">
+      <c r="J107" s="14">
         <v>7.9892385074277694</v>
       </c>
-      <c r="L107" s="13">
+      <c r="K107" s="12">
         <v>2.0901579381306465</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>3</v>
       </c>
@@ -5345,35 +4560,28 @@
       <c r="C108" s="2">
         <v>2006</v>
       </c>
-      <c r="D108" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F108" s="2">
-        <v>150402001</v>
+      <c r="D108" s="17"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="17">
+        <v>4</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H108" s="2">
-        <v>4</v>
-      </c>
-      <c r="I108">
+      <c r="H108">
         <v>35734992</v>
       </c>
-      <c r="J108" s="2">
+      <c r="I108" s="2">
         <v>1908944</v>
       </c>
-      <c r="K108" s="16">
+      <c r="J108" s="15">
         <v>5.6434142114384755</v>
       </c>
-      <c r="L108" s="13">
+      <c r="K108" s="12">
         <v>2.1859085178576563</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>3</v>
       </c>
@@ -5383,35 +4591,28 @@
       <c r="C109" s="1">
         <v>2007</v>
       </c>
-      <c r="D109" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F109" s="2">
-        <v>150402001</v>
+      <c r="D109" s="17"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="17">
+        <v>4</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H109" s="2">
-        <v>4</v>
-      </c>
-      <c r="I109">
+      <c r="H109">
         <v>47225296</v>
       </c>
-      <c r="J109" s="1">
+      <c r="I109" s="1">
         <v>11490304</v>
       </c>
-      <c r="K109" s="15">
+      <c r="J109" s="14">
         <v>32.154208961345226</v>
       </c>
-      <c r="L109" s="13">
+      <c r="K109" s="12">
         <v>2.8590318171165849</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>3</v>
       </c>
@@ -5421,35 +4622,28 @@
       <c r="C110" s="2">
         <v>2008</v>
       </c>
-      <c r="D110" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F110" s="2">
-        <v>150402001</v>
+      <c r="D110" s="17"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="17">
+        <v>4</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H110" s="2">
-        <v>4</v>
-      </c>
-      <c r="I110">
+      <c r="H110">
         <v>47551392</v>
       </c>
-      <c r="J110" s="2">
+      <c r="I110" s="2">
         <v>326096</v>
       </c>
-      <c r="K110" s="16">
+      <c r="J110" s="15">
         <v>0.69051128869578715</v>
       </c>
-      <c r="L110" s="13">
+      <c r="K110" s="12">
         <v>2.8477717422355124</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>3</v>
       </c>
@@ -5459,35 +4653,28 @@
       <c r="C111" s="1">
         <v>2009</v>
       </c>
-      <c r="D111" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F111" s="2">
-        <v>150402001</v>
+      <c r="D111" s="17"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="17">
+        <v>4</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H111" s="2">
-        <v>4</v>
-      </c>
-      <c r="I111">
+      <c r="H111">
         <v>44929147</v>
       </c>
-      <c r="J111" s="1">
+      <c r="I111" s="1">
         <v>-2622245</v>
       </c>
-      <c r="K111" s="15">
+      <c r="J111" s="14">
         <v>-5.5145493953152833</v>
       </c>
-      <c r="L111" s="13">
+      <c r="K111" s="12">
         <v>2.6615093538457675</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>3</v>
       </c>
@@ -5497,35 +4684,28 @@
       <c r="C112" s="2">
         <v>2010</v>
       </c>
-      <c r="D112" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F112" s="2">
-        <v>150402001</v>
+      <c r="D112" s="17"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="17">
+        <v>4</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H112" s="2">
-        <v>4</v>
-      </c>
-      <c r="I112">
+      <c r="H112">
         <v>43460925</v>
       </c>
-      <c r="J112" s="2">
+      <c r="I112" s="2">
         <v>-1468222</v>
       </c>
-      <c r="K112" s="16">
+      <c r="J112" s="15">
         <v>-3.2678608387557415</v>
       </c>
-      <c r="L112" s="13">
+      <c r="K112" s="12">
         <v>2.5469474289241862</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>3</v>
       </c>
@@ -5535,35 +4715,28 @@
       <c r="C113" s="1">
         <v>2011</v>
       </c>
-      <c r="D113" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F113" s="2">
-        <v>150402001</v>
+      <c r="D113" s="17"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="17">
+        <v>4</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H113" s="2">
-        <v>4</v>
-      </c>
-      <c r="I113">
+      <c r="H113">
         <v>45627792</v>
       </c>
-      <c r="J113" s="1">
+      <c r="I113" s="1">
         <v>2166867</v>
       </c>
-      <c r="K113" s="15">
+      <c r="J113" s="14">
         <v>4.985782055950259</v>
       </c>
-      <c r="L113" s="13">
+      <c r="K113" s="12">
         <v>2.6444518101403842</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>3</v>
       </c>
@@ -5573,35 +4746,28 @@
       <c r="C114" s="2">
         <v>2012</v>
       </c>
-      <c r="D114" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F114" s="2">
-        <v>150402001</v>
+      <c r="D114" s="17"/>
+      <c r="E114" s="17"/>
+      <c r="F114" s="17">
+        <v>4</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H114" s="2">
-        <v>4</v>
-      </c>
-      <c r="I114">
+      <c r="H114">
         <v>45164525</v>
       </c>
-      <c r="J114" s="2">
+      <c r="I114" s="2">
         <v>-463267</v>
       </c>
-      <c r="K114" s="16">
+      <c r="J114" s="15">
         <v>-1.0153175941540191</v>
       </c>
-      <c r="L114" s="13">
+      <c r="K114" s="12">
         <v>2.5891907187615142</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>3</v>
       </c>
@@ -5611,35 +4777,28 @@
       <c r="C115" s="1">
         <v>2013</v>
       </c>
-      <c r="D115" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F115" s="2">
-        <v>150402001</v>
+      <c r="D115" s="17"/>
+      <c r="E115" s="17"/>
+      <c r="F115" s="17">
+        <v>4</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H115" s="2">
-        <v>4</v>
-      </c>
-      <c r="I115">
+      <c r="H115">
         <v>45915623</v>
       </c>
-      <c r="J115" s="1">
+      <c r="I115" s="1">
         <v>751098</v>
       </c>
-      <c r="K115" s="15">
+      <c r="J115" s="14">
         <v>1.6630264571585773</v>
       </c>
-      <c r="L115" s="13">
+      <c r="K115" s="12">
         <v>2.6070791786145526</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>3</v>
       </c>
@@ -5649,35 +4808,28 @@
       <c r="C116" s="2">
         <v>2014</v>
       </c>
-      <c r="D116" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F116" s="2">
-        <v>150402001</v>
+      <c r="D116" s="17"/>
+      <c r="E116" s="17"/>
+      <c r="F116" s="17">
+        <v>4</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H116" s="2">
-        <v>4</v>
-      </c>
-      <c r="I116">
+      <c r="H116">
         <v>43819832</v>
       </c>
-      <c r="J116" s="2">
+      <c r="I116" s="2">
         <v>-2095791</v>
       </c>
-      <c r="K116" s="16">
+      <c r="J116" s="15">
         <v>-4.5644398639652559</v>
       </c>
-      <c r="L116" s="13">
+      <c r="K116" s="12">
         <v>2.4635021093606864</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>3</v>
       </c>
@@ -5687,35 +4839,28 @@
       <c r="C117" s="1">
         <v>2015</v>
       </c>
-      <c r="D117" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F117" s="2">
-        <v>150402001</v>
+      <c r="D117" s="17"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="17">
+        <v>4</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H117" s="2">
-        <v>4</v>
-      </c>
-      <c r="I117">
+      <c r="H117">
         <v>44350748</v>
       </c>
-      <c r="J117" s="1">
+      <c r="I117" s="1">
         <v>530916</v>
       </c>
-      <c r="K117" s="15">
+      <c r="J117" s="14">
         <v>1.2115883967788832</v>
       </c>
-      <c r="L117" s="13">
+      <c r="K117" s="12">
         <v>2.4678484280293218</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>3</v>
       </c>
@@ -5725,35 +4870,28 @@
       <c r="C118" s="2">
         <v>2016</v>
       </c>
-      <c r="D118" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F118" s="2">
-        <v>150402001</v>
+      <c r="D118" s="17"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="17">
+        <v>4</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H118" s="2">
-        <v>4</v>
-      </c>
-      <c r="I118">
+      <c r="H118">
         <v>46063808</v>
       </c>
-      <c r="J118" s="2">
+      <c r="I118" s="2">
         <v>1713060</v>
       </c>
-      <c r="K118" s="16">
+      <c r="J118" s="15">
         <v>3.8625278653699371</v>
       </c>
-      <c r="L118" s="13">
+      <c r="K118" s="12">
         <v>2.5355554176998734</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>3</v>
       </c>
@@ -5763,35 +4901,28 @@
       <c r="C119" s="1">
         <v>2017</v>
       </c>
-      <c r="D119" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F119" s="2">
-        <v>150402001</v>
+      <c r="D119" s="17"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="17">
+        <v>4</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H119" s="2">
-        <v>4</v>
-      </c>
-      <c r="I119">
+      <c r="H119">
         <v>45466576</v>
       </c>
-      <c r="J119" s="1">
+      <c r="I119" s="1">
         <v>-597232</v>
       </c>
-      <c r="K119" s="15">
+      <c r="J119" s="14">
         <v>-1.296531975819281</v>
       </c>
-      <c r="L119" s="13">
+      <c r="K119" s="12">
         <v>2.4684348803139682</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>3</v>
       </c>
@@ -5801,35 +4932,28 @@
       <c r="C120" s="2">
         <v>2018</v>
       </c>
-      <c r="D120" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F120" s="2">
-        <v>150402001</v>
+      <c r="D120" s="17"/>
+      <c r="E120" s="17"/>
+      <c r="F120" s="17">
+        <v>4</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H120" s="2">
-        <v>4</v>
-      </c>
-      <c r="I120">
+      <c r="H120">
         <v>46785697</v>
       </c>
-      <c r="J120" s="2">
+      <c r="I120" s="2">
         <v>1319121</v>
       </c>
-      <c r="K120" s="16">
+      <c r="J120" s="15">
         <v>2.9012983075743377</v>
       </c>
-      <c r="L120" s="13">
+      <c r="K120" s="12">
         <v>2.4950502109041963</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>3</v>
       </c>
@@ -5839,35 +4963,28 @@
       <c r="C121" s="2">
         <v>2019</v>
       </c>
-      <c r="D121" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F121" s="2">
-        <v>150402002</v>
+      <c r="D121" s="17"/>
+      <c r="E121" s="17"/>
+      <c r="F121" s="17">
+        <v>4</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H121" s="2">
-        <v>4</v>
-      </c>
-      <c r="I121">
+      <c r="H121">
         <v>47431109</v>
       </c>
-      <c r="J121" s="2">
+      <c r="I121" s="2">
         <v>645412</v>
       </c>
-      <c r="K121" s="16">
+      <c r="J121" s="15">
         <v>1.3795070745659725</v>
       </c>
-      <c r="L121" s="13">
+      <c r="K121" s="12">
         <v>2.4823662955398631</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>3</v>
       </c>
@@ -5877,35 +4994,28 @@
       <c r="C122" s="1">
         <v>1990</v>
       </c>
-      <c r="D122" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F122" s="1">
-        <v>150402003</v>
+      <c r="D122" s="17"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="17">
+        <v>5</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H122" s="1">
-        <v>5</v>
-      </c>
-      <c r="I122">
+      <c r="H122">
         <v>2612721</v>
       </c>
-      <c r="J122" s="1">
+      <c r="I122" s="1">
         <v>0</v>
       </c>
-      <c r="K122" s="15">
+      <c r="J122" s="14">
         <v>0</v>
       </c>
-      <c r="L122" s="13">
+      <c r="K122" s="12">
         <v>0.19824880491691327</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>3</v>
       </c>
@@ -5915,35 +5025,28 @@
       <c r="C123" s="2">
         <v>1991</v>
       </c>
-      <c r="D123" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F123" s="1">
-        <v>150402003</v>
+      <c r="D123" s="17"/>
+      <c r="E123" s="17"/>
+      <c r="F123" s="17">
+        <v>5</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H123" s="1">
-        <v>5</v>
-      </c>
-      <c r="I123">
+      <c r="H123">
         <v>2198141</v>
       </c>
-      <c r="J123" s="2">
+      <c r="I123" s="2">
         <v>-414580</v>
       </c>
-      <c r="K123" s="16">
+      <c r="J123" s="15">
         <v>-15.867748603850163</v>
       </c>
-      <c r="L123" s="13">
+      <c r="K123" s="12">
         <v>0.16377149456116824</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>3</v>
       </c>
@@ -5953,35 +5056,28 @@
       <c r="C124" s="1">
         <v>1992</v>
       </c>
-      <c r="D124" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F124" s="1">
-        <v>150402003</v>
+      <c r="D124" s="17"/>
+      <c r="E124" s="17"/>
+      <c r="F124" s="17">
+        <v>5</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H124" s="1">
-        <v>5</v>
-      </c>
-      <c r="I124">
+      <c r="H124">
         <v>2612432</v>
       </c>
-      <c r="J124" s="1">
+      <c r="I124" s="1">
         <v>414291</v>
       </c>
-      <c r="K124" s="15">
+      <c r="J124" s="14">
         <v>18.847335089059346</v>
       </c>
-      <c r="L124" s="13">
+      <c r="K124" s="12">
         <v>0.19017399790435538</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>3</v>
       </c>
@@ -5991,35 +5087,28 @@
       <c r="C125" s="2">
         <v>1993</v>
       </c>
-      <c r="D125" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F125" s="1">
-        <v>150402003</v>
+      <c r="D125" s="17"/>
+      <c r="E125" s="17"/>
+      <c r="F125" s="17">
+        <v>5</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H125" s="1">
-        <v>5</v>
-      </c>
-      <c r="I125">
+      <c r="H125">
         <v>2447552</v>
       </c>
-      <c r="J125" s="2">
+      <c r="I125" s="2">
         <v>-164880</v>
       </c>
-      <c r="K125" s="16">
+      <c r="J125" s="15">
         <v>-6.3113604488078536</v>
       </c>
-      <c r="L125" s="13">
+      <c r="K125" s="12">
         <v>0.17536670027999324</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>3</v>
       </c>
@@ -6029,35 +5118,28 @@
       <c r="C126" s="1">
         <v>1994</v>
       </c>
-      <c r="D126" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F126" s="1">
-        <v>150402003</v>
+      <c r="D126" s="17"/>
+      <c r="E126" s="17"/>
+      <c r="F126" s="17">
+        <v>5</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H126" s="1">
-        <v>5</v>
-      </c>
-      <c r="I126">
+      <c r="H126">
         <v>2630752</v>
       </c>
-      <c r="J126" s="1">
+      <c r="I126" s="1">
         <v>183200</v>
       </c>
-      <c r="K126" s="15">
+      <c r="J126" s="14">
         <v>7.4850299401197598</v>
       </c>
-      <c r="L126" s="13">
+      <c r="K126" s="12">
         <v>0.18563260148431171</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>3</v>
       </c>
@@ -6067,35 +5149,28 @@
       <c r="C127" s="2">
         <v>1995</v>
       </c>
-      <c r="D127" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F127" s="1">
-        <v>150402003</v>
+      <c r="D127" s="17"/>
+      <c r="E127" s="17"/>
+      <c r="F127" s="17">
+        <v>5</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H127" s="1">
-        <v>5</v>
-      </c>
-      <c r="I127">
+      <c r="H127">
         <v>2616328</v>
       </c>
-      <c r="J127" s="2">
+      <c r="I127" s="2">
         <v>-14424</v>
       </c>
-      <c r="K127" s="16">
+      <c r="J127" s="15">
         <v>-0.54828429285618718</v>
       </c>
-      <c r="L127" s="13">
+      <c r="K127" s="12">
         <v>0.18192634033386113</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>3</v>
       </c>
@@ -6105,35 +5180,28 @@
       <c r="C128" s="1">
         <v>1996</v>
       </c>
-      <c r="D128" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F128" s="1">
-        <v>150402003</v>
+      <c r="D128" s="17"/>
+      <c r="E128" s="17"/>
+      <c r="F128" s="17">
+        <v>5</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H128" s="1">
-        <v>5</v>
-      </c>
-      <c r="I128">
+      <c r="H128">
         <v>2682252</v>
       </c>
-      <c r="J128" s="1">
+      <c r="I128" s="1">
         <v>65924</v>
       </c>
-      <c r="K128" s="15">
+      <c r="J128" s="14">
         <v>2.5197146535143911</v>
       </c>
-      <c r="L128" s="13">
+      <c r="K128" s="12">
         <v>0.18390550202205055</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>3</v>
       </c>
@@ -6143,35 +5211,28 @@
       <c r="C129" s="2">
         <v>1997</v>
       </c>
-      <c r="D129" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F129" s="1">
-        <v>150402003</v>
+      <c r="D129" s="17"/>
+      <c r="E129" s="17"/>
+      <c r="F129" s="17">
+        <v>5</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H129" s="1">
-        <v>5</v>
-      </c>
-      <c r="I129">
+      <c r="H129">
         <v>4528704</v>
       </c>
-      <c r="J129" s="2">
+      <c r="I129" s="2">
         <v>1846452</v>
       </c>
-      <c r="K129" s="16">
+      <c r="J129" s="15">
         <v>68.839616859266016</v>
       </c>
-      <c r="L129" s="13">
+      <c r="K129" s="12">
         <v>0.30635148936872586</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>3</v>
       </c>
@@ -6181,35 +5242,28 @@
       <c r="C130" s="1">
         <v>1998</v>
       </c>
-      <c r="D130" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F130" s="1">
-        <v>150402003</v>
+      <c r="D130" s="17"/>
+      <c r="E130" s="17"/>
+      <c r="F130" s="17">
+        <v>5</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H130" s="1">
-        <v>5</v>
-      </c>
-      <c r="I130">
+      <c r="H130">
         <v>6441312</v>
       </c>
-      <c r="J130" s="1">
+      <c r="I130" s="1">
         <v>1912608</v>
       </c>
-      <c r="K130" s="15">
+      <c r="J130" s="14">
         <v>42.23300970873786</v>
       </c>
-      <c r="L130" s="13">
+      <c r="K130" s="12">
         <v>0.43014062599958947</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>3</v>
       </c>
@@ -6219,35 +5273,28 @@
       <c r="C131" s="2">
         <v>1999</v>
       </c>
-      <c r="D131" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F131" s="1">
-        <v>150402003</v>
+      <c r="D131" s="17"/>
+      <c r="E131" s="17"/>
+      <c r="F131" s="17">
+        <v>5</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H131" s="1">
-        <v>5</v>
-      </c>
-      <c r="I131">
+      <c r="H131">
         <v>9031760</v>
       </c>
-      <c r="J131" s="2">
+      <c r="I131" s="2">
         <v>2590448</v>
       </c>
-      <c r="K131" s="16">
+      <c r="J131" s="15">
         <v>40.216154721274179</v>
       </c>
-      <c r="L131" s="13">
+      <c r="K131" s="12">
         <v>0.59567007838427188</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>3</v>
       </c>
@@ -6257,35 +5304,28 @@
       <c r="C132" s="1">
         <v>2000</v>
       </c>
-      <c r="D132" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F132" s="1">
-        <v>150402003</v>
+      <c r="D132" s="17"/>
+      <c r="E132" s="17"/>
+      <c r="F132" s="17">
+        <v>5</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H132" s="1">
-        <v>5</v>
-      </c>
-      <c r="I132">
+      <c r="H132">
         <v>11918992</v>
       </c>
-      <c r="J132" s="1">
+      <c r="I132" s="1">
         <v>2887232</v>
       </c>
-      <c r="K132" s="15">
+      <c r="J132" s="14">
         <v>31.967545638945232</v>
       </c>
-      <c r="L132" s="13">
+      <c r="K132" s="12">
         <v>0.77681931544698979</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>3</v>
       </c>
@@ -6295,35 +5335,28 @@
       <c r="C133" s="2">
         <v>2001</v>
       </c>
-      <c r="D133" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F133" s="1">
-        <v>150402003</v>
+      <c r="D133" s="17"/>
+      <c r="E133" s="17"/>
+      <c r="F133" s="17">
+        <v>5</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H133" s="1">
-        <v>5</v>
-      </c>
-      <c r="I133">
+      <c r="H133">
         <v>13517432</v>
       </c>
-      <c r="J133" s="2">
+      <c r="I133" s="2">
         <v>1598440</v>
       </c>
-      <c r="K133" s="16">
+      <c r="J133" s="15">
         <v>13.410865616823973</v>
       </c>
-      <c r="L133" s="13">
+      <c r="K133" s="12">
         <v>0.87096580687341907</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>3</v>
       </c>
@@ -6333,35 +5366,28 @@
       <c r="C134" s="1">
         <v>2002</v>
       </c>
-      <c r="D134" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F134" s="1">
-        <v>150402003</v>
+      <c r="D134" s="17"/>
+      <c r="E134" s="17"/>
+      <c r="F134" s="17">
+        <v>5</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H134" s="1">
-        <v>5</v>
-      </c>
-      <c r="I134">
+      <c r="H134">
         <v>13505504</v>
       </c>
-      <c r="J134" s="1">
+      <c r="I134" s="1">
         <v>-11928</v>
       </c>
-      <c r="K134" s="15">
+      <c r="J134" s="14">
         <v>-8.8241612756032359E-2</v>
       </c>
-      <c r="L134" s="13">
+      <c r="K134" s="12">
         <v>0.86067813808075999</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>3</v>
       </c>
@@ -6371,35 +5397,28 @@
       <c r="C135" s="2">
         <v>2003</v>
       </c>
-      <c r="D135" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F135" s="1">
-        <v>150402003</v>
+      <c r="D135" s="17"/>
+      <c r="E135" s="17"/>
+      <c r="F135" s="17">
+        <v>5</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H135" s="1">
-        <v>5</v>
-      </c>
-      <c r="I135">
+      <c r="H135">
         <v>14736608</v>
       </c>
-      <c r="J135" s="2">
+      <c r="I135" s="2">
         <v>1231104</v>
       </c>
-      <c r="K135" s="16">
+      <c r="J135" s="15">
         <v>9.1155724362452517</v>
       </c>
-      <c r="L135" s="13">
+      <c r="K135" s="12">
         <v>0.92934536008975732</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>3</v>
       </c>
@@ -6409,35 +5428,28 @@
       <c r="C136" s="1">
         <v>2004</v>
       </c>
-      <c r="D136" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F136" s="1">
-        <v>150402003</v>
+      <c r="D136" s="17"/>
+      <c r="E136" s="17"/>
+      <c r="F136" s="17">
+        <v>5</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H136" s="1">
-        <v>5</v>
-      </c>
-      <c r="I136">
+      <c r="H136">
         <v>16048320</v>
       </c>
-      <c r="J136" s="1">
+      <c r="I136" s="1">
         <v>1311712</v>
       </c>
-      <c r="K136" s="15">
+      <c r="J136" s="14">
         <v>8.9010442565887615</v>
       </c>
-      <c r="L136" s="13">
+      <c r="K136" s="12">
         <v>1.0016344265772854</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>3</v>
       </c>
@@ -6447,35 +5459,28 @@
       <c r="C137" s="2">
         <v>2005</v>
       </c>
-      <c r="D137" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F137" s="1">
-        <v>150402003</v>
+      <c r="D137" s="17"/>
+      <c r="E137" s="17"/>
+      <c r="F137" s="17">
+        <v>5</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H137" s="1">
-        <v>5</v>
-      </c>
-      <c r="I137">
+      <c r="H137">
         <v>15557344</v>
       </c>
-      <c r="J137" s="2">
+      <c r="I137" s="2">
         <v>-490976</v>
       </c>
-      <c r="K137" s="16">
+      <c r="J137" s="15">
         <v>-3.0593607305936072</v>
       </c>
-      <c r="L137" s="13">
+      <c r="K137" s="12">
         <v>0.96130964095566784</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>3</v>
       </c>
@@ -6485,35 +5490,28 @@
       <c r="C138" s="1">
         <v>2006</v>
       </c>
-      <c r="D138" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F138" s="1">
-        <v>150402003</v>
+      <c r="D138" s="17"/>
+      <c r="E138" s="17"/>
+      <c r="F138" s="17">
+        <v>5</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H138" s="1">
-        <v>5</v>
-      </c>
-      <c r="I138">
+      <c r="H138">
         <v>14333568</v>
       </c>
-      <c r="J138" s="1">
+      <c r="I138" s="1">
         <v>-1223776</v>
       </c>
-      <c r="K138" s="15">
+      <c r="J138" s="14">
         <v>-7.8662270372114929</v>
       </c>
-      <c r="L138" s="13">
+      <c r="K138" s="12">
         <v>0.87678397640307093</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>3</v>
       </c>
@@ -6523,35 +5521,28 @@
       <c r="C139" s="2">
         <v>2007</v>
       </c>
-      <c r="D139" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F139" s="1">
-        <v>150402003</v>
+      <c r="D139" s="17"/>
+      <c r="E139" s="17"/>
+      <c r="F139" s="17">
+        <v>5</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H139" s="1">
-        <v>5</v>
-      </c>
-      <c r="I139">
+      <c r="H139">
         <v>8764288</v>
       </c>
-      <c r="J139" s="2">
+      <c r="I139" s="2">
         <v>-5569280</v>
       </c>
-      <c r="K139" s="16">
+      <c r="J139" s="15">
         <v>-38.854805725971367</v>
       </c>
-      <c r="L139" s="13">
+      <c r="K139" s="12">
         <v>0.53059229626370319</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>3</v>
       </c>
@@ -6561,35 +5552,28 @@
       <c r="C140" s="1">
         <v>2008</v>
       </c>
-      <c r="D140" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F140" s="1">
-        <v>150402003</v>
+      <c r="D140" s="17"/>
+      <c r="E140" s="17"/>
+      <c r="F140" s="17">
+        <v>5</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H140" s="1">
-        <v>5</v>
-      </c>
-      <c r="I140">
+      <c r="H140">
         <v>4825488</v>
       </c>
-      <c r="J140" s="1">
+      <c r="I140" s="1">
         <v>-3938800</v>
       </c>
-      <c r="K140" s="15">
+      <c r="J140" s="14">
         <v>-44.941471571906355</v>
       </c>
-      <c r="L140" s="13">
+      <c r="K140" s="12">
         <v>0.28899024383758437</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>3</v>
       </c>
@@ -6599,35 +5583,28 @@
       <c r="C141" s="2">
         <v>2009</v>
       </c>
-      <c r="D141" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F141" s="1">
-        <v>150402003</v>
+      <c r="D141" s="17"/>
+      <c r="E141" s="17"/>
+      <c r="F141" s="17">
+        <v>5</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H141" s="1">
-        <v>5</v>
-      </c>
-      <c r="I141">
+      <c r="H141">
         <v>6378671</v>
       </c>
-      <c r="J141" s="2">
+      <c r="I141" s="2">
         <v>1553183</v>
       </c>
-      <c r="K141" s="16">
+      <c r="J141" s="15">
         <v>32.187065847018999</v>
       </c>
-      <c r="L141" s="13">
+      <c r="K141" s="12">
         <v>0.37785922202361721</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>3</v>
       </c>
@@ -6637,35 +5614,28 @@
       <c r="C142" s="1">
         <v>2010</v>
       </c>
-      <c r="D142" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F142" s="1">
-        <v>150402003</v>
+      <c r="D142" s="17"/>
+      <c r="E142" s="17"/>
+      <c r="F142" s="17">
+        <v>5</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H142" s="1">
-        <v>5</v>
-      </c>
-      <c r="I142">
+      <c r="H142">
         <v>10226747</v>
       </c>
-      <c r="J142" s="1">
+      <c r="I142" s="1">
         <v>3848076</v>
       </c>
-      <c r="K142" s="15">
+      <c r="J142" s="14">
         <v>60.327237444916037</v>
       </c>
-      <c r="L142" s="13">
+      <c r="K142" s="12">
         <v>0.59931966422500516</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>3</v>
       </c>
@@ -6675,35 +5645,28 @@
       <c r="C143" s="2">
         <v>2011</v>
       </c>
-      <c r="D143" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F143" s="1">
-        <v>150402003</v>
+      <c r="D143" s="17"/>
+      <c r="E143" s="17"/>
+      <c r="F143" s="17">
+        <v>5</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H143" s="1">
-        <v>5</v>
-      </c>
-      <c r="I143">
+      <c r="H143">
         <v>10449728</v>
       </c>
-      <c r="J143" s="2">
+      <c r="I143" s="2">
         <v>222981</v>
       </c>
-      <c r="K143" s="16">
+      <c r="J143" s="15">
         <v>2.1803707474136202</v>
       </c>
-      <c r="L143" s="13">
+      <c r="K143" s="12">
         <v>0.6056353137814483</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>3</v>
       </c>
@@ -6713,35 +5676,28 @@
       <c r="C144" s="1">
         <v>2012</v>
       </c>
-      <c r="D144" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F144" s="1">
-        <v>150402003</v>
+      <c r="D144" s="17"/>
+      <c r="E144" s="17"/>
+      <c r="F144" s="17">
+        <v>5</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H144" s="1">
-        <v>5</v>
-      </c>
-      <c r="I144">
+      <c r="H144">
         <v>9808976</v>
       </c>
-      <c r="J144" s="1">
+      <c r="I144" s="1">
         <v>-640752</v>
       </c>
-      <c r="K144" s="15">
+      <c r="J144" s="14">
         <v>-6.1317576878556075</v>
       </c>
-      <c r="L144" s="13">
+      <c r="K144" s="12">
         <v>0.56232872192842587</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>3</v>
       </c>
@@ -6751,35 +5707,28 @@
       <c r="C145" s="2">
         <v>2013</v>
       </c>
-      <c r="D145" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F145" s="1">
-        <v>150402003</v>
+      <c r="D145" s="17"/>
+      <c r="E145" s="17"/>
+      <c r="F145" s="17">
+        <v>5</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H145" s="1">
-        <v>5</v>
-      </c>
-      <c r="I145">
+      <c r="H145">
         <v>9292317</v>
       </c>
-      <c r="J145" s="2">
+      <c r="I145" s="2">
         <v>-516659</v>
       </c>
-      <c r="K145" s="16">
+      <c r="J145" s="15">
         <v>-5.2672062812672804</v>
       </c>
-      <c r="L145" s="13">
+      <c r="K145" s="12">
         <v>0.52761575666273863</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>3</v>
       </c>
@@ -6789,35 +5738,28 @@
       <c r="C146" s="1">
         <v>2014</v>
       </c>
-      <c r="D146" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F146" s="1">
-        <v>150402003</v>
+      <c r="D146" s="17"/>
+      <c r="E146" s="17"/>
+      <c r="F146" s="17">
+        <v>5</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H146" s="1">
-        <v>5</v>
-      </c>
-      <c r="I146">
+      <c r="H146">
         <v>8295685</v>
       </c>
-      <c r="J146" s="1">
+      <c r="I146" s="1">
         <v>-996632</v>
       </c>
-      <c r="K146" s="15">
+      <c r="J146" s="14">
         <v>-10.725333627770125</v>
       </c>
-      <c r="L146" s="13">
+      <c r="K146" s="12">
         <v>0.4663741635543423</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>3</v>
       </c>
@@ -6827,35 +5769,28 @@
       <c r="C147" s="2">
         <v>2015</v>
       </c>
-      <c r="D147" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F147" s="1">
-        <v>150402003</v>
+      <c r="D147" s="17"/>
+      <c r="E147" s="17"/>
+      <c r="F147" s="17">
+        <v>5</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H147" s="1">
-        <v>5</v>
-      </c>
-      <c r="I147">
+      <c r="H147">
         <v>9111963</v>
       </c>
-      <c r="J147" s="2">
+      <c r="I147" s="2">
         <v>816278</v>
       </c>
-      <c r="K147" s="16">
+      <c r="J147" s="15">
         <v>9.8397902041844656</v>
       </c>
-      <c r="L147" s="13">
+      <c r="K147" s="12">
         <v>0.5070251253893473</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>3</v>
       </c>
@@ -6865,35 +5800,28 @@
       <c r="C148" s="1">
         <v>2016</v>
       </c>
-      <c r="D148" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F148" s="1">
-        <v>150402003</v>
+      <c r="D148" s="17"/>
+      <c r="E148" s="17"/>
+      <c r="F148" s="17">
+        <v>5</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H148" s="1">
-        <v>5</v>
-      </c>
-      <c r="I148">
+      <c r="H148">
         <v>9951424</v>
       </c>
-      <c r="J148" s="1">
+      <c r="I148" s="1">
         <v>839461</v>
       </c>
-      <c r="K148" s="15">
+      <c r="J148" s="14">
         <v>9.2127349507455207</v>
       </c>
-      <c r="L148" s="13">
+      <c r="K148" s="12">
         <v>0.54777032409106396</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>3</v>
       </c>
@@ -6903,35 +5831,28 @@
       <c r="C149" s="2">
         <v>2017</v>
       </c>
-      <c r="D149" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F149" s="1">
-        <v>150402003</v>
+      <c r="D149" s="17"/>
+      <c r="E149" s="17"/>
+      <c r="F149" s="17">
+        <v>5</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H149" s="1">
-        <v>5</v>
-      </c>
-      <c r="I149">
+      <c r="H149">
         <v>9944096</v>
       </c>
-      <c r="J149" s="2">
+      <c r="I149" s="2">
         <v>-7328</v>
       </c>
-      <c r="K149" s="16">
+      <c r="J149" s="15">
         <v>-7.3637702503681887E-2</v>
       </c>
-      <c r="L149" s="13">
+      <c r="K149" s="12">
         <v>0.53987688493610364</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
         <v>3</v>
       </c>
@@ -6941,35 +5862,28 @@
       <c r="C150" s="9">
         <v>2018</v>
       </c>
-      <c r="D150" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F150" s="1">
-        <v>150402003</v>
+      <c r="D150" s="17"/>
+      <c r="E150" s="17"/>
+      <c r="F150" s="17">
+        <v>5</v>
       </c>
       <c r="G150" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H150" s="1">
-        <v>5</v>
-      </c>
-      <c r="I150">
+      <c r="H150">
         <v>11359416</v>
       </c>
-      <c r="J150" s="9">
+      <c r="I150" s="9">
         <v>1415320</v>
       </c>
-      <c r="K150" s="17">
+      <c r="J150" s="16">
         <v>14.232766859853324</v>
       </c>
-      <c r="L150" s="14">
+      <c r="K150" s="13">
         <v>0.60579012612654892</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
         <v>3</v>
       </c>
@@ -6979,31 +5893,24 @@
       <c r="C151" s="9">
         <v>2019</v>
       </c>
-      <c r="D151" s="1">
-        <v>150402</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F151" s="1">
-        <v>150402004</v>
+      <c r="D151" s="17"/>
+      <c r="E151" s="17"/>
+      <c r="F151" s="17">
+        <v>5</v>
       </c>
       <c r="G151" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H151" s="1">
-        <v>5</v>
-      </c>
-      <c r="I151">
+      <c r="H151">
         <v>11479202</v>
       </c>
-      <c r="J151" s="11">
+      <c r="I151" s="10">
         <v>119786</v>
       </c>
-      <c r="K151" s="17">
+      <c r="J151" s="16">
         <v>1.0545084359970618</v>
       </c>
-      <c r="L151" s="14">
+      <c r="K151" s="13">
         <v>0.60077836561851816</v>
       </c>
     </row>
@@ -7020,7 +5927,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7040,43 +5947,43 @@
         <v>14</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>31</v>
-      </c>
-      <c r="N1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -7084,25 +5991,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
         <v>4</v>
@@ -7111,16 +6018,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="12">
+        <v>47</v>
+      </c>
+      <c r="L2" s="11">
         <v>44313</v>
       </c>
       <c r="M2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -7128,25 +6035,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s">
         <v>4</v>
@@ -7155,16 +6062,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" s="12">
+        <v>46</v>
+      </c>
+      <c r="L3" s="11">
         <v>44313</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -7172,25 +6079,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s">
         <v>4</v>
@@ -7199,16 +6106,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" s="12">
+        <v>52</v>
+      </c>
+      <c r="L4" s="11">
         <v>44313</v>
       </c>
       <c r="M4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -7216,25 +6123,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I5" t="s">
         <v>4</v>
@@ -7243,16 +6150,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L5" s="12">
+        <v>54</v>
+      </c>
+      <c r="L5" s="11">
         <v>44313</v>
       </c>
       <c r="M5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -7260,25 +6167,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
         <v>4</v>
@@ -7287,16 +6194,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>56</v>
-      </c>
-      <c r="L6" s="12">
+        <v>55</v>
+      </c>
+      <c r="L6" s="11">
         <v>44313</v>
       </c>
       <c r="M6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
